--- a/datasheet.v3.xlsx
+++ b/datasheet.v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13013\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FA685C-8ACF-4AB5-B0AF-B77AAE8755B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13249BB-7C33-4089-870F-319E271F5CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="3" activeTab="7" xr2:uid="{14A0698F-9BE0-48A9-BAAE-4EF7C48408DF}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -138,6 +138,10 @@
     <t>Return</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>Risk-free Return</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -149,7 +153,7 @@
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
     <numFmt numFmtId="179" formatCode="0.000000_);[Red]\(0.000000\)"/>
     <numFmt numFmtId="180" formatCode="#,##0_ "/>
-    <numFmt numFmtId="185" formatCode="0.0000%"/>
+    <numFmt numFmtId="181" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -777,10 +781,10 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8576,7 +8580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1C2CCC-FBF4-4649-8B89-E71E49F170EC}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -11064,7 +11068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B4B218-505A-48A2-A15E-6E45481AB456}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -18493,10 +18497,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A295558D-2F34-46DE-9488-6060C8789830}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18505,428 +18509,587 @@
     <col min="2" max="2" width="12.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45488</v>
       </c>
       <c r="B2" s="11">
         <v>-1.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>3.2339000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45495</v>
       </c>
       <c r="B3" s="11">
         <v>-5.8599999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>3.4630000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45502</v>
       </c>
       <c r="B4" s="11">
         <v>1.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>3.1213000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45509</v>
       </c>
       <c r="B5" s="11">
         <v>-0.16259999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>11.002599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45516</v>
       </c>
       <c r="B6" s="11">
         <v>1.8599999999999998E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>3.3169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45523</v>
       </c>
       <c r="B7" s="11">
         <v>0.14940000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>3.085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45530</v>
       </c>
       <c r="B8" s="11">
         <v>-0.1239</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>3.0329999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45537</v>
       </c>
       <c r="B9" s="11">
         <v>-4.0399999999999998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>3.0548000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45544</v>
       </c>
       <c r="B10" s="11">
         <v>7.6399999999999996E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>3.2252999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45551</v>
       </c>
       <c r="B11" s="11">
         <v>3.6200000000000003E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>3.5034999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45558</v>
       </c>
       <c r="B12" s="11">
         <v>0.1106</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>3.5428000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45565</v>
       </c>
       <c r="B13" s="11">
         <v>-0.1462</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>3.2866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45572</v>
       </c>
       <c r="B14" s="11">
         <v>2.76E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>3.3885000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45579</v>
       </c>
       <c r="B15" s="11">
         <v>4.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>3.5344000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45586</v>
       </c>
       <c r="B16" s="11">
         <v>1.5E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>3.1488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45593</v>
       </c>
       <c r="B17" s="11">
         <v>-1.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>3.0754000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45600</v>
       </c>
       <c r="B18" s="11">
         <v>0.1321</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>3.1852999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45607</v>
       </c>
       <c r="B19" s="11">
         <v>-3.9800000000000002E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>3.3946999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45614</v>
       </c>
       <c r="B20" s="11">
         <v>0.1232</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>3.2372999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45621</v>
       </c>
       <c r="B21" s="11">
         <v>0.2697</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>3.2256999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45628</v>
       </c>
       <c r="B22" s="11">
         <v>0.42980000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>3.2715000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45635</v>
       </c>
       <c r="B23" s="11">
         <v>2.18E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>3.1730999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45642</v>
       </c>
       <c r="B24" s="11">
         <v>-0.27150000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>3.1718000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45649</v>
       </c>
       <c r="B25" s="11">
         <v>0.1133</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>3.177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45656</v>
       </c>
       <c r="B26" s="11">
         <v>-1.72E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>3.0575000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45663</v>
       </c>
       <c r="B27" s="11">
         <v>-0.1338</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>3.1652999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45670</v>
       </c>
       <c r="B28" s="11">
         <v>0.12870000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>3.4571000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45677</v>
       </c>
       <c r="B29" s="11">
         <v>-6.2600000000000003E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>3.8557000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45684</v>
       </c>
       <c r="B30" s="11">
         <v>-4.7899999999999998E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>3.4150999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45691</v>
       </c>
       <c r="B31" s="11">
         <v>-0.2465</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>13.072800000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45698</v>
       </c>
       <c r="B32" s="11">
         <v>5.91E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>3.1728999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45705</v>
       </c>
       <c r="B33" s="11">
         <v>3.15E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>3.0707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45712</v>
       </c>
       <c r="B34" s="11">
         <v>-0.20499999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>3.1013000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45719</v>
       </c>
       <c r="B35" s="11">
         <v>1.5E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>3.6983999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45726</v>
       </c>
       <c r="B36" s="11">
         <v>-0.14680000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>3.4024000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45733</v>
       </c>
       <c r="B37" s="11">
         <v>7.6499999999999999E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>2.9849000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45740</v>
       </c>
       <c r="B38" s="11">
         <v>-3.0999999999999999E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>2.9643000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45747</v>
       </c>
       <c r="B39" s="11">
         <v>-8.9800000000000005E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>3.0464000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45754</v>
       </c>
       <c r="B40" s="11">
         <v>-3.6999999999999998E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>8.1608000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45761</v>
       </c>
       <c r="B41" s="11">
         <v>1.2800000000000001E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>3.3052000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45768</v>
       </c>
       <c r="B42" s="11">
         <v>0.37209999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>3.0533999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45775</v>
       </c>
       <c r="B43" s="11">
         <v>3.4500000000000003E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>3.0043000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45782</v>
       </c>
       <c r="B44" s="11">
         <v>-6.4199999999999993E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>2.9958999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45789</v>
       </c>
       <c r="B45" s="11">
         <v>0.37209999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>3.2523</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45796</v>
       </c>
       <c r="B46" s="11">
         <v>3.4500000000000003E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>3.3980999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45803</v>
       </c>
       <c r="B47" s="11">
         <v>-6.4199999999999993E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>3.0232999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45810</v>
       </c>
       <c r="B48" s="11">
         <v>-2.7000000000000001E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>3.028</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45817</v>
       </c>
       <c r="B49" s="11">
         <v>7.1300000000000002E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>2.9763999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45824</v>
       </c>
       <c r="B50" s="11">
         <v>-3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>2.948</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45831</v>
       </c>
       <c r="B51" s="11">
         <v>-4.2900000000000001E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>3.3159999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45838</v>
       </c>
       <c r="B52" s="11">
         <v>4.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>2.9489999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45845</v>
       </c>
       <c r="B53" s="11">
         <v>0.18360000000000001</v>
+      </c>
+      <c r="C53">
+        <v>2.9537</v>
       </c>
     </row>
   </sheetData>
@@ -18940,7 +19103,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/datasheet.v3.xlsx
+++ b/datasheet.v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13013\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13013\Desktop\Dissertation\Zhengyu-Chen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13249BB-7C33-4089-870F-319E271F5CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93767EB9-BF68-4EFB-BD6F-F556D7867B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="3" activeTab="7" xr2:uid="{14A0698F-9BE0-48A9-BAAE-4EF7C48408DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="3" activeTab="3" xr2:uid="{14A0698F-9BE0-48A9-BAAE-4EF7C48408DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Gov" sheetId="11" r:id="rId1"/>
@@ -8578,10 +8578,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1C2CCC-FBF4-4649-8B89-E71E49F170EC}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11056,6 +11056,64 @@
       </c>
       <c r="O52">
         <v>273.029267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <f>SUM(B2:B52)</f>
+        <v>19382105.951939993</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:O53" si="0">SUM(C2:C52)</f>
+        <v>6925251.5316377133</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>19953138</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>17299504.523703989</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>9098122.1060999967</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>7852324.3067519907</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>1066567.9207909987</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>90816.289162999863</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>103884299.28309089</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>81016061.081527919</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>34578161.276487976</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>5091057.3076009974</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>27987492.914920975</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="0"/>
+        <v>774116.32331499993</v>
       </c>
     </row>
   </sheetData>
@@ -18499,7 +18557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A295558D-2F34-46DE-9488-6060C8789830}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -21562,6 +21620,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="153d8594-0a83-44ab-ac9b-f2396cacfa35" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D88AD158F620174D94686648ED95BD86" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66812eb6a8111a46025794a6c33a6a09">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="153d8594-0a83-44ab-ac9b-f2396cacfa35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="175c910ba883c365bec5c8b64d84f148" ns3:_="">
     <xsd:import namespace="153d8594-0a83-44ab-ac9b-f2396cacfa35"/>
@@ -21741,14 +21807,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="153d8594-0a83-44ab-ac9b-f2396cacfa35" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -21759,6 +21817,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{778B1B66-4D75-4878-AA9C-9C6A65DA845B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="153d8594-0a83-44ab-ac9b-f2396cacfa35"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2E18A1D-6641-492B-9D0B-DA5C5A3F7ED4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21776,22 +21850,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{778B1B66-4D75-4878-AA9C-9C6A65DA845B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="153d8594-0a83-44ab-ac9b-f2396cacfa35"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56CF2B96-7985-4D13-A0E6-8E5013531440}">
   <ds:schemaRefs>

--- a/datasheet.v3.xlsx
+++ b/datasheet.v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13013\Desktop\Dissertation\Zhengyu-Chen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93767EB9-BF68-4EFB-BD6F-F556D7867B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AC087F-1403-400F-966A-36B71A9262DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="3" activeTab="3" xr2:uid="{14A0698F-9BE0-48A9-BAAE-4EF7C48408DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="4" xr2:uid="{14A0698F-9BE0-48A9-BAAE-4EF7C48408DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Gov" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>Risk-free Return</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -8580,8 +8584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1C2CCC-FBF4-4649-8B89-E71E49F170EC}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:O53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11124,10 +11128,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B4B218-505A-48A2-A15E-6E45481AB456}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="H91" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103:O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11145,7 +11149,7 @@
     <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11483,7 +11487,7 @@
         <v>45537</v>
       </c>
       <c r="B8" s="5">
-        <v>21000000000</v>
+        <v>2100000000</v>
       </c>
       <c r="C8" s="5">
         <v>1744582369.08272</v>
@@ -11530,7 +11534,7 @@
         <v>45544</v>
       </c>
       <c r="B9" s="5">
-        <v>21000000000</v>
+        <v>2100000000</v>
       </c>
       <c r="C9" s="5">
         <v>1756088497.44487</v>
@@ -11577,7 +11581,7 @@
         <v>45551</v>
       </c>
       <c r="B10" s="5">
-        <v>21000000000</v>
+        <v>2100000000</v>
       </c>
       <c r="C10" s="5">
         <v>1837847915.93836</v>
@@ -11624,7 +11628,7 @@
         <v>45558</v>
       </c>
       <c r="B11" s="5">
-        <v>21000000000</v>
+        <v>2100000000</v>
       </c>
       <c r="C11" s="5">
         <v>1979768522.19892</v>
@@ -11671,7 +11675,7 @@
         <v>45565</v>
       </c>
       <c r="B12" s="5">
-        <v>21000000000</v>
+        <v>2100000000</v>
       </c>
       <c r="C12" s="5">
         <v>1827215238.7184801</v>
@@ -13592,6 +13596,3296 @@
       <c r="O52" s="5">
         <v>5200000</v>
       </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="5">
+        <f>B3-B2</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" ref="C53:O53" si="0">C52-C2</f>
+        <v>-834251519.77159023</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="0"/>
+        <v>-517086063.5165801</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="0"/>
+        <v>-2200000000</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="0"/>
+        <v>10243833.700209007</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="0"/>
+        <v>-5354855.665291002</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" si="0"/>
+        <v>-11672768.251846518</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="0"/>
+        <v>-800000</v>
+      </c>
+      <c r="J53" s="5">
+        <f t="shared" si="0"/>
+        <v>85665007.147690982</v>
+      </c>
+      <c r="K53" s="5">
+        <f t="shared" si="0"/>
+        <v>-119442818.68823102</v>
+      </c>
+      <c r="L53" s="5">
+        <f t="shared" si="0"/>
+        <v>-24200000</v>
+      </c>
+      <c r="M53" s="5">
+        <f t="shared" si="0"/>
+        <v>-26806363.735064492</v>
+      </c>
+      <c r="N53" s="5">
+        <f t="shared" si="0"/>
+        <v>-183100000</v>
+      </c>
+      <c r="O53" s="5">
+        <f t="shared" si="0"/>
+        <v>-1533333.333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B54" s="5">
+        <f>B4-B3</f>
+        <v>-600000000</v>
+      </c>
+      <c r="C54" s="5">
+        <f>C4-C3</f>
+        <v>-286639613.14157033</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" ref="D54:O54" si="1">D4-D3</f>
+        <v>-349109653.55672002</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="1"/>
+        <v>-600000000</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="1"/>
+        <v>-19053404.765130609</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" si="1"/>
+        <v>-3567676.7214650009</v>
+      </c>
+      <c r="H54" s="5">
+        <f t="shared" si="1"/>
+        <v>-3004962.9151087012</v>
+      </c>
+      <c r="I54" s="5">
+        <f t="shared" si="1"/>
+        <v>-600000</v>
+      </c>
+      <c r="J54" s="5">
+        <f t="shared" si="1"/>
+        <v>-10015959.250252008</v>
+      </c>
+      <c r="K54" s="5">
+        <f t="shared" si="1"/>
+        <v>-62799355.374942988</v>
+      </c>
+      <c r="L54" s="5">
+        <f t="shared" si="1"/>
+        <v>-16600000</v>
+      </c>
+      <c r="M54" s="5">
+        <f t="shared" si="1"/>
+        <v>-31280603.76732029</v>
+      </c>
+      <c r="N54" s="5">
+        <f t="shared" si="1"/>
+        <v>-54600000</v>
+      </c>
+      <c r="O54" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
+        <f t="shared" ref="B55:G118" si="2">B5-B4</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="5">
+        <f>C5-C4</f>
+        <v>-26270777.474359989</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" ref="D55:O55" si="3">D5-D4</f>
+        <v>45050105.161979914</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="3"/>
+        <v>9744015.5294241011</v>
+      </c>
+      <c r="G55" s="5">
+        <f t="shared" si="3"/>
+        <v>74551.954205799848</v>
+      </c>
+      <c r="H55" s="5">
+        <f t="shared" si="3"/>
+        <v>506351.31972109899</v>
+      </c>
+      <c r="I55" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
+        <f t="shared" si="3"/>
+        <v>5445038.59197402</v>
+      </c>
+      <c r="K55" s="5">
+        <f t="shared" si="3"/>
+        <v>2091941.2797420025</v>
+      </c>
+      <c r="L55" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="5">
+        <f t="shared" si="3"/>
+        <v>3225539.2348224968</v>
+      </c>
+      <c r="N55" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B56" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" si="2"/>
+        <v>40183251.696580172</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="2"/>
+        <v>91025122.535619974</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="2"/>
+        <v>4256902.3347046077</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" si="2"/>
+        <v>1311708.1916836016</v>
+      </c>
+      <c r="H56" s="5">
+        <f t="shared" ref="H56:O56" si="4">H6-H5</f>
+        <v>1926584.2177523002</v>
+      </c>
+      <c r="I56" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" si="4"/>
+        <v>18554799.643918991</v>
+      </c>
+      <c r="K56" s="5">
+        <f t="shared" si="4"/>
+        <v>11681949.819875002</v>
+      </c>
+      <c r="L56" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="5">
+        <f t="shared" si="4"/>
+        <v>11645775.117900491</v>
+      </c>
+      <c r="N56" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B57" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="5">
+        <f t="shared" si="2"/>
+        <v>-67686390.031990051</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="2"/>
+        <v>-132859913.14752007</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="2"/>
+        <v>-6147918.9879054129</v>
+      </c>
+      <c r="G57" s="5">
+        <f t="shared" si="2"/>
+        <v>-866528.26923770085</v>
+      </c>
+      <c r="H57" s="5">
+        <f t="shared" ref="H57:O57" si="5">H7-H6</f>
+        <v>475793.90946940146</v>
+      </c>
+      <c r="I57" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
+        <f t="shared" si="5"/>
+        <v>-6966103.7954359949</v>
+      </c>
+      <c r="K57" s="5">
+        <f t="shared" si="5"/>
+        <v>-17108195.997117996</v>
+      </c>
+      <c r="L57" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="5">
+        <f t="shared" si="5"/>
+        <v>-9496301.5268742889</v>
+      </c>
+      <c r="N57" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B58" s="5">
+        <f t="shared" si="2"/>
+        <v>-100000000</v>
+      </c>
+      <c r="C58" s="5">
+        <f t="shared" si="2"/>
+        <v>-109766664.78843999</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="2"/>
+        <v>-112448998.84958994</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="2"/>
+        <v>300000000</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="2"/>
+        <v>-8598510.3660358936</v>
+      </c>
+      <c r="G58" s="5">
+        <f t="shared" si="2"/>
+        <v>-303009.22609359957</v>
+      </c>
+      <c r="H58" s="5">
+        <f t="shared" ref="H58:O58" si="6">H8-H7</f>
+        <v>-3699460.1726123001</v>
+      </c>
+      <c r="I58" s="5">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="J58" s="5">
+        <f t="shared" si="6"/>
+        <v>692364.67571997643</v>
+      </c>
+      <c r="K58" s="5">
+        <f t="shared" si="6"/>
+        <v>-16276642.703119993</v>
+      </c>
+      <c r="L58" s="5">
+        <f t="shared" si="6"/>
+        <v>-100000</v>
+      </c>
+      <c r="M58" s="5">
+        <f t="shared" si="6"/>
+        <v>-5658656.1949712038</v>
+      </c>
+      <c r="N58" s="5">
+        <f t="shared" si="6"/>
+        <v>-27100000</v>
+      </c>
+      <c r="O58" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B59" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="5">
+        <f t="shared" si="2"/>
+        <v>11506128.362149954</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="2"/>
+        <v>51635215.165799975</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="2"/>
+        <v>8966912.541574195</v>
+      </c>
+      <c r="G59" s="5">
+        <f t="shared" si="2"/>
+        <v>525884.5643345993</v>
+      </c>
+      <c r="H59" s="5">
+        <f t="shared" ref="H59:O59" si="7">H9-H8</f>
+        <v>-1870048.7947828006</v>
+      </c>
+      <c r="I59" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="5">
+        <f t="shared" si="7"/>
+        <v>13591707.180444002</v>
+      </c>
+      <c r="K59" s="5">
+        <f t="shared" si="7"/>
+        <v>4942104.3766050041</v>
+      </c>
+      <c r="L59" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="5">
+        <f t="shared" si="7"/>
+        <v>5773106.2024246007</v>
+      </c>
+      <c r="N59" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B60" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="5">
+        <f t="shared" si="2"/>
+        <v>81759418.493489981</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="2"/>
+        <v>17335724.113540173</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="2"/>
+        <v>25989795.965039998</v>
+      </c>
+      <c r="G60" s="5">
+        <f t="shared" si="2"/>
+        <v>333601.6062580999</v>
+      </c>
+      <c r="H60" s="5">
+        <f t="shared" ref="H60:O60" si="8">H10-H9</f>
+        <v>668861.20424279943</v>
+      </c>
+      <c r="I60" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <f t="shared" si="8"/>
+        <v>4107425.054351002</v>
+      </c>
+      <c r="K60" s="5">
+        <f t="shared" si="8"/>
+        <v>7500899.499026984</v>
+      </c>
+      <c r="L60" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="5">
+        <f t="shared" si="8"/>
+        <v>7147197.6238113046</v>
+      </c>
+      <c r="N60" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B61" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="5">
+        <f t="shared" si="2"/>
+        <v>141920606.26056004</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="2"/>
+        <v>120487254.51784992</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" si="2"/>
+        <v>12488194.823767006</v>
+      </c>
+      <c r="G61" s="5">
+        <f t="shared" ref="G61:O61" si="9">G11-G10</f>
+        <v>903095.75904420018</v>
+      </c>
+      <c r="H61" s="5">
+        <f t="shared" si="9"/>
+        <v>631322.48001260124</v>
+      </c>
+      <c r="I61" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <f t="shared" si="9"/>
+        <v>12808490.172241002</v>
+      </c>
+      <c r="K61" s="5">
+        <f t="shared" si="9"/>
+        <v>30667588.919981003</v>
+      </c>
+      <c r="L61" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="5">
+        <f t="shared" si="9"/>
+        <v>11838691.898176596</v>
+      </c>
+      <c r="N61" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B62" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="5">
+        <f t="shared" si="2"/>
+        <v>-152553283.4804399</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="2"/>
+        <v>-166128423.50321007</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" si="2"/>
+        <v>-12818499.884948999</v>
+      </c>
+      <c r="G62" s="5">
+        <f t="shared" ref="G62:O62" si="10">G12-G11</f>
+        <v>-1408876.6154807005</v>
+      </c>
+      <c r="H62" s="5">
+        <f t="shared" si="10"/>
+        <v>-1689150.9742067009</v>
+      </c>
+      <c r="I62" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <f t="shared" si="10"/>
+        <v>-16711294.232061982</v>
+      </c>
+      <c r="K62" s="5">
+        <f t="shared" si="10"/>
+        <v>-28607738.370415002</v>
+      </c>
+      <c r="L62" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="5">
+        <f t="shared" si="10"/>
+        <v>-14609439.102686405</v>
+      </c>
+      <c r="N62" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B63" s="5">
+        <f t="shared" si="2"/>
+        <v>-100000000</v>
+      </c>
+      <c r="C63" s="5">
+        <f t="shared" si="2"/>
+        <v>19025170.487789869</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="2"/>
+        <v>-20454033.026299953</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" si="2"/>
+        <v>300000000</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="2"/>
+        <v>1935046.416779995</v>
+      </c>
+      <c r="G63" s="5">
+        <f t="shared" ref="G63:O63" si="11">G13-G12</f>
+        <v>-897345.64815679938</v>
+      </c>
+      <c r="H63" s="5">
+        <f t="shared" si="11"/>
+        <v>71807.488279100507</v>
+      </c>
+      <c r="I63" s="5">
+        <f t="shared" si="11"/>
+        <v>100000</v>
+      </c>
+      <c r="J63" s="5">
+        <f t="shared" si="11"/>
+        <v>-380432.95875102282</v>
+      </c>
+      <c r="K63" s="5">
+        <f t="shared" si="11"/>
+        <v>-2611514.7196860015</v>
+      </c>
+      <c r="L63" s="5">
+        <f t="shared" si="11"/>
+        <v>-600000</v>
+      </c>
+      <c r="M63" s="5">
+        <f t="shared" si="11"/>
+        <v>1133610.1957565099</v>
+      </c>
+      <c r="N63" s="5">
+        <f t="shared" si="11"/>
+        <v>17600000</v>
+      </c>
+      <c r="O63" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B64" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C64" s="5">
+        <f t="shared" si="2"/>
+        <v>6182880.0567600727</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="2"/>
+        <v>72579059.168910027</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="2"/>
+        <v>10063171.296082005</v>
+      </c>
+      <c r="G64" s="5">
+        <f t="shared" ref="G64:O64" si="12">G14-G13</f>
+        <v>942988.61806830019</v>
+      </c>
+      <c r="H64" s="5">
+        <f t="shared" si="12"/>
+        <v>868970.98102559894</v>
+      </c>
+      <c r="I64" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <f t="shared" si="12"/>
+        <v>7829322.7280910015</v>
+      </c>
+      <c r="K64" s="5">
+        <f t="shared" si="12"/>
+        <v>11568415.072133005</v>
+      </c>
+      <c r="L64" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="5">
+        <f t="shared" si="12"/>
+        <v>8381187.2299362868</v>
+      </c>
+      <c r="N64" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B65" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="5">
+        <f t="shared" si="2"/>
+        <v>-150934397.77770996</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="2"/>
+        <v>-52937959.475880146</v>
+      </c>
+      <c r="E65" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="2"/>
+        <v>-3205607.5644659996</v>
+      </c>
+      <c r="G65" s="5">
+        <f t="shared" ref="G65:O65" si="13">G15-G14</f>
+        <v>-1875097.5616247002</v>
+      </c>
+      <c r="H65" s="5">
+        <f t="shared" si="13"/>
+        <v>-603848.84254710004</v>
+      </c>
+      <c r="I65" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <f t="shared" si="13"/>
+        <v>-7358063.3158780038</v>
+      </c>
+      <c r="K65" s="5">
+        <f t="shared" si="13"/>
+        <v>-8855883.6702489853</v>
+      </c>
+      <c r="L65" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="5">
+        <f t="shared" si="13"/>
+        <v>-3262202.6107282937</v>
+      </c>
+      <c r="N65" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B66" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="5">
+        <f t="shared" si="2"/>
+        <v>-20655224.182090044</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="2"/>
+        <v>-11973322.887199879</v>
+      </c>
+      <c r="E66" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" si="2"/>
+        <v>-3486342.505479008</v>
+      </c>
+      <c r="G66" s="5">
+        <f t="shared" ref="G66:O66" si="14">G16-G15</f>
+        <v>1139531.4053447004</v>
+      </c>
+      <c r="H66" s="5">
+        <f t="shared" si="14"/>
+        <v>170842.10244650021</v>
+      </c>
+      <c r="I66" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <f t="shared" si="14"/>
+        <v>-2691142.4762169719</v>
+      </c>
+      <c r="K66" s="5">
+        <f t="shared" si="14"/>
+        <v>-7411321.6342850029</v>
+      </c>
+      <c r="L66" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="5">
+        <f t="shared" si="14"/>
+        <v>-3915684.0567860007</v>
+      </c>
+      <c r="N66" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B67" s="5">
+        <f t="shared" si="2"/>
+        <v>400000000</v>
+      </c>
+      <c r="C67" s="5">
+        <f t="shared" si="2"/>
+        <v>220369951.40815997</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" si="2"/>
+        <v>47495912.153110027</v>
+      </c>
+      <c r="E67" s="5">
+        <f t="shared" si="2"/>
+        <v>200000000</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" si="2"/>
+        <v>60053362.483897001</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" ref="G67:O67" si="15">G17-G16</f>
+        <v>1001954.2909385003</v>
+      </c>
+      <c r="H67" s="5">
+        <f t="shared" si="15"/>
+        <v>919176.66744230129</v>
+      </c>
+      <c r="I67" s="5">
+        <f t="shared" si="15"/>
+        <v>600000</v>
+      </c>
+      <c r="J67" s="5">
+        <f t="shared" si="15"/>
+        <v>18524539.21092999</v>
+      </c>
+      <c r="K67" s="5">
+        <f t="shared" si="15"/>
+        <v>27848032.264366001</v>
+      </c>
+      <c r="L67" s="5">
+        <f t="shared" si="15"/>
+        <v>2200000</v>
+      </c>
+      <c r="M67" s="5">
+        <f t="shared" si="15"/>
+        <v>4370058.8341244012</v>
+      </c>
+      <c r="N67" s="5">
+        <f t="shared" si="15"/>
+        <v>4000000</v>
+      </c>
+      <c r="O67" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B68" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="5">
+        <f t="shared" si="2"/>
+        <v>209277540.69329</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="2"/>
+        <v>13940381.683949947</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
+        <f t="shared" si="2"/>
+        <v>-11880804.42969498</v>
+      </c>
+      <c r="G68" s="5">
+        <f t="shared" ref="G68:O68" si="16">G18-G17</f>
+        <v>1127927.8231556993</v>
+      </c>
+      <c r="H68" s="5">
+        <f t="shared" si="16"/>
+        <v>816100.14770429954</v>
+      </c>
+      <c r="I68" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
+        <f t="shared" si="16"/>
+        <v>6182810.4619030058</v>
+      </c>
+      <c r="K68" s="5">
+        <f t="shared" si="16"/>
+        <v>13213212.461185008</v>
+      </c>
+      <c r="L68" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="5">
+        <f t="shared" si="16"/>
+        <v>6600410.942898497</v>
+      </c>
+      <c r="N68" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B69" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C69" s="5">
+        <f t="shared" si="2"/>
+        <v>172784038.53126979</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="2"/>
+        <v>85178968.567780018</v>
+      </c>
+      <c r="E69" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <f t="shared" si="2"/>
+        <v>-7328898.3426920176</v>
+      </c>
+      <c r="G69" s="5">
+        <f t="shared" ref="G69:O69" si="17">G19-G18</f>
+        <v>339949.44526449963</v>
+      </c>
+      <c r="H69" s="5">
+        <f t="shared" si="17"/>
+        <v>1685913.9797802996</v>
+      </c>
+      <c r="I69" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <f t="shared" si="17"/>
+        <v>858718.05404299498</v>
+      </c>
+      <c r="K69" s="5">
+        <f t="shared" si="17"/>
+        <v>12715804.625858992</v>
+      </c>
+      <c r="L69" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="5">
+        <f t="shared" si="17"/>
+        <v>15955469.386069298</v>
+      </c>
+      <c r="N69" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B70" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C70" s="5">
+        <f t="shared" si="2"/>
+        <v>216880992.10349035</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="2"/>
+        <v>842817286.97216988</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" si="2"/>
+        <v>22217541.693259001</v>
+      </c>
+      <c r="G70" s="5">
+        <f t="shared" ref="G70:O70" si="18">G20-G19</f>
+        <v>2092137.0272128005</v>
+      </c>
+      <c r="H70" s="5">
+        <f t="shared" si="18"/>
+        <v>2617595.4546916019</v>
+      </c>
+      <c r="I70" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <f t="shared" si="18"/>
+        <v>24280757.533721</v>
+      </c>
+      <c r="K70" s="5">
+        <f t="shared" si="18"/>
+        <v>60174935.711326987</v>
+      </c>
+      <c r="L70" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="5">
+        <f t="shared" si="18"/>
+        <v>64202470.199451998</v>
+      </c>
+      <c r="N70" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B71" s="5">
+        <f t="shared" si="2"/>
+        <v>200000000</v>
+      </c>
+      <c r="C71" s="5">
+        <f t="shared" si="2"/>
+        <v>584143335.6846199</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="2"/>
+        <v>517515575.85893011</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" si="2"/>
+        <v>800000000</v>
+      </c>
+      <c r="F71" s="5">
+        <f t="shared" si="2"/>
+        <v>25632361.999473989</v>
+      </c>
+      <c r="G71" s="5">
+        <f t="shared" ref="G71:O71" si="19">G21-G20</f>
+        <v>3388583.124290701</v>
+      </c>
+      <c r="H71" s="5">
+        <f t="shared" si="19"/>
+        <v>5256627.9308964983</v>
+      </c>
+      <c r="I71" s="5">
+        <f t="shared" si="19"/>
+        <v>1100000</v>
+      </c>
+      <c r="J71" s="5">
+        <f t="shared" si="19"/>
+        <v>42785012.992422998</v>
+      </c>
+      <c r="K71" s="5">
+        <f t="shared" si="19"/>
+        <v>44435206.471697032</v>
+      </c>
+      <c r="L71" s="5">
+        <f t="shared" si="19"/>
+        <v>3400000</v>
+      </c>
+      <c r="M71" s="5">
+        <f t="shared" si="19"/>
+        <v>145544061.00619704</v>
+      </c>
+      <c r="N71" s="5">
+        <f t="shared" si="19"/>
+        <v>87700000</v>
+      </c>
+      <c r="O71" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B72" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C72" s="5">
+        <f t="shared" si="2"/>
+        <v>451143350.40962982</v>
+      </c>
+      <c r="D72" s="5">
+        <f t="shared" si="2"/>
+        <v>-66597078.347270012</v>
+      </c>
+      <c r="E72" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="5">
+        <f t="shared" si="2"/>
+        <v>54434331.874570012</v>
+      </c>
+      <c r="G72" s="5">
+        <f t="shared" ref="G72:O72" si="20">G22-G21</f>
+        <v>961968.02365839854</v>
+      </c>
+      <c r="H72" s="5">
+        <f t="shared" si="20"/>
+        <v>-2171530.8856066987</v>
+      </c>
+      <c r="I72" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <f t="shared" si="20"/>
+        <v>52289320.110435992</v>
+      </c>
+      <c r="K72" s="5">
+        <f t="shared" si="20"/>
+        <v>-6574868.2972380519</v>
+      </c>
+      <c r="L72" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="5">
+        <f t="shared" si="20"/>
+        <v>17350639.237729967</v>
+      </c>
+      <c r="N72" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B73" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C73" s="5">
+        <f t="shared" si="2"/>
+        <v>-174041770.65349007</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" si="2"/>
+        <v>-115313029.25771999</v>
+      </c>
+      <c r="E73" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="5">
+        <f t="shared" si="2"/>
+        <v>80223429.056359023</v>
+      </c>
+      <c r="G73" s="5">
+        <f t="shared" ref="G73:O73" si="21">G23-G22</f>
+        <v>-1364087.9783247001</v>
+      </c>
+      <c r="H73" s="5">
+        <f t="shared" si="21"/>
+        <v>-2947928.8872974999</v>
+      </c>
+      <c r="I73" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="5">
+        <f t="shared" si="21"/>
+        <v>-799358.18014198542</v>
+      </c>
+      <c r="K73" s="5">
+        <f t="shared" si="21"/>
+        <v>-32133910.828682959</v>
+      </c>
+      <c r="L73" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="5">
+        <f t="shared" si="21"/>
+        <v>-84031911.062170982</v>
+      </c>
+      <c r="N73" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B74" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C74" s="5">
+        <f t="shared" si="2"/>
+        <v>76100232.471740246</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="2"/>
+        <v>-219874700.28154993</v>
+      </c>
+      <c r="E74" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="5">
+        <f t="shared" si="2"/>
+        <v>90586028.986869991</v>
+      </c>
+      <c r="G74" s="5">
+        <f t="shared" ref="G74:O74" si="22">G24-G23</f>
+        <v>106764.65659400076</v>
+      </c>
+      <c r="H74" s="5">
+        <f t="shared" si="22"/>
+        <v>1189221.025975097</v>
+      </c>
+      <c r="I74" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="5">
+        <f t="shared" si="22"/>
+        <v>8784440.0011689663</v>
+      </c>
+      <c r="K74" s="5">
+        <f t="shared" si="22"/>
+        <v>-7064982.887567997</v>
+      </c>
+      <c r="L74" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="5">
+        <f t="shared" si="22"/>
+        <v>-25483146.836159021</v>
+      </c>
+      <c r="N74" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B75" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C75" s="5">
+        <f t="shared" si="2"/>
+        <v>301726543.06108999</v>
+      </c>
+      <c r="D75" s="5">
+        <f t="shared" si="2"/>
+        <v>36971546.887839794</v>
+      </c>
+      <c r="E75" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="5">
+        <f t="shared" si="2"/>
+        <v>-27648027.681631982</v>
+      </c>
+      <c r="G75" s="5">
+        <f t="shared" ref="G75:O75" si="23">G25-G24</f>
+        <v>-397311.20534009859</v>
+      </c>
+      <c r="H75" s="5">
+        <f t="shared" si="23"/>
+        <v>535698.42407140136</v>
+      </c>
+      <c r="I75" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="5">
+        <f t="shared" si="23"/>
+        <v>-17259649.342661977</v>
+      </c>
+      <c r="K75" s="5">
+        <f t="shared" si="23"/>
+        <v>12495897.059068978</v>
+      </c>
+      <c r="L75" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="5">
+        <f t="shared" si="23"/>
+        <v>-3263862.3704969883</v>
+      </c>
+      <c r="N75" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B76" s="5">
+        <f t="shared" si="2"/>
+        <v>-600000000</v>
+      </c>
+      <c r="C76" s="5">
+        <f t="shared" si="2"/>
+        <v>-296942887.03476</v>
+      </c>
+      <c r="D76" s="5">
+        <f t="shared" si="2"/>
+        <v>-169720372.25972986</v>
+      </c>
+      <c r="E76" s="5">
+        <f t="shared" si="2"/>
+        <v>-1000000000</v>
+      </c>
+      <c r="F76" s="5">
+        <f t="shared" si="2"/>
+        <v>-71089538.391054034</v>
+      </c>
+      <c r="G76" s="5">
+        <f t="shared" ref="G76:O76" si="24">G26-G25</f>
+        <v>-649636.45482750237</v>
+      </c>
+      <c r="H76" s="5">
+        <f t="shared" si="24"/>
+        <v>-2073962.6049245</v>
+      </c>
+      <c r="I76" s="5">
+        <f t="shared" si="24"/>
+        <v>-700000</v>
+      </c>
+      <c r="J76" s="5">
+        <f t="shared" si="24"/>
+        <v>-21229461.757560015</v>
+      </c>
+      <c r="K76" s="5">
+        <f t="shared" si="24"/>
+        <v>-27008811.606893003</v>
+      </c>
+      <c r="L76" s="5">
+        <f t="shared" si="24"/>
+        <v>-3800000</v>
+      </c>
+      <c r="M76" s="5">
+        <f t="shared" si="24"/>
+        <v>-20518580.178198993</v>
+      </c>
+      <c r="N76" s="5">
+        <f t="shared" si="24"/>
+        <v>-97200000</v>
+      </c>
+      <c r="O76" s="5">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B77" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C77" s="5">
+        <f t="shared" si="2"/>
+        <v>-341017814.12185001</v>
+      </c>
+      <c r="D77" s="5">
+        <f t="shared" si="2"/>
+        <v>26386304.059439898</v>
+      </c>
+      <c r="E77" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="5">
+        <f t="shared" si="2"/>
+        <v>-13507690.545256972</v>
+      </c>
+      <c r="G77" s="5">
+        <f t="shared" ref="G77:O77" si="25">G27-G26</f>
+        <v>531920.77664590254</v>
+      </c>
+      <c r="H77" s="5">
+        <f t="shared" si="25"/>
+        <v>19201.275900099427</v>
+      </c>
+      <c r="I77" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="5">
+        <f t="shared" si="25"/>
+        <v>10186408.503322005</v>
+      </c>
+      <c r="K77" s="5">
+        <f t="shared" si="25"/>
+        <v>15465984.358483016</v>
+      </c>
+      <c r="L77" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="5">
+        <f t="shared" si="25"/>
+        <v>-8706964.1547010243</v>
+      </c>
+      <c r="N77" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B78" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C78" s="5">
+        <f t="shared" si="2"/>
+        <v>143353998.76954985</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="2"/>
+        <v>62315761.732570171</v>
+      </c>
+      <c r="E78" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="5">
+        <f t="shared" si="2"/>
+        <v>-40746063.632939994</v>
+      </c>
+      <c r="G78" s="5">
+        <f t="shared" ref="G78:O78" si="26">G28-G27</f>
+        <v>-407733.04361990094</v>
+      </c>
+      <c r="H78" s="5">
+        <f t="shared" si="26"/>
+        <v>-1178682.7435162999</v>
+      </c>
+      <c r="I78" s="5">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="5">
+        <f t="shared" si="26"/>
+        <v>19882467.781890035</v>
+      </c>
+      <c r="K78" s="5">
+        <f t="shared" si="26"/>
+        <v>8506681.4319660068</v>
+      </c>
+      <c r="L78" s="5">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="5">
+        <f t="shared" si="26"/>
+        <v>-19309494.008374989</v>
+      </c>
+      <c r="N78" s="5">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="5">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B79" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C79" s="5">
+        <f t="shared" si="2"/>
+        <v>-40977127.453219891</v>
+      </c>
+      <c r="D79" s="5">
+        <f t="shared" si="2"/>
+        <v>-170949357.25244999</v>
+      </c>
+      <c r="E79" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="5">
+        <f t="shared" si="2"/>
+        <v>-46680405.658036023</v>
+      </c>
+      <c r="G79" s="5">
+        <f t="shared" ref="G79:O79" si="27">G29-G28</f>
+        <v>-1838348.1972621009</v>
+      </c>
+      <c r="H79" s="5">
+        <f t="shared" si="27"/>
+        <v>-1697642.7154588997</v>
+      </c>
+      <c r="I79" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="5">
+        <f t="shared" si="27"/>
+        <v>-26352866.243315995</v>
+      </c>
+      <c r="K79" s="5">
+        <f t="shared" si="27"/>
+        <v>-2962309.4627580047</v>
+      </c>
+      <c r="L79" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="5">
+        <f t="shared" si="27"/>
+        <v>-17803812.918889999</v>
+      </c>
+      <c r="N79" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B80" s="5">
+        <f t="shared" si="2"/>
+        <v>-500000000</v>
+      </c>
+      <c r="C80" s="5">
+        <f t="shared" si="2"/>
+        <v>-65573142.410600185</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="2"/>
+        <v>-346733020.3898201</v>
+      </c>
+      <c r="E80" s="5">
+        <f t="shared" si="2"/>
+        <v>-1400000000</v>
+      </c>
+      <c r="F80" s="5">
+        <f t="shared" si="2"/>
+        <v>-68909317.403170019</v>
+      </c>
+      <c r="G80" s="5">
+        <f t="shared" ref="G80:O80" si="28">G30-G29</f>
+        <v>-2178304.2935092002</v>
+      </c>
+      <c r="H80" s="5">
+        <f t="shared" si="28"/>
+        <v>-3066606.7193134986</v>
+      </c>
+      <c r="I80" s="5">
+        <f t="shared" si="28"/>
+        <v>-1000000</v>
+      </c>
+      <c r="J80" s="5">
+        <f t="shared" si="28"/>
+        <v>-30542896.756476015</v>
+      </c>
+      <c r="K80" s="5">
+        <f t="shared" si="28"/>
+        <v>-48948020.509114027</v>
+      </c>
+      <c r="L80" s="5">
+        <f t="shared" si="28"/>
+        <v>-3400000</v>
+      </c>
+      <c r="M80" s="5">
+        <f t="shared" si="28"/>
+        <v>-50890582.218686</v>
+      </c>
+      <c r="N80" s="5">
+        <f t="shared" si="28"/>
+        <v>-75400000</v>
+      </c>
+      <c r="O80" s="5">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B81" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C81" s="5">
+        <f t="shared" si="2"/>
+        <v>-114313200.89244986</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="2"/>
+        <v>-15859098.570970058</v>
+      </c>
+      <c r="E81" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="5">
+        <f t="shared" si="2"/>
+        <v>-36869484.663794979</v>
+      </c>
+      <c r="G81" s="5">
+        <f t="shared" ref="G81:O81" si="29">G31-G30</f>
+        <v>-446279.32719470002</v>
+      </c>
+      <c r="H81" s="5">
+        <f t="shared" si="29"/>
+        <v>893855.12815209851</v>
+      </c>
+      <c r="I81" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="5">
+        <f t="shared" si="29"/>
+        <v>362199.42121997476</v>
+      </c>
+      <c r="K81" s="5">
+        <f t="shared" si="29"/>
+        <v>7547629.8664900064</v>
+      </c>
+      <c r="L81" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="5">
+        <f t="shared" si="29"/>
+        <v>-6003707.0897700042</v>
+      </c>
+      <c r="N81" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O81" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B82" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C82" s="5">
+        <f t="shared" si="2"/>
+        <v>-122760880.05805016</v>
+      </c>
+      <c r="D82" s="5">
+        <f t="shared" si="2"/>
+        <v>33035416.408070087</v>
+      </c>
+      <c r="E82" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="5">
+        <f t="shared" si="2"/>
+        <v>-5384494.8821170032</v>
+      </c>
+      <c r="G82" s="5">
+        <f t="shared" ref="G82:O82" si="30">G32-G31</f>
+        <v>-636286.04068600014</v>
+      </c>
+      <c r="H82" s="5">
+        <f t="shared" si="30"/>
+        <v>-230178.21923870035</v>
+      </c>
+      <c r="I82" s="5">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="5">
+        <f t="shared" si="30"/>
+        <v>1254709.2285450101</v>
+      </c>
+      <c r="K82" s="5">
+        <f t="shared" si="30"/>
+        <v>3905953.5732970238</v>
+      </c>
+      <c r="L82" s="5">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="5">
+        <f t="shared" si="30"/>
+        <v>-1950506.813278988</v>
+      </c>
+      <c r="N82" s="5">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O82" s="5">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B83" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C83" s="5">
+        <f t="shared" si="2"/>
+        <v>-626756369.39153957</v>
+      </c>
+      <c r="D83" s="5">
+        <f t="shared" si="2"/>
+        <v>-260660604.59887004</v>
+      </c>
+      <c r="E83" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="5">
+        <f t="shared" si="2"/>
+        <v>5223797.2279769927</v>
+      </c>
+      <c r="G83" s="5">
+        <f t="shared" ref="G83:O83" si="31">G33-G32</f>
+        <v>-964781.39939929917</v>
+      </c>
+      <c r="H83" s="5">
+        <f t="shared" si="31"/>
+        <v>-852396.74561259896</v>
+      </c>
+      <c r="I83" s="5">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="5">
+        <f t="shared" si="31"/>
+        <v>-31473855.366526991</v>
+      </c>
+      <c r="K83" s="5">
+        <f t="shared" si="31"/>
+        <v>-48759221.216328025</v>
+      </c>
+      <c r="L83" s="5">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="5">
+        <f t="shared" si="31"/>
+        <v>-8526441.7798279077</v>
+      </c>
+      <c r="N83" s="5">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="5">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B84" s="5">
+        <f t="shared" si="2"/>
+        <v>-300000000</v>
+      </c>
+      <c r="C84" s="5">
+        <f t="shared" si="2"/>
+        <v>-157995019.23841023</v>
+      </c>
+      <c r="D84" s="5">
+        <f t="shared" si="2"/>
+        <v>-148845371.06645989</v>
+      </c>
+      <c r="E84" s="5">
+        <f t="shared" si="2"/>
+        <v>-400000000</v>
+      </c>
+      <c r="F84" s="5">
+        <f t="shared" si="2"/>
+        <v>-26742704.94235</v>
+      </c>
+      <c r="G84" s="5">
+        <f t="shared" ref="G84:O84" si="32">G34-G33</f>
+        <v>-703060.64021939971</v>
+      </c>
+      <c r="H84" s="5">
+        <f t="shared" si="32"/>
+        <v>-1290267.6405720003</v>
+      </c>
+      <c r="I84" s="5">
+        <f t="shared" si="32"/>
+        <v>-600000</v>
+      </c>
+      <c r="J84" s="5">
+        <f t="shared" si="32"/>
+        <v>-8435967.9602420032</v>
+      </c>
+      <c r="K84" s="5">
+        <f t="shared" si="32"/>
+        <v>-32326312.476980001</v>
+      </c>
+      <c r="L84" s="5">
+        <f t="shared" si="32"/>
+        <v>-2900000</v>
+      </c>
+      <c r="M84" s="5">
+        <f t="shared" si="32"/>
+        <v>-3366432.5874992013</v>
+      </c>
+      <c r="N84" s="5">
+        <f t="shared" si="32"/>
+        <v>-19200000</v>
+      </c>
+      <c r="O84" s="5">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B85" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C85" s="5">
+        <f t="shared" si="2"/>
+        <v>80512421.258050203</v>
+      </c>
+      <c r="D85" s="5">
+        <f t="shared" si="2"/>
+        <v>-215000361.98949003</v>
+      </c>
+      <c r="E85" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="5">
+        <f t="shared" si="2"/>
+        <v>-2705237.1594749987</v>
+      </c>
+      <c r="G85" s="5">
+        <f t="shared" ref="G85:O85" si="33">G35-G34</f>
+        <v>-1158913.4296431001</v>
+      </c>
+      <c r="H85" s="5">
+        <f t="shared" si="33"/>
+        <v>-926482.1170707792</v>
+      </c>
+      <c r="I85" s="5">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="5">
+        <f t="shared" si="33"/>
+        <v>-18489303.409294009</v>
+      </c>
+      <c r="K85" s="5">
+        <f t="shared" si="33"/>
+        <v>-26377966.120366991</v>
+      </c>
+      <c r="L85" s="5">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="5">
+        <f t="shared" si="33"/>
+        <v>-6927141.4737502038</v>
+      </c>
+      <c r="N85" s="5">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="5">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B86" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C86" s="5">
+        <f t="shared" si="2"/>
+        <v>158136131.01434994</v>
+      </c>
+      <c r="D86" s="5">
+        <f t="shared" si="2"/>
+        <v>11907959.40842998</v>
+      </c>
+      <c r="E86" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="5">
+        <f t="shared" si="2"/>
+        <v>9220764.3487980068</v>
+      </c>
+      <c r="G86" s="5">
+        <f t="shared" ref="G86:O86" si="34">G36-G35</f>
+        <v>267092.40836329944</v>
+      </c>
+      <c r="H86" s="5">
+        <f t="shared" si="34"/>
+        <v>746240.87617437914</v>
+      </c>
+      <c r="I86" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="5">
+        <f t="shared" si="34"/>
+        <v>4702572.1439200044</v>
+      </c>
+      <c r="K86" s="5">
+        <f t="shared" si="34"/>
+        <v>9444062.2251780033</v>
+      </c>
+      <c r="L86" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="5">
+        <f t="shared" si="34"/>
+        <v>7363244.0000677109</v>
+      </c>
+      <c r="N86" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B87" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C87" s="5">
+        <f t="shared" si="2"/>
+        <v>81284969.923219681</v>
+      </c>
+      <c r="D87" s="5">
+        <f t="shared" si="2"/>
+        <v>11435831.490450025</v>
+      </c>
+      <c r="E87" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="5">
+        <f t="shared" si="2"/>
+        <v>-317144.41155301034</v>
+      </c>
+      <c r="G87" s="5">
+        <f t="shared" ref="G87:O87" si="35">G37-G36</f>
+        <v>-143152.77094879933</v>
+      </c>
+      <c r="H87" s="5">
+        <f t="shared" si="35"/>
+        <v>-96771.03500024043</v>
+      </c>
+      <c r="I87" s="5">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="5">
+        <f t="shared" si="35"/>
+        <v>-487646.70611700416</v>
+      </c>
+      <c r="K87" s="5">
+        <f t="shared" si="35"/>
+        <v>-7908809.2475610077</v>
+      </c>
+      <c r="L87" s="5">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="5">
+        <f t="shared" si="35"/>
+        <v>80812.150498390198</v>
+      </c>
+      <c r="N87" s="5">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="5">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B88" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C88" s="5">
+        <f t="shared" si="2"/>
+        <v>-208511750.99385977</v>
+      </c>
+      <c r="D88" s="5">
+        <f t="shared" si="2"/>
+        <v>-122185823.98344207</v>
+      </c>
+      <c r="E88" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="5">
+        <f t="shared" si="2"/>
+        <v>-18991906.892994598</v>
+      </c>
+      <c r="G88" s="5">
+        <f t="shared" ref="G88:O88" si="36">G38-G37</f>
+        <v>-1062990.5366652012</v>
+      </c>
+      <c r="H88" s="5">
+        <f t="shared" si="36"/>
+        <v>-1425852.5104697086</v>
+      </c>
+      <c r="I88" s="5">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="5">
+        <f t="shared" si="36"/>
+        <v>-17716671.416200995</v>
+      </c>
+      <c r="K88" s="5">
+        <f t="shared" si="36"/>
+        <v>-20086861.960900992</v>
+      </c>
+      <c r="L88" s="5">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="5">
+        <f t="shared" si="36"/>
+        <v>-16183279.009294391</v>
+      </c>
+      <c r="N88" s="5">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="5">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B89" s="5">
+        <f t="shared" si="2"/>
+        <v>-414300000</v>
+      </c>
+      <c r="C89" s="5">
+        <f t="shared" si="2"/>
+        <v>-182286272.81268001</v>
+      </c>
+      <c r="D89" s="5">
+        <f t="shared" si="2"/>
+        <v>-77399750.688585997</v>
+      </c>
+      <c r="E89" s="5">
+        <f t="shared" si="2"/>
+        <v>-300000000</v>
+      </c>
+      <c r="F89" s="5">
+        <f t="shared" si="2"/>
+        <v>-5964929.4435259998</v>
+      </c>
+      <c r="G89" s="5">
+        <f t="shared" ref="G89:O89" si="37">G39-G38</f>
+        <v>-1965343.8615714293</v>
+      </c>
+      <c r="H89" s="5">
+        <f t="shared" si="37"/>
+        <v>-539005.24513443094</v>
+      </c>
+      <c r="I89" s="5">
+        <f t="shared" si="37"/>
+        <v>-500000</v>
+      </c>
+      <c r="J89" s="5">
+        <f t="shared" si="37"/>
+        <v>-9233096.9866319895</v>
+      </c>
+      <c r="K89" s="5">
+        <f t="shared" si="37"/>
+        <v>-22109876.17513299</v>
+      </c>
+      <c r="L89" s="5">
+        <f t="shared" si="37"/>
+        <v>-2400000</v>
+      </c>
+      <c r="M89" s="5">
+        <f t="shared" si="37"/>
+        <v>-2729335.18868801</v>
+      </c>
+      <c r="N89" s="5">
+        <f t="shared" si="37"/>
+        <v>-14200000</v>
+      </c>
+      <c r="O89" s="5">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B90" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C90" s="5">
+        <f t="shared" si="2"/>
+        <v>-46665961.955480099</v>
+      </c>
+      <c r="D90" s="5">
+        <f t="shared" si="2"/>
+        <v>16822714.356039047</v>
+      </c>
+      <c r="E90" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="5">
+        <f t="shared" si="2"/>
+        <v>15128712.875911102</v>
+      </c>
+      <c r="G90" s="5">
+        <f t="shared" ref="G90:O90" si="38">G40-G39</f>
+        <v>215229.0074780006</v>
+      </c>
+      <c r="H90" s="5">
+        <f t="shared" si="38"/>
+        <v>214152.11768857017</v>
+      </c>
+      <c r="I90" s="5">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="5">
+        <f t="shared" si="38"/>
+        <v>-6229041.4529730082</v>
+      </c>
+      <c r="K90" s="5">
+        <f t="shared" si="38"/>
+        <v>-2262930.9917240143</v>
+      </c>
+      <c r="L90" s="5">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="5">
+        <f t="shared" si="38"/>
+        <v>-51002.771241188049</v>
+      </c>
+      <c r="N90" s="5">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="5">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B91" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C91" s="5">
+        <f t="shared" si="2"/>
+        <v>105904398.60759997</v>
+      </c>
+      <c r="D91" s="5">
+        <f t="shared" si="2"/>
+        <v>180660943.86196899</v>
+      </c>
+      <c r="E91" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="5">
+        <f t="shared" si="2"/>
+        <v>9388808.5150005072</v>
+      </c>
+      <c r="G91" s="5">
+        <f t="shared" ref="G91:O91" si="39">G41-G40</f>
+        <v>699702.3710284289</v>
+      </c>
+      <c r="H91" s="5">
+        <f t="shared" si="39"/>
+        <v>1106242.66522115</v>
+      </c>
+      <c r="I91" s="5">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="5">
+        <f t="shared" si="39"/>
+        <v>14745188.605985999</v>
+      </c>
+      <c r="K91" s="5">
+        <f t="shared" si="39"/>
+        <v>15785742.012454003</v>
+      </c>
+      <c r="L91" s="5">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="5">
+        <f t="shared" si="39"/>
+        <v>15421929.603532195</v>
+      </c>
+      <c r="N91" s="5">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="5">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B92" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C92" s="5">
+        <f t="shared" si="2"/>
+        <v>50888353.923640251</v>
+      </c>
+      <c r="D92" s="5">
+        <f t="shared" si="2"/>
+        <v>72874583.220700026</v>
+      </c>
+      <c r="E92" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="5">
+        <f t="shared" si="2"/>
+        <v>-2665186.2802100033</v>
+      </c>
+      <c r="G92" s="5">
+        <f t="shared" ref="G92:O92" si="40">G42-G41</f>
+        <v>445994.66971971095</v>
+      </c>
+      <c r="H92" s="5">
+        <f t="shared" si="40"/>
+        <v>-11029.563975000754</v>
+      </c>
+      <c r="I92" s="5">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="5">
+        <f t="shared" si="40"/>
+        <v>7001112.7745159864</v>
+      </c>
+      <c r="K92" s="5">
+        <f t="shared" si="40"/>
+        <v>4679236.0548020005</v>
+      </c>
+      <c r="L92" s="5">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="5">
+        <f t="shared" si="40"/>
+        <v>-1918024.4999713004</v>
+      </c>
+      <c r="N92" s="5">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="5">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B93" s="5">
+        <f t="shared" si="2"/>
+        <v>210900000</v>
+      </c>
+      <c r="C93" s="5">
+        <f t="shared" si="2"/>
+        <v>61287825.980849743</v>
+      </c>
+      <c r="D93" s="5">
+        <f t="shared" si="2"/>
+        <v>140884581.61436987</v>
+      </c>
+      <c r="E93" s="5">
+        <f t="shared" si="2"/>
+        <v>100000000</v>
+      </c>
+      <c r="F93" s="5">
+        <f t="shared" si="2"/>
+        <v>11903316.485897005</v>
+      </c>
+      <c r="G93" s="5">
+        <f t="shared" ref="G93:O93" si="41">G43-G42</f>
+        <v>1306754.6649051886</v>
+      </c>
+      <c r="H93" s="5">
+        <f t="shared" si="41"/>
+        <v>630644.82920600101</v>
+      </c>
+      <c r="I93" s="5">
+        <f t="shared" si="41"/>
+        <v>600000</v>
+      </c>
+      <c r="J93" s="5">
+        <f t="shared" si="41"/>
+        <v>11398821.867014021</v>
+      </c>
+      <c r="K93" s="5">
+        <f t="shared" si="41"/>
+        <v>20078911.845519006</v>
+      </c>
+      <c r="L93" s="5">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="5">
+        <f t="shared" si="41"/>
+        <v>6963529.0767779052</v>
+      </c>
+      <c r="N93" s="5">
+        <f t="shared" si="41"/>
+        <v>5800000</v>
+      </c>
+      <c r="O93" s="5">
+        <f t="shared" si="41"/>
+        <v>866666.66666666698</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B94" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C94" s="5">
+        <f t="shared" si="2"/>
+        <v>39415334.368870258</v>
+      </c>
+      <c r="D94" s="5">
+        <f t="shared" si="2"/>
+        <v>123654132.37880015</v>
+      </c>
+      <c r="E94" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="5">
+        <f t="shared" si="2"/>
+        <v>20016776.497310981</v>
+      </c>
+      <c r="G94" s="5">
+        <f t="shared" ref="G94:O94" si="42">G44-G43</f>
+        <v>631036.77680150047</v>
+      </c>
+      <c r="H94" s="5">
+        <f t="shared" si="42"/>
+        <v>823862.24462736025</v>
+      </c>
+      <c r="I94" s="5">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="5">
+        <f t="shared" si="42"/>
+        <v>17842911.695542991</v>
+      </c>
+      <c r="K94" s="5">
+        <f t="shared" si="42"/>
+        <v>22498877.090528995</v>
+      </c>
+      <c r="L94" s="5">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="5">
+        <f t="shared" si="42"/>
+        <v>11085074.690106988</v>
+      </c>
+      <c r="N94" s="5">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="5">
+        <f t="shared" si="42"/>
+        <v>-866666.66666666698</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B95" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C95" s="5">
+        <f t="shared" si="2"/>
+        <v>-102907000.38971996</v>
+      </c>
+      <c r="D95" s="5">
+        <f t="shared" si="2"/>
+        <v>-20856276.513870001</v>
+      </c>
+      <c r="E95" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="5">
+        <f t="shared" si="2"/>
+        <v>11937205.609941006</v>
+      </c>
+      <c r="G95" s="5">
+        <f t="shared" ref="G95:O95" si="43">G45-G44</f>
+        <v>737516.69792880118</v>
+      </c>
+      <c r="H95" s="5">
+        <f t="shared" si="43"/>
+        <v>-372096.96525170095</v>
+      </c>
+      <c r="I95" s="5">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="5">
+        <f t="shared" si="43"/>
+        <v>12999781.500759006</v>
+      </c>
+      <c r="K95" s="5">
+        <f t="shared" si="43"/>
+        <v>-11509609.374208987</v>
+      </c>
+      <c r="L95" s="5">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="5">
+        <f t="shared" si="43"/>
+        <v>-1962180.9085219949</v>
+      </c>
+      <c r="N95" s="5">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="5">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B96" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C96" s="5">
+        <f t="shared" si="2"/>
+        <v>-106296046.21008015</v>
+      </c>
+      <c r="D96" s="5">
+        <f t="shared" si="2"/>
+        <v>-30194853.602220058</v>
+      </c>
+      <c r="E96" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="5">
+        <f t="shared" si="2"/>
+        <v>-1437682.4648199975</v>
+      </c>
+      <c r="G96" s="5">
+        <f t="shared" ref="G96:O96" si="44">G46-G45</f>
+        <v>-400944.55164180137</v>
+      </c>
+      <c r="H96" s="5">
+        <f t="shared" si="44"/>
+        <v>-361045.48094039969</v>
+      </c>
+      <c r="I96" s="5">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="5">
+        <f t="shared" si="44"/>
+        <v>-5472567.1196649969</v>
+      </c>
+      <c r="K96" s="5">
+        <f t="shared" si="44"/>
+        <v>-602738.47615802288</v>
+      </c>
+      <c r="L96" s="5">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="5">
+        <f t="shared" si="44"/>
+        <v>-5275595.510590598</v>
+      </c>
+      <c r="N96" s="5">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="5">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B97" s="5">
+        <f t="shared" si="2"/>
+        <v>103400000</v>
+      </c>
+      <c r="C97" s="5">
+        <f t="shared" si="2"/>
+        <v>-138914363.34318995</v>
+      </c>
+      <c r="D97" s="5">
+        <f t="shared" si="2"/>
+        <v>-66506336.208260059</v>
+      </c>
+      <c r="E97" s="5">
+        <f t="shared" si="2"/>
+        <v>-400000000</v>
+      </c>
+      <c r="F97" s="5">
+        <f t="shared" si="2"/>
+        <v>-10827416.041722</v>
+      </c>
+      <c r="G97" s="5">
+        <f t="shared" ref="G97:O97" si="45">G47-G46</f>
+        <v>-73748.092738999054</v>
+      </c>
+      <c r="H97" s="5">
+        <f t="shared" si="45"/>
+        <v>-1084242.6473082602</v>
+      </c>
+      <c r="I97" s="5">
+        <f t="shared" si="45"/>
+        <v>-100000</v>
+      </c>
+      <c r="J97" s="5">
+        <f t="shared" si="45"/>
+        <v>-5536824.6864060163</v>
+      </c>
+      <c r="K97" s="5">
+        <f t="shared" si="45"/>
+        <v>-6653762.8352339864</v>
+      </c>
+      <c r="L97" s="5">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="5">
+        <f t="shared" si="45"/>
+        <v>-5064163.1286454052</v>
+      </c>
+      <c r="N97" s="5">
+        <f t="shared" si="45"/>
+        <v>-17200000</v>
+      </c>
+      <c r="O97" s="5">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B98" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C98" s="5">
+        <f t="shared" si="2"/>
+        <v>-12175292.543550014</v>
+      </c>
+      <c r="D98" s="5">
+        <f t="shared" si="2"/>
+        <v>36954649.229750156</v>
+      </c>
+      <c r="E98" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="5">
+        <f t="shared" si="2"/>
+        <v>-3807239.2322449982</v>
+      </c>
+      <c r="G98" s="5">
+        <f t="shared" ref="G98:O98" si="46">G48-G47</f>
+        <v>708166.26502469927</v>
+      </c>
+      <c r="H98" s="5">
+        <f t="shared" si="46"/>
+        <v>6102.2113342899829</v>
+      </c>
+      <c r="I98" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="5">
+        <f t="shared" si="46"/>
+        <v>16035003.201637</v>
+      </c>
+      <c r="K98" s="5">
+        <f t="shared" si="46"/>
+        <v>8930813.5656589866</v>
+      </c>
+      <c r="L98" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="5">
+        <f t="shared" si="46"/>
+        <v>164894.46633680165</v>
+      </c>
+      <c r="N98" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B99" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C99" s="5">
+        <f t="shared" si="2"/>
+        <v>-117709119.90959001</v>
+      </c>
+      <c r="D99" s="5">
+        <f t="shared" si="2"/>
+        <v>-141683165.92461014</v>
+      </c>
+      <c r="E99" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="5">
+        <f t="shared" si="2"/>
+        <v>-26788606.904925004</v>
+      </c>
+      <c r="G99" s="5">
+        <f t="shared" ref="G99:O99" si="47">G49-G48</f>
+        <v>-1037733.7906759996</v>
+      </c>
+      <c r="H99" s="5">
+        <f t="shared" si="47"/>
+        <v>-1555991.9119817195</v>
+      </c>
+      <c r="I99" s="5">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="5">
+        <f t="shared" si="47"/>
+        <v>-24285484.87331</v>
+      </c>
+      <c r="K99" s="5">
+        <f t="shared" si="47"/>
+        <v>-19013894.590341002</v>
+      </c>
+      <c r="L99" s="5">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="5">
+        <f t="shared" si="47"/>
+        <v>-12035786.568816394</v>
+      </c>
+      <c r="N99" s="5">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O99" s="5">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B100" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C100" s="5">
+        <f t="shared" si="2"/>
+        <v>-16656358.496850014</v>
+      </c>
+      <c r="D100" s="5">
+        <f t="shared" si="2"/>
+        <v>-18640567.387680054</v>
+      </c>
+      <c r="E100" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F100" s="5">
+        <f t="shared" si="2"/>
+        <v>-5283461.4921059906</v>
+      </c>
+      <c r="G100" s="5">
+        <f t="shared" ref="G100:O100" si="48">G50-G49</f>
+        <v>127764.4749129992</v>
+      </c>
+      <c r="H100" s="5">
+        <f t="shared" si="48"/>
+        <v>-399752.42569900025</v>
+      </c>
+      <c r="I100" s="5">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="5">
+        <f t="shared" si="48"/>
+        <v>-1973872.5593470037</v>
+      </c>
+      <c r="K100" s="5">
+        <f t="shared" si="48"/>
+        <v>-3798968.4580139816</v>
+      </c>
+      <c r="L100" s="5">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="5">
+        <f t="shared" si="48"/>
+        <v>2102333.1130167991</v>
+      </c>
+      <c r="N100" s="5">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O100" s="5">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B101" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C101" s="5">
+        <f t="shared" si="2"/>
+        <v>-88402188.750030041</v>
+      </c>
+      <c r="D101" s="5">
+        <f t="shared" si="2"/>
+        <v>-12036787.016849995</v>
+      </c>
+      <c r="E101" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="5">
+        <f t="shared" si="2"/>
+        <v>1550352.5783779919</v>
+      </c>
+      <c r="G101" s="5">
+        <f t="shared" ref="G101:O101" si="49">G51-G50</f>
+        <v>289917.75219160132</v>
+      </c>
+      <c r="H101" s="5">
+        <f t="shared" si="49"/>
+        <v>188821.18213742971</v>
+      </c>
+      <c r="I101" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="5">
+        <f t="shared" si="49"/>
+        <v>1070249.8299600184</v>
+      </c>
+      <c r="K101" s="5">
+        <f t="shared" si="49"/>
+        <v>5559216.683833003</v>
+      </c>
+      <c r="L101" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="5">
+        <f t="shared" si="49"/>
+        <v>-500163.54433050752</v>
+      </c>
+      <c r="N101" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B102" s="5">
+        <f t="shared" si="2"/>
+        <v>200000000</v>
+      </c>
+      <c r="D102" s="5">
+        <f t="shared" ref="D102:O102" si="50">D52-D51</f>
+        <v>115969685.72934008</v>
+      </c>
+      <c r="E102" s="5">
+        <f t="shared" si="50"/>
+        <v>200000000</v>
+      </c>
+      <c r="F102" s="5">
+        <f t="shared" si="50"/>
+        <v>19750126.70965001</v>
+      </c>
+      <c r="G102" s="5">
+        <f t="shared" si="50"/>
+        <v>841944.67645279877</v>
+      </c>
+      <c r="H102" s="5">
+        <f t="shared" si="50"/>
+        <v>475301.87348214071</v>
+      </c>
+      <c r="I102" s="5">
+        <f t="shared" si="50"/>
+        <v>200000</v>
+      </c>
+      <c r="J102" s="5">
+        <f t="shared" si="50"/>
+        <v>15271872.692018986</v>
+      </c>
+      <c r="K102" s="5">
+        <f t="shared" si="50"/>
+        <v>14789428.151727974</v>
+      </c>
+      <c r="L102" s="5">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="5">
+        <f t="shared" si="50"/>
+        <v>6630846.8659228086</v>
+      </c>
+      <c r="N102" s="5">
+        <f t="shared" si="50"/>
+        <v>6700000</v>
+      </c>
+      <c r="O102" s="5">
+        <f t="shared" si="50"/>
+        <v>-1533333.333333333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="5">
+        <f>AVERAGEIF(B53:B102,"&lt;&gt;0")</f>
+        <v>-125000000</v>
+      </c>
+      <c r="C103" s="5">
+        <f t="shared" ref="C103:O103" si="51">AVERAGEIF(C53:C102,"&lt;&gt;0")</f>
+        <v>-27670889.055935521</v>
+      </c>
+      <c r="D103" s="5">
+        <f t="shared" si="51"/>
+        <v>-16142404.140508804</v>
+      </c>
+      <c r="E103" s="5">
+        <f t="shared" si="51"/>
+        <v>-338461538.46153843</v>
+      </c>
+      <c r="F103" s="5">
+        <f t="shared" si="51"/>
+        <v>641365.29161185946</v>
+      </c>
+      <c r="G103" s="5">
+        <f t="shared" si="51"/>
+        <v>-172967.16580221805</v>
+      </c>
+      <c r="H103" s="5">
+        <f t="shared" si="51"/>
+        <v>-427528.30556083284</v>
+      </c>
+      <c r="I103" s="5">
+        <f t="shared" si="51"/>
+        <v>-123076.92307692308</v>
+      </c>
+      <c r="J103" s="5">
+        <f t="shared" si="51"/>
+        <v>3310229.8391984194</v>
+      </c>
+      <c r="K103" s="5">
+        <f t="shared" si="51"/>
+        <v>-4253776.04504894</v>
+      </c>
+      <c r="L103" s="5">
+        <f t="shared" si="51"/>
+        <v>-4840000</v>
+      </c>
+      <c r="M103" s="5">
+        <f t="shared" si="51"/>
+        <v>-891009.69081551943</v>
+      </c>
+      <c r="N103" s="5">
+        <f t="shared" si="51"/>
+        <v>-28169230.769230768</v>
+      </c>
+      <c r="O103" s="5">
+        <f t="shared" si="51"/>
+        <v>-766666.66666666651</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B111" s="5"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="5"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="5"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="5"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="5"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="5"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="5"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="5"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="5"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="5"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="5"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="5"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="5"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="5"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="5"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="5"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="5"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="5"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="5"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="5"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="5"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="5"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="5"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="5"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="5"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="5"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="5"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="5"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="5"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="5"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="5"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="5"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="5"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="5"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="5"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="5"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="5"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="5"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="5"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="5"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="5"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="5"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="5"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="5"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="5"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="5"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="5"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="5"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="5"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="5"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="5"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="5"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="5"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="5"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="5"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="5"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="5"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="5"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="5"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="5"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="5"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="5"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="5"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="5"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="5"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="5"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="5"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="5"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="5"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="5"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="5"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="5"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="5"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="5"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="5"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="5"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="5"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="5"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="5"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="5"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="5"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="5"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="5"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="5"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" s="5"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/datasheet.v3.xlsx
+++ b/datasheet.v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13013\Desktop\Dissertation\Zhengyu-Chen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AC087F-1403-400F-966A-36B71A9262DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C774B826-7A0E-4D2B-91B0-BCBC4AD70BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="4" xr2:uid="{14A0698F-9BE0-48A9-BAAE-4EF7C48408DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="4" activeTab="6" xr2:uid="{14A0698F-9BE0-48A9-BAAE-4EF7C48408DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Gov" sheetId="11" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Revenue" sheetId="5" r:id="rId4"/>
     <sheet name="Eco_Treasury" sheetId="8" r:id="rId5"/>
     <sheet name="Market Cap" sheetId="14" r:id="rId6"/>
-    <sheet name="Develop" sheetId="9" r:id="rId7"/>
-    <sheet name="DEFX market" sheetId="15" r:id="rId8"/>
-    <sheet name="Return" sheetId="13" r:id="rId9"/>
+    <sheet name="Treasury_MarketCap" sheetId="16" r:id="rId7"/>
+    <sheet name="Develop" sheetId="9" r:id="rId8"/>
+    <sheet name="DEFX market" sheetId="15" r:id="rId9"/>
+    <sheet name="Return" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -3631,6 +3632,2469 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D13D70-4922-493A-AC82-42773CD43B81}">
+  <dimension ref="A1:O52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B2" s="6">
+        <v>-3.9949867707482697E-2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.2092777000793984E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7.3601326835732372E-3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>-5.7698430788072547E-2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3.9188895622059702E-3</v>
+      </c>
+      <c r="G2" s="6">
+        <v>-3.1727614153625384E-2</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-1.1802086762369705E-2</v>
+      </c>
+      <c r="I2" s="6">
+        <v>-0.10462684222970124</v>
+      </c>
+      <c r="J2" s="6">
+        <v>-4.2374046186100842E-2</v>
+      </c>
+      <c r="K2" s="6">
+        <v>-0.136908854866753</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1.7006490275945637E-2</v>
+      </c>
+      <c r="M2" s="6">
+        <v>-9.7666823510363251E-2</v>
+      </c>
+      <c r="N2" s="6">
+        <v>-8.2763138115467913E-2</v>
+      </c>
+      <c r="O2" s="6">
+        <v>-4.619608004216974E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-0.13502916663923553</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-0.17407731219968933</v>
+      </c>
+      <c r="D3" s="6">
+        <v>-0.13052774789473959</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-0.13753317651006769</v>
+      </c>
+      <c r="F3" s="6">
+        <v>-9.104736415016379E-2</v>
+      </c>
+      <c r="G3" s="6">
+        <v>-0.12242620841459365</v>
+      </c>
+      <c r="H3" s="6">
+        <v>-0.10400409012171911</v>
+      </c>
+      <c r="I3" s="6">
+        <v>-0.13271854539335426</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.11732562329070741</v>
+      </c>
+      <c r="K3" s="6">
+        <v>-0.10245863150579805</v>
+      </c>
+      <c r="L3" s="6">
+        <v>-0.1462024503550578</v>
+      </c>
+      <c r="M3" s="6">
+        <v>-8.4341450410504365E-2</v>
+      </c>
+      <c r="N3" s="6">
+        <v>-0.10377325100700761</v>
+      </c>
+      <c r="O3" s="6">
+        <v>-0.1055359770321193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B4" s="6">
+        <v>-0.16522587651208032</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-0.12748896652936564</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-0.22915011081976644</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-0.13671401571054917</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-0.19235692013915895</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-0.17438789136363597</v>
+      </c>
+      <c r="H4" s="6">
+        <v>-0.17188972495898239</v>
+      </c>
+      <c r="I4" s="6">
+        <v>-0.19923731235978484</v>
+      </c>
+      <c r="J4" s="6">
+        <v>-8.9054399601688483E-2</v>
+      </c>
+      <c r="K4" s="6">
+        <v>-0.26800688176143195</v>
+      </c>
+      <c r="L4" s="6">
+        <v>-0.1376319616096684</v>
+      </c>
+      <c r="M4" s="6">
+        <v>-0.19448377739443157</v>
+      </c>
+      <c r="N4" s="6">
+        <v>-0.15322225372813253</v>
+      </c>
+      <c r="O4" s="6">
+        <v>-0.25772180014315343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3.9654848302253062E-2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-1.0998707925155542E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3.7285561358962424E-2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>7.5750931527586371E-3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.10303525343423961</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.8328089461078482E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3.4962072856033283E-2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>-4.7792405591824086E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>8.9267560347757471E-2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>-2.4710180135740285E-2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.20009742817514325</v>
+      </c>
+      <c r="M5" s="6">
+        <v>5.9932198675500988E-2</v>
+      </c>
+      <c r="N5" s="6">
+        <v>8.2517567190985172E-2</v>
+      </c>
+      <c r="O5" s="6">
+        <v>-9.5455744425082499E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3.4740634336548552E-2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2.6989326160028516E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7.7285327860431269E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.12489738879531188</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6.1656325445030406E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>7.1507877162313813E-2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.12907740155297204</v>
+      </c>
+      <c r="I6" s="6">
+        <v>6.8637112627934899E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.26719687160621086</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.11362083125926468</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1.5431909697379384E-2</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.13217387654045459</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5.592234921819713E-2</v>
+      </c>
+      <c r="O6" s="6">
+        <v>7.9396991506276868E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-9.0190989251884693E-2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-3.1998421815900104E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-0.10220043827750305</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-4.6331416265064998E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-5.1745666057033027E-2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-8.762281185918068E-2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2.8636241391003327E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>-9.6428806817095244E-2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>-6.6140985900330268E-2</v>
+      </c>
+      <c r="K7" s="6">
+        <v>-8.7897930518794132E-2</v>
+      </c>
+      <c r="L7" s="6">
+        <v>-3.0965652614740193E-2</v>
+      </c>
+      <c r="M7" s="6">
+        <v>-0.10604278140626471</v>
+      </c>
+      <c r="N7" s="6">
+        <v>-0.15698425984845837</v>
+      </c>
+      <c r="O7" s="6">
+        <v>4.2871732645734399E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-4.2436553675319968E-2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-6.0142407691294281E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-9.2204016230529873E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-3.296340681854968E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-9.1977492691415808E-2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-5.5981065094484965E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-5.8329950145340551E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2.8050528009939603E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1.9668261097925365E-2</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-9.0464099821422519E-2</v>
+      </c>
+      <c r="L8" s="6">
+        <v>-7.2456797699734385E-2</v>
+      </c>
+      <c r="M8" s="6">
+        <v>-5.7546484377934075E-2</v>
+      </c>
+      <c r="N8" s="6">
+        <v>-8.24189376441333E-2</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0.15444253540027295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5.2858541632449643E-2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6.8237036803824314E-3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4.9586475855391735E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.12443330372428842</v>
+      </c>
+      <c r="F9" s="6">
+        <v>9.8822494010926201E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5.7531837078776231E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2.5997161437629836E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>3.2068723024534077E-2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.13231928444054908</v>
+      </c>
+      <c r="K9" s="6">
+        <v>5.2418706254024512E-2</v>
+      </c>
+      <c r="L9" s="6">
+        <v>-3.4607599185810657E-3</v>
+      </c>
+      <c r="M9" s="6">
+        <v>8.1174731451209264E-2</v>
+      </c>
+      <c r="N9" s="6">
+        <v>4.1709147067804021E-2</v>
+      </c>
+      <c r="O9" s="6">
+        <v>-7.0367670279314204E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B10" s="6">
+        <v>6.1714102155408825E-2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4.7377635075018902E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.6251925194268046E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.8991829961387001E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.30402948354782733</v>
+      </c>
+      <c r="G10" s="6">
+        <v>9.5768702069545311E-3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5.7048875023950667E-2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2.0557765213467624E-2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2.6011431174684727E-2</v>
+      </c>
+      <c r="K10" s="6">
+        <v>3.4886441070200315E-2</v>
+      </c>
+      <c r="L10" s="6">
+        <v>9.4387845539259056E-3</v>
+      </c>
+      <c r="M10" s="6">
+        <v>6.3935819647341768E-2</v>
+      </c>
+      <c r="N10" s="6">
+        <v>7.2877933000291845E-3</v>
+      </c>
+      <c r="O10" s="6">
+        <v>-3.9915074309977802E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.12496000475079473</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7.795588050816564E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.10704460358718261</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.12573871495033528</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.10399640497504911</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.10717644978465127</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4.8541311873199385E-2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.13203113031555183</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.11968650979201222</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.21074536271698924</v>
+      </c>
+      <c r="L11" s="6">
+        <v>6.4499687439393147E-2</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.12646374008047817</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.12990912691368259</v>
+      </c>
+      <c r="O11" s="6">
+        <v>7.5873036784701878E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-0.11407639359921312</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-7.586549799429966E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-0.12945855636377143</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-9.1367935956775032E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-0.10192751455909224</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-3.4409608648258837E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>-0.12997145950798808</v>
+      </c>
+      <c r="I12" s="6">
+        <v>-0.13141310805454295</v>
+      </c>
+      <c r="J12" s="6">
+        <v>-0.11278392981824729</v>
+      </c>
+      <c r="K12" s="6">
+        <v>-0.14649351100721592</v>
+      </c>
+      <c r="L12" s="6">
+        <v>-0.15223414376843106</v>
+      </c>
+      <c r="M12" s="6">
+        <v>-0.15693395433044338</v>
+      </c>
+      <c r="N12" s="6">
+        <v>-0.13695137492690596</v>
+      </c>
+      <c r="O12" s="6">
+        <v>-0.13854130769055792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45572</v>
+      </c>
+      <c r="B13" s="6">
+        <v>-4.0554836558886295E-2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1.0038817211057318E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>-1.8870813066668064E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>7.7445942221682478E-3</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1.823322235964242E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <v>-4.9205872365156021E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>5.666635872890638E-3</v>
+      </c>
+      <c r="I13" s="6">
+        <v>-1.4577533305669245E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>-1.0682890819935838E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <v>-3.4502655541325686E-2</v>
+      </c>
+      <c r="L13" s="6">
+        <v>-2.9322269612681664E-2</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1.4761024587096301E-2</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1.4419042465826088E-2</v>
+      </c>
+      <c r="O13" s="6">
+        <v>-1.7524550616101503E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6.454742305269616E-2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4.4173861188444671E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6.868655285579997E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>5.7029908552415937E-2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>8.3887351058709925E-2</v>
+      </c>
+      <c r="G14" s="6">
+        <v>6.8859846059071445E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>7.5088394342762099E-2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>7.3015577553608227E-2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>7.9261665115490057E-2</v>
+      </c>
+      <c r="K14" s="6">
+        <v>8.2088697780500069E-2</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.10288832152609155</v>
+      </c>
+      <c r="M14" s="6">
+        <v>4.4398591851488173E-2</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0.13101861035506779</v>
+      </c>
+      <c r="O14" s="6">
+        <v>-4.9421068078755605E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B15" s="6">
+        <v>-3.7790748112726216E-2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-4.9915079073516999E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>-4.8172760492360661E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>-4.8008107155069188E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>-2.4946359170064842E-2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>-6.1648689808438725E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>-5.2764625179151842E-2</v>
+      </c>
+      <c r="I15" s="6">
+        <v>-3.4723709937495302E-2</v>
+      </c>
+      <c r="J15" s="6">
+        <v>-6.6952984015632697E-2</v>
+      </c>
+      <c r="K15" s="6">
+        <v>-5.7038262782769772E-2</v>
+      </c>
+      <c r="L15" s="6">
+        <v>-5.5238408991482107E-2</v>
+      </c>
+      <c r="M15" s="6">
+        <v>-2.4062996186897119E-2</v>
+      </c>
+      <c r="N15" s="6">
+        <v>4.7004927604011988E-2</v>
+      </c>
+      <c r="O15" s="6">
+        <v>-0.15592147176301485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B16" s="6">
+        <v>-4.3653935912935371E-2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-1.0880031879059728E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>-9.5440765844370962E-3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-4.3158714433423312E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-2.9346081268084488E-2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>-2.7279080060625939E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2.7895308346118958E-3</v>
+      </c>
+      <c r="I16" s="6">
+        <v>-5.6300128777877517E-2</v>
+      </c>
+      <c r="J16" s="6">
+        <v>-1.4148401091044645E-2</v>
+      </c>
+      <c r="K16" s="6">
+        <v>-3.51635126788723E-2</v>
+      </c>
+      <c r="L16" s="6">
+        <v>2.6720146748083835E-2</v>
+      </c>
+      <c r="M16" s="6">
+        <v>-4.3705920737673092E-2</v>
+      </c>
+      <c r="N16" s="6">
+        <v>-6.5974755642265667E-2</v>
+      </c>
+      <c r="O16" s="6">
+        <v>-0.14863691747316471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B17" s="6">
+        <v>7.4900237495290123E-2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.13253838558266332</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5.0340139472620504E-2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>-2.0612020843966752E-2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.50226913131204298</v>
+      </c>
+      <c r="G17" s="6">
+        <v>4.1000876434804032E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>9.4707506708328046E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>4.3410999449341611E-2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.17048430959087441</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0.15321840500905412</v>
+      </c>
+      <c r="L17" s="6">
+        <v>5.9846550985005756E-2</v>
+      </c>
+      <c r="M17" s="6">
+        <v>6.0636022789392341E-2</v>
+      </c>
+      <c r="N17" s="6">
+        <v>7.7878349900622437E-2</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0.15767019667170917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.14436204186871138</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.10734973498318758</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1.0440142854495396E-2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>7.505735034482261E-2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>-6.8826944811105489E-2</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.11397406013181283</v>
+      </c>
+      <c r="H18" s="6">
+        <v>6.4541685659092463E-2</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.14493735985060194</v>
+      </c>
+      <c r="J18" s="6">
+        <v>9.8654736701716782E-3</v>
+      </c>
+      <c r="K18" s="6">
+        <v>-9.236950803692516E-3</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.14216196004336448</v>
+      </c>
+      <c r="M18" s="6">
+        <v>8.1333258204687411E-2</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0.15529272605661815</v>
+      </c>
+      <c r="O18" s="6">
+        <v>7.3657248895742475E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.20363878955530829</v>
+      </c>
+      <c r="C19" s="6">
+        <v>8.5144194103272772E-2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>7.4474233282565638E-2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.19816538155431476</v>
+      </c>
+      <c r="F19" s="6">
+        <v>-4.0668487545999936E-2</v>
+      </c>
+      <c r="G19" s="6">
+        <v>9.2128188587540766E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.12464773245288467</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.17750858505930667</v>
+      </c>
+      <c r="J19" s="6">
+        <v>-1.9196331703362744E-2</v>
+      </c>
+      <c r="K19" s="6">
+        <v>6.4801195902314007E-2</v>
+      </c>
+      <c r="L19" s="6">
+        <v>8.2435269574777398E-2</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.17877516480602182</v>
+      </c>
+      <c r="N19" s="6">
+        <v>8.8031910901723423E-2</v>
+      </c>
+      <c r="O19" s="6">
+        <v>7.0678104734269748E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.20641009929044613</v>
+      </c>
+      <c r="C20" s="6">
+        <v>9.4413292994840581E-2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.70554186390055718</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.19443316099582983</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.13591051200401033</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.15876720903931024</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.1684440352288053</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.1977974076643019</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.18308895020839847</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.37451882256316937</v>
+      </c>
+      <c r="L20" s="6">
+        <v>3.4606392790019952E-2</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0.26941109645837163</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0.19567842718178358</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0.25814299291083315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.19656727581598882</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.23750174176490263</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.26715346120377936</v>
+      </c>
+      <c r="E21" s="6">
+        <v>9.1886890236437646E-2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.14231858822409169</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.29079667491786437</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.23241599365165891</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.27319709762658645</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.31452214245107379</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.20126549382135794</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.23359431941162775</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0.28289427039819487</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0.28573459266095974</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0.26939410586882051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B22" s="6">
+        <v>-0.11055088322514736</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.14952060174061294</v>
+      </c>
+      <c r="D22" s="6">
+        <v>-2.8184327516567451E-2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>-7.3216507203001796E-2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.25889930735943523</v>
+      </c>
+      <c r="G22" s="6">
+        <v>-3.4326478952898955E-2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>-0.13216599459706641</v>
+      </c>
+      <c r="I22" s="6">
+        <v>-9.1386732970353254E-2</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.2643913772800488</v>
+      </c>
+      <c r="K22" s="6">
+        <v>-1.1114311583197338E-3</v>
+      </c>
+      <c r="L22" s="6">
+        <v>1.3351211835871027E-2</v>
+      </c>
+      <c r="M22" s="6">
+        <v>-4.7237334694033309E-2</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1.324761023857365E-2</v>
+      </c>
+      <c r="O22" s="6">
+        <v>-0.20954049971740618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B23" s="6">
+        <v>-0.15441713520395531</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-4.9214558804837834E-2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>-4.4165573892348431E-2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>-0.15239076441102378</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.29576790623999527</v>
+      </c>
+      <c r="G23" s="6">
+        <v>-0.17859550525072482</v>
+      </c>
+      <c r="H23" s="6">
+        <v>-0.16083069694856578</v>
+      </c>
+      <c r="I23" s="6">
+        <v>-0.14045106498184251</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1.2002289642237766E-2</v>
+      </c>
+      <c r="K23" s="6">
+        <v>-0.11424484412591614</v>
+      </c>
+      <c r="L23" s="6">
+        <v>-0.19783908327983007</v>
+      </c>
+      <c r="M23" s="6">
+        <v>-0.20903541536136835</v>
+      </c>
+      <c r="N23" s="6">
+        <v>-0.21487828242641571</v>
+      </c>
+      <c r="O23" s="6">
+        <v>-0.20269681295565173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B24" s="6">
+        <v>-7.3772211308243421E-2</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2.4882186296908429E-2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>-9.3272387482013719E-2</v>
+      </c>
+      <c r="E24" s="6">
+        <v>-8.2611200685093714E-2</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.26371252339778034</v>
+      </c>
+      <c r="G24" s="6">
+        <v>-7.8606786699808487E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>6.0721200865388417E-2</v>
+      </c>
+      <c r="I24" s="6">
+        <v>-3.4130552822380977E-2</v>
+      </c>
+      <c r="J24" s="6">
+        <v>5.6247273214163937E-2</v>
+      </c>
+      <c r="K24" s="6">
+        <v>4.9268364059790043E-3</v>
+      </c>
+      <c r="L24" s="6">
+        <v>-6.5427268525436844E-2</v>
+      </c>
+      <c r="M24" s="6">
+        <v>-9.0388435372384043E-2</v>
+      </c>
+      <c r="N24" s="6">
+        <v>-7.2668687525530712E-2</v>
+      </c>
+      <c r="O24" s="6">
+        <v>-4.8021124867575787E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B25" s="6">
+        <v>3.0813949540132942E-2</v>
+      </c>
+      <c r="C25" s="6">
+        <v>8.8198888211796111E-2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1.7212928206820539E-2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.4784998039230781E-2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>-6.3399967042518948E-2</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1.7975093629447464E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>9.7358639051234319E-3</v>
+      </c>
+      <c r="I25" s="6">
+        <v>9.6022628588442165E-3</v>
+      </c>
+      <c r="J25" s="6">
+        <v>-6.0125165889116906E-2</v>
+      </c>
+      <c r="K25" s="6">
+        <v>3.4249890008125165E-2</v>
+      </c>
+      <c r="L25" s="6">
+        <v>-1.2587215285591636E-2</v>
+      </c>
+      <c r="M25" s="6">
+        <v>-1.2688733992789636E-2</v>
+      </c>
+      <c r="N25" s="6">
+        <v>-1.7619033867795246E-3</v>
+      </c>
+      <c r="O25" s="6">
+        <v>2.5683249415104827E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B26" s="6">
+        <v>-2.1075990296808893E-2</v>
+      </c>
+      <c r="C26" s="6">
+        <v>-8.0166538995890088E-2</v>
+      </c>
+      <c r="D26" s="6">
+        <v>-7.5466667391311443E-2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>-3.8417252652188864E-2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>-0.17439149235777446</v>
+      </c>
+      <c r="G26" s="6">
+        <v>-4.0729429581016628E-2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>-0.10545430229018599</v>
+      </c>
+      <c r="I26" s="6">
+        <v>-3.3581434539901603E-2</v>
+      </c>
+      <c r="J26" s="6">
+        <v>-0.10322173698984005</v>
+      </c>
+      <c r="K26" s="6">
+        <v>-0.12213752260227134</v>
+      </c>
+      <c r="L26" s="6">
+        <v>-0.11329194329825289</v>
+      </c>
+      <c r="M26" s="6">
+        <v>-9.2968623160081365E-2</v>
+      </c>
+      <c r="N26" s="6">
+        <v>-9.957855485280015E-2</v>
+      </c>
+      <c r="O26" s="6">
+        <v>-9.2706805531779971E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B27" s="6">
+        <v>-3.9823737201311465E-2</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-0.10098993823787077</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1.5182190882042113E-2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>-1.2318423103153639E-2</v>
+      </c>
+      <c r="F27" s="6">
+        <v>-4.0384427535835619E-2</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4.2945007829326844E-2</v>
+      </c>
+      <c r="H27" s="6">
+        <v>-2.0301951575362992E-2</v>
+      </c>
+      <c r="I27" s="6">
+        <v>-4.906907888761676E-2</v>
+      </c>
+      <c r="J27" s="6">
+        <v>4.4929274071450323E-2</v>
+      </c>
+      <c r="K27" s="6">
+        <v>9.3318776353408892E-2</v>
+      </c>
+      <c r="L27" s="6">
+        <v>-3.2903798642362536E-2</v>
+      </c>
+      <c r="M27" s="6">
+        <v>-4.262295950856039E-2</v>
+      </c>
+      <c r="N27" s="6">
+        <v>-5.4837782600502427E-2</v>
+      </c>
+      <c r="O27" s="6">
+        <v>-2.6673160084855169E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B28" s="6">
+        <v>-6.9087791408150301E-2</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4.7246598858677456E-2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2.6320487528558988E-2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>-7.5439087539802843E-2</v>
+      </c>
+      <c r="F28" s="6">
+        <v>-0.12999192863881218</v>
+      </c>
+      <c r="G28" s="6">
+        <v>-1.5005888861702522E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>-8.4083858898559363E-2</v>
+      </c>
+      <c r="I28" s="6">
+        <v>-0.13621933236042674</v>
+      </c>
+      <c r="J28" s="6">
+        <v>8.7012276708166136E-2</v>
+      </c>
+      <c r="K28" s="6">
+        <v>4.2158105674842163E-2</v>
+      </c>
+      <c r="L28" s="6">
+        <v>-8.0810889464323826E-2</v>
+      </c>
+      <c r="M28" s="6">
+        <v>-0.10606838668786296</v>
+      </c>
+      <c r="N28" s="6">
+        <v>-0.11247247182039885</v>
+      </c>
+      <c r="O28" s="6">
+        <v>-9.8784222397447344E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B29" s="6">
+        <v>-0.14888551006396403</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-1.2507472006842274E-2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>-7.839271810530396E-2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>-0.18726463711071731</v>
+      </c>
+      <c r="F29" s="6">
+        <v>-0.16179261396621167</v>
+      </c>
+      <c r="G29" s="6">
+        <v>-0.10885317994989256</v>
+      </c>
+      <c r="H29" s="6">
+        <v>-9.617663407634687E-2</v>
+      </c>
+      <c r="I29" s="6">
+        <v>-7.6628416883565406E-2</v>
+      </c>
+      <c r="J29" s="6">
+        <v>-0.12118133250040802</v>
+      </c>
+      <c r="K29" s="6">
+        <v>3.487595609175094E-2</v>
+      </c>
+      <c r="L29" s="6">
+        <v>-0.10581832719319165</v>
+      </c>
+      <c r="M29" s="6">
+        <v>-8.8735552090769138E-2</v>
+      </c>
+      <c r="N29" s="6">
+        <v>-0.12758901512656259</v>
+      </c>
+      <c r="O29" s="6">
+        <v>-0.12463447105127182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45691</v>
+      </c>
+      <c r="B30" s="6">
+        <v>-0.22592796877925117</v>
+      </c>
+      <c r="C30" s="6">
+        <v>-1.7616434965556694E-2</v>
+      </c>
+      <c r="D30" s="6">
+        <v>-0.1652545118507783</v>
+      </c>
+      <c r="E30" s="6">
+        <v>-0.20810397268100611</v>
+      </c>
+      <c r="F30" s="6">
+        <v>-0.25512935927146674</v>
+      </c>
+      <c r="G30" s="6">
+        <v>-0.17685316931217263</v>
+      </c>
+      <c r="H30" s="6">
+        <v>-0.17939512982730454</v>
+      </c>
+      <c r="I30" s="6">
+        <v>-0.12928899292398685</v>
+      </c>
+      <c r="J30" s="6">
+        <v>-0.1503221014592101</v>
+      </c>
+      <c r="K30" s="6">
+        <v>-0.17219511130253382</v>
+      </c>
+      <c r="L30" s="6">
+        <v>-8.3270785982120371E-2</v>
+      </c>
+      <c r="M30" s="6">
+        <v>-0.29189547416733314</v>
+      </c>
+      <c r="N30" s="6">
+        <v>-0.25937322226880155</v>
+      </c>
+      <c r="O30" s="6">
+        <v>-0.26912284779757212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B31" s="6">
+        <v>3.8892883573075521E-2</v>
+      </c>
+      <c r="C31" s="6">
+        <v>-6.7666321641727742E-2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>4.2407061683917575E-3</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2.8450327644468077E-2</v>
+      </c>
+      <c r="F31" s="6">
+        <v>-9.3554710664085841E-2</v>
+      </c>
+      <c r="G31" s="6">
+        <v>2.8230293152106914E-2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>8.4847581109004575E-2</v>
+      </c>
+      <c r="I31" s="6">
+        <v>3.7493543136249627E-2</v>
+      </c>
+      <c r="J31" s="6">
+        <v>2.9739589179451045E-3</v>
+      </c>
+      <c r="K31" s="6">
+        <v>4.431978888167043E-2</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.14860047752659458</v>
+      </c>
+      <c r="M31" s="6">
+        <v>-3.3398464841530008E-2</v>
+      </c>
+      <c r="N31" s="6">
+        <v>4.2429698063135617E-2</v>
+      </c>
+      <c r="O31" s="6">
+        <v>3.7055883689233557E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B32" s="6">
+        <v>-6.7773490979926984E-3</v>
+      </c>
+      <c r="C32" s="6">
+        <v>-4.5850436353059458E-2</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1.844547026590811E-2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2.3065445609073656E-2</v>
+      </c>
+      <c r="F32" s="6">
+        <v>-4.0348408365911546E-2</v>
+      </c>
+      <c r="G32" s="6">
+        <v>-1.9261703110400101E-4</v>
+      </c>
+      <c r="H32" s="6">
+        <v>-2.5657549456787419E-2</v>
+      </c>
+      <c r="I32" s="6">
+        <v>-8.2709876510457664E-3</v>
+      </c>
+      <c r="J32" s="6">
+        <v>-5.2414794318096838E-3</v>
+      </c>
+      <c r="K32" s="6">
+        <v>4.6849954800541726E-3</v>
+      </c>
+      <c r="L32" s="6">
+        <v>-6.9505225124727329E-2</v>
+      </c>
+      <c r="M32" s="6">
+        <v>-1.9226625667260841E-2</v>
+      </c>
+      <c r="N32" s="6">
+        <v>2.5233378122375464E-3</v>
+      </c>
+      <c r="O32" s="6">
+        <v>-1.6910836954998728E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B33" s="6">
+        <v>-0.10868002829295434</v>
+      </c>
+      <c r="C33" s="6">
+        <v>-0.22012475849610055</v>
+      </c>
+      <c r="D33" s="6">
+        <v>-0.16011338533712066</v>
+      </c>
+      <c r="E33" s="6">
+        <v>-4.6320999347822196E-2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>3.69112215303498E-2</v>
+      </c>
+      <c r="G33" s="6">
+        <v>-9.0896333139907845E-2</v>
+      </c>
+      <c r="H33" s="6">
+        <v>-8.1553572377352737E-2</v>
+      </c>
+      <c r="I33" s="6">
+        <v>-7.6335375865259333E-2</v>
+      </c>
+      <c r="J33" s="6">
+        <v>-0.18922998997481025</v>
+      </c>
+      <c r="K33" s="6">
+        <v>-0.22303321937409723</v>
+      </c>
+      <c r="L33" s="6">
+        <v>-7.1814558591288061E-2</v>
+      </c>
+      <c r="M33" s="6">
+        <v>-8.0506178921004243E-2</v>
+      </c>
+      <c r="N33" s="6">
+        <v>-9.9354494428743792E-2</v>
+      </c>
+      <c r="O33" s="6">
+        <v>-7.1044047130965862E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B34" s="6">
+        <v>-8.1969663030400403E-2</v>
+      </c>
+      <c r="C34" s="6">
+        <v>-6.6714753734430449E-2</v>
+      </c>
+      <c r="D34" s="6">
+        <v>-0.10921221977746386</v>
+      </c>
+      <c r="E34" s="6">
+        <v>-0.13261711116902333</v>
+      </c>
+      <c r="F34" s="6">
+        <v>-0.20335180928024099</v>
+      </c>
+      <c r="G34" s="6">
+        <v>-0.10065902399776754</v>
+      </c>
+      <c r="H34" s="6">
+        <v>-8.9391581887093799E-2</v>
+      </c>
+      <c r="I34" s="6">
+        <v>-8.095789916034711E-2</v>
+      </c>
+      <c r="J34" s="6">
+        <v>-2.9263313952059666E-2</v>
+      </c>
+      <c r="K34" s="6">
+        <v>-0.18596876058779718</v>
+      </c>
+      <c r="L34" s="6">
+        <v>-0.14872481012798033</v>
+      </c>
+      <c r="M34" s="6">
+        <v>-1.2553972218434181E-2</v>
+      </c>
+      <c r="N34" s="6">
+        <v>-9.6082735008258396E-2</v>
+      </c>
+      <c r="O34" s="6">
+        <v>-9.0240532683469349E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B35" s="6">
+        <v>-0.11306965485528704</v>
+      </c>
+      <c r="C35" s="6">
+        <v>4.3419479578472003E-2</v>
+      </c>
+      <c r="D35" s="6">
+        <v>-0.17435259783199236</v>
+      </c>
+      <c r="E35" s="6">
+        <v>-9.7827471668561775E-2</v>
+      </c>
+      <c r="F35" s="6">
+        <v>-2.4038806756076996E-2</v>
+      </c>
+      <c r="G35" s="6">
+        <v>-0.12164629427963454</v>
+      </c>
+      <c r="H35" s="6">
+        <v>-6.5475981843992434E-2</v>
+      </c>
+      <c r="I35" s="6">
+        <v>-0.12818642733428029</v>
+      </c>
+      <c r="J35" s="6">
+        <v>-0.12706391759151653</v>
+      </c>
+      <c r="K35" s="6">
+        <v>-0.15298865234857664</v>
+      </c>
+      <c r="L35" s="6">
+        <v>-5.7828676718286703E-2</v>
+      </c>
+      <c r="M35" s="6">
+        <v>-8.9809019163392595E-2</v>
+      </c>
+      <c r="N35" s="6">
+        <v>-5.5344042857812706E-2</v>
+      </c>
+      <c r="O35" s="6">
+        <v>-0.11014906956755764</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B36" s="6">
+        <v>6.9650516246728092E-2</v>
+      </c>
+      <c r="C36" s="6">
+        <v>7.070869728776738E-2</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1.1719080295520294E-2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>2.6765525317813146E-2</v>
+      </c>
+      <c r="F36" s="6">
+        <v>9.2870178866307107E-2</v>
+      </c>
+      <c r="G36" s="6">
+        <v>3.9095785252468089E-2</v>
+      </c>
+      <c r="H36" s="6">
+        <v>7.4214895018507948E-2</v>
+      </c>
+      <c r="I36" s="6">
+        <v>5.2063180616983701E-2</v>
+      </c>
+      <c r="J36" s="6">
+        <v>2.962917476960587E-2</v>
+      </c>
+      <c r="K36" s="6">
+        <v>8.2347096586400687E-2</v>
+      </c>
+      <c r="L36" s="6">
+        <v>-8.3082049158812957E-3</v>
+      </c>
+      <c r="M36" s="6">
+        <v>6.3110961460414963E-2</v>
+      </c>
+      <c r="N36" s="6">
+        <v>9.8789658956922738E-2</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0.11080626237008108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B37" s="6">
+        <v>-1.3375167927052168E-2</v>
+      </c>
+      <c r="C37" s="6">
+        <v>3.7171484137214002E-2</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1.1214650116334574E-2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>-2.9656562660474547E-2</v>
+      </c>
+      <c r="F37" s="6">
+        <v>-4.2062045373876073E-3</v>
+      </c>
+      <c r="G37" s="6">
+        <v>-2.3158834188091885E-2</v>
+      </c>
+      <c r="H37" s="6">
+        <v>-1.1814279697726046E-2</v>
+      </c>
+      <c r="I37" s="6">
+        <v>-1.3649763199473508E-2</v>
+      </c>
+      <c r="J37" s="6">
+        <v>-2.2375563168190258E-3</v>
+      </c>
+      <c r="K37" s="6">
+        <v>-2.5899831645384622E-2</v>
+      </c>
+      <c r="L37" s="6">
+        <v>-6.7813786610840268E-2</v>
+      </c>
+      <c r="M37" s="6">
+        <v>-5.7716753480763355E-3</v>
+      </c>
+      <c r="N37" s="6">
+        <v>5.8802518319673112E-2</v>
+      </c>
+      <c r="O37" s="6">
+        <v>-6.5696467914627132E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B38" s="6">
+        <v>-0.15254263784631275</v>
+      </c>
+      <c r="C38" s="6">
+        <v>-8.5787300936156205E-2</v>
+      </c>
+      <c r="D38" s="6">
+        <v>-0.11301657584905284</v>
+      </c>
+      <c r="E38" s="6">
+        <v>-0.17543379479656684</v>
+      </c>
+      <c r="F38" s="6">
+        <v>-0.1742424598095956</v>
+      </c>
+      <c r="G38" s="6">
+        <v>-0.13504733546198011</v>
+      </c>
+      <c r="H38" s="6">
+        <v>-0.13726330201282935</v>
+      </c>
+      <c r="I38" s="6">
+        <v>-0.10237947217057192</v>
+      </c>
+      <c r="J38" s="6">
+        <v>-0.14757473110909533</v>
+      </c>
+      <c r="K38" s="6">
+        <v>-0.15434310278527497</v>
+      </c>
+      <c r="L38" s="6">
+        <v>-0.16489543422865691</v>
+      </c>
+      <c r="M38" s="6">
+        <v>-0.21769751498649409</v>
+      </c>
+      <c r="N38" s="6">
+        <v>-0.12862161050971035</v>
+      </c>
+      <c r="O38" s="6">
+        <v>-0.18299854971508134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B39" s="6">
+        <v>-6.6939987732837186E-2</v>
+      </c>
+      <c r="C39" s="6">
+        <v>-8.3830540664819334E-2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>-8.0450809204387741E-2</v>
+      </c>
+      <c r="E39" s="6">
+        <v>-7.5479320539748429E-2</v>
+      </c>
+      <c r="F39" s="6">
+        <v>-6.6963564870720887E-2</v>
+      </c>
+      <c r="G39" s="6">
+        <v>-0.2934691926299739</v>
+      </c>
+      <c r="H39" s="6">
+        <v>-6.8983787491746176E-2</v>
+      </c>
+      <c r="I39" s="6">
+        <v>-8.8327314806193685E-2</v>
+      </c>
+      <c r="J39" s="6">
+        <v>-0.10054564900866292</v>
+      </c>
+      <c r="K39" s="6">
+        <v>-0.13765132289666895</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.2081642634220934</v>
+      </c>
+      <c r="M39" s="6">
+        <v>-6.3719337842590956E-2</v>
+      </c>
+      <c r="N39" s="6">
+        <v>-9.5204688430950937E-2</v>
+      </c>
+      <c r="O39" s="6">
+        <v>-0.10999524767975119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B40" s="6">
+        <v>4.6984091836980227E-3</v>
+      </c>
+      <c r="C40" s="6">
+        <v>-2.3152605033032056E-2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1.8655721930369913E-2</v>
+      </c>
+      <c r="E40" s="6">
+        <v>2.7880022239366434E-2</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.17939665084977743</v>
+      </c>
+      <c r="G40" s="6">
+        <v>4.4713879674265357E-2</v>
+      </c>
+      <c r="H40" s="6">
+        <v>3.4162233494165681E-2</v>
+      </c>
+      <c r="I40" s="6">
+        <v>8.3864540646354374E-3</v>
+      </c>
+      <c r="J40" s="6">
+        <v>1.0834687483608982E-2</v>
+      </c>
+      <c r="K40" s="6">
+        <v>-1.9488938263148736E-2</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0.12199940741220701</v>
+      </c>
+      <c r="M40" s="6">
+        <v>-9.9259969568768871E-4</v>
+      </c>
+      <c r="N40" s="6">
+        <v>2.555174984927075E-2</v>
+      </c>
+      <c r="O40" s="6">
+        <v>3.9474200818226467E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0.15026142003124751</v>
+      </c>
+      <c r="C41" s="6">
+        <v>5.3915831801684196E-2</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.21597541155310973</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0.16684388890464258</v>
+      </c>
+      <c r="F41" s="6">
+        <v>9.4890869222868365E-2</v>
+      </c>
+      <c r="G41" s="6">
+        <v>4.2385216765330171E-2</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0.11991142090753715</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.1298344335941635</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0.18385948332062793</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0.16863170345792192</v>
+      </c>
+      <c r="L41" s="6">
+        <v>-1.6138404555172639E-2</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0.16095028540422152</v>
+      </c>
+      <c r="N41" s="6">
+        <v>0.13184790305913824</v>
+      </c>
+      <c r="O41" s="6">
+        <v>0.3124433432042053</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B42" s="6">
+        <v>-1.7238997565208424E-2</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2.4275940854980787E-2</v>
+      </c>
+      <c r="D42" s="6">
+        <v>7.1670965029000805E-2</v>
+      </c>
+      <c r="E42" s="6">
+        <v>-6.9477503005877184E-2</v>
+      </c>
+      <c r="F42" s="6">
+        <v>-2.5214533288347434E-2</v>
+      </c>
+      <c r="G42" s="6">
+        <v>9.7428800620882869E-2</v>
+      </c>
+      <c r="H42" s="6">
+        <v>-1.0017399891281245E-2</v>
+      </c>
+      <c r="I42" s="6">
+        <v>6.5564981433240119E-2</v>
+      </c>
+      <c r="J42" s="6">
+        <v>4.4997390196502868E-2</v>
+      </c>
+      <c r="K42" s="6">
+        <v>2.2647101844690643E-2</v>
+      </c>
+      <c r="L42" s="6">
+        <v>-5.2508489377576621E-2</v>
+      </c>
+      <c r="M42" s="6">
+        <v>-3.9721742370982478E-2</v>
+      </c>
+      <c r="N42" s="6">
+        <v>-1.0425397280760274E-2</v>
+      </c>
+      <c r="O42" s="6">
+        <v>7.7243634019438564E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45782</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0.1342115925164046</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2.5169223749722414E-2</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.1253969400947901</v>
+      </c>
+      <c r="E43" s="6">
+        <v>3.990529565233338E-3</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.11065197206567239</v>
+      </c>
+      <c r="G43" s="6">
+        <v>5.3496403447997436E-2</v>
+      </c>
+      <c r="H43" s="6">
+        <v>4.9390116701474321E-2</v>
+      </c>
+      <c r="I43" s="6">
+        <v>5.0362046408371504E-2</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0.16637450092548001</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0.12875869737147133</v>
+      </c>
+      <c r="L43" s="6">
+        <v>2.4602370477903243E-2</v>
+      </c>
+      <c r="M43" s="6">
+        <v>6.9661850397911271E-2</v>
+      </c>
+      <c r="N43" s="6">
+        <v>1.0205041659708173E-2</v>
+      </c>
+      <c r="O43" s="6">
+        <v>4.5402620546269722E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B44" s="6">
+        <v>9.9287835808953978E-2</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1.9597740205837037E-2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>9.9499628536730986E-2</v>
+      </c>
+      <c r="E44" s="6">
+        <v>6.5253928507596703E-2</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.1674576206175715</v>
+      </c>
+      <c r="G44" s="6">
+        <v>5.2766420307665221E-2</v>
+      </c>
+      <c r="H44" s="6">
+        <v>8.6359949273956432E-2</v>
+      </c>
+      <c r="I44" s="6">
+        <v>7.4641652684143328E-2</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.14232050248001896</v>
+      </c>
+      <c r="K44" s="6">
+        <v>7.3684823942581315E-2</v>
+      </c>
+      <c r="L44" s="6">
+        <v>6.3702499079915237E-2</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0.11689629104510491</v>
+      </c>
+      <c r="N44" s="6">
+        <v>5.0487919323422809E-2</v>
+      </c>
+      <c r="O44" s="6">
+        <v>0.12604697667557346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45796</v>
+      </c>
+      <c r="B45" s="6">
+        <v>-2.0869072928143863E-2</v>
+      </c>
+      <c r="C45" s="6">
+        <v>-3.4242079137273305E-2</v>
+      </c>
+      <c r="D45" s="6">
+        <v>-1.1936990141434808E-2</v>
+      </c>
+      <c r="E45" s="6">
+        <v>-3.4381921414813096E-2</v>
+      </c>
+      <c r="F45" s="6">
+        <v>8.9660141797370585E-2</v>
+      </c>
+      <c r="G45" s="6">
+        <v>-7.8443745795902832E-3</v>
+      </c>
+      <c r="H45" s="6">
+        <v>-3.1450866565708072E-2</v>
+      </c>
+      <c r="I45" s="6">
+        <v>-4.4798311371849016E-3</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.1278250471943298</v>
+      </c>
+      <c r="K45" s="6">
+        <v>-0.1167146098314009</v>
+      </c>
+      <c r="L45" s="6">
+        <v>-1.0972846522308184E-2</v>
+      </c>
+      <c r="M45" s="6">
+        <v>-4.7534651941367863E-2</v>
+      </c>
+      <c r="N45" s="6">
+        <v>-3.6217317052271651E-2</v>
+      </c>
+      <c r="O45" s="6">
+        <v>-8.8696099409499157E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B46" s="6">
+        <v>-6.7533442509113584E-2</v>
+      </c>
+      <c r="C46" s="6">
+        <v>-4.8489856530383228E-2</v>
+      </c>
+      <c r="D46" s="6">
+        <v>-2.1998572457395824E-2</v>
+      </c>
+      <c r="E46" s="6">
+        <v>-5.1941257292262621E-2</v>
+      </c>
+      <c r="F46" s="6">
+        <v>-9.4517207092956104E-3</v>
+      </c>
+      <c r="G46" s="6">
+        <v>-4.4532715433672335E-2</v>
+      </c>
+      <c r="H46" s="6">
+        <v>-3.5440739912310615E-2</v>
+      </c>
+      <c r="I46" s="6">
+        <v>-2.5582469993310469E-2</v>
+      </c>
+      <c r="J46" s="6">
+        <v>3.294345472225662E-3</v>
+      </c>
+      <c r="K46" s="6">
+        <v>-1.9854757737808173E-2</v>
+      </c>
+      <c r="L46" s="6">
+        <v>-4.6278484375596537E-4</v>
+      </c>
+      <c r="M46" s="6">
+        <v>-9.1712163004842223E-2</v>
+      </c>
+      <c r="N46" s="6">
+        <v>-9.6607567860195365E-2</v>
+      </c>
+      <c r="O46" s="6">
+        <v>-5.1592773817069795E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B47" s="6">
+        <v>-7.2640513675862689E-2</v>
+      </c>
+      <c r="C47" s="6">
+        <v>-6.7799262944252509E-2</v>
+      </c>
+      <c r="D47" s="6">
+        <v>-5.0595742171043831E-2</v>
+      </c>
+      <c r="E47" s="6">
+        <v>-0.11333241863107139</v>
+      </c>
+      <c r="F47" s="6">
+        <v>-7.5512376878046683E-2</v>
+      </c>
+      <c r="G47" s="6">
+        <v>-4.1953146776492506E-2</v>
+      </c>
+      <c r="H47" s="6">
+        <v>-0.11895075500881476</v>
+      </c>
+      <c r="I47" s="6">
+        <v>-7.3856858337985401E-2</v>
+      </c>
+      <c r="J47" s="6">
+        <v>-2.7763698663579289E-3</v>
+      </c>
+      <c r="K47" s="6">
+        <v>-5.4734821120272274E-2</v>
+      </c>
+      <c r="L47" s="6">
+        <v>2.0051935542817131E-2</v>
+      </c>
+      <c r="M47" s="6">
+        <v>-8.3728566252532513E-2</v>
+      </c>
+      <c r="N47" s="6">
+        <v>-7.0694883330264746E-2</v>
+      </c>
+      <c r="O47" s="6">
+        <v>-7.6220898572366108E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B48" s="6">
+        <v>5.3839580278497154E-2</v>
+      </c>
+      <c r="C48" s="6">
+        <v>-7.6311474856499764E-3</v>
+      </c>
+      <c r="D48" s="6">
+        <v>2.812237542429296E-2</v>
+      </c>
+      <c r="E48" s="6">
+        <v>2.2112937561205422E-2</v>
+      </c>
+      <c r="F48" s="6">
+        <v>-2.353177110868385E-2</v>
+      </c>
+      <c r="G48" s="6">
+        <v>3.2419840819681425E-2</v>
+      </c>
+      <c r="H48" s="6">
+        <v>-1.4207848558644173E-2</v>
+      </c>
+      <c r="I48" s="6">
+        <v>3.1634985612922209E-3</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0.13194964947262031</v>
+      </c>
+      <c r="K48" s="6">
+        <v>5.9821659729637724E-2</v>
+      </c>
+      <c r="L48" s="6">
+        <v>2.816678156376588E-2</v>
+      </c>
+      <c r="M48" s="6">
+        <v>-1.0545059172225061E-2</v>
+      </c>
+      <c r="N48" s="6">
+        <v>7.6007573495706022E-3</v>
+      </c>
+      <c r="O48" s="6">
+        <v>-6.2959586751746843E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B49" s="6">
+        <v>-0.19421311898006632</v>
+      </c>
+      <c r="C49" s="6">
+        <v>-6.2628564306181411E-2</v>
+      </c>
+      <c r="D49" s="6">
+        <v>-0.11474958420884948</v>
+      </c>
+      <c r="E49" s="6">
+        <v>-0.15077060905127562</v>
+      </c>
+      <c r="F49" s="6">
+        <v>-0.2020006644103273</v>
+      </c>
+      <c r="G49" s="6">
+        <v>-6.3667430383450907E-2</v>
+      </c>
+      <c r="H49" s="6">
+        <v>-0.11009064916414484</v>
+      </c>
+      <c r="I49" s="6">
+        <v>-0.1164385448884417</v>
+      </c>
+      <c r="J49" s="6">
+        <v>-0.13144266104608382</v>
+      </c>
+      <c r="K49" s="6">
+        <v>-0.1491338357093282</v>
+      </c>
+      <c r="L49" s="6">
+        <v>-0.11610768721160673</v>
+      </c>
+      <c r="M49" s="6">
+        <v>-0.139208713971753</v>
+      </c>
+      <c r="N49" s="6">
+        <v>-0.11372288253610517</v>
+      </c>
+      <c r="O49" s="6">
+        <v>-0.11673618161135896</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B50" s="6">
+        <v>7.5112771588743313E-2</v>
+      </c>
+      <c r="C50" s="6">
+        <v>-8.7645166183801422E-3</v>
+      </c>
+      <c r="D50" s="6">
+        <v>-1.6965299482475701E-2</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1.553078049832054E-2</v>
+      </c>
+      <c r="F50" s="6">
+        <v>-4.6215749683696163E-2</v>
+      </c>
+      <c r="G50" s="6">
+        <v>-4.7251760555279014E-2</v>
+      </c>
+      <c r="H50" s="6">
+        <v>4.1345400418872247E-2</v>
+      </c>
+      <c r="I50" s="6">
+        <v>-1.7323951897398836E-2</v>
+      </c>
+      <c r="J50" s="6">
+        <v>3.3463111774291808E-2</v>
+      </c>
+      <c r="K50" s="6">
+        <v>-4.0797705344542252E-2</v>
+      </c>
+      <c r="L50" s="6">
+        <v>-1.9703341931854388E-2</v>
+      </c>
+      <c r="M50" s="6">
+        <v>2.5327152026577652E-2</v>
+      </c>
+      <c r="N50" s="6">
+        <v>1.7867217417696219E-2</v>
+      </c>
+      <c r="O50" s="6">
+        <v>-6.6539265783162795E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="6">
+        <v>6.1219375411467547E-2</v>
+      </c>
+      <c r="C51" s="6">
+        <v>-5.1552860894941897E-2</v>
+      </c>
+      <c r="D51" s="6">
+        <v>-9.2162519488416507E-5</v>
+      </c>
+      <c r="E51" s="6">
+        <v>-8.2046851117616379E-3</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1.2044941738648155E-2</v>
+      </c>
+      <c r="G51" s="6">
+        <v>-5.2448690750690041E-3</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1.633859864558164E-2</v>
+      </c>
+      <c r="I51" s="6">
+        <v>-7.8447924319365054E-3</v>
+      </c>
+      <c r="J51" s="6">
+        <v>5.042165588930636E-2</v>
+      </c>
+      <c r="K51" s="6">
+        <v>3.1415305089848175E-2</v>
+      </c>
+      <c r="L51" s="6">
+        <v>2.3493114904290274E-3</v>
+      </c>
+      <c r="M51" s="6">
+        <v>-1.5978883635431037E-2</v>
+      </c>
+      <c r="N51" s="6">
+        <v>6.1583032237469651E-2</v>
+      </c>
+      <c r="O51" s="6">
+        <v>-5.7986268427840972E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B52" s="6">
+        <v>0.12141581578923816</v>
+      </c>
+      <c r="C52" s="6">
+        <v>7.5725404644651662E-2</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.10769146505567442</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.12069307542378781</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.19383680210115725</v>
+      </c>
+      <c r="G52" s="6">
+        <v>8.0606968184680744E-2</v>
+      </c>
+      <c r="H52" s="6">
+        <v>6.5823007777881304E-2</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.42557370022853686</v>
+      </c>
+      <c r="J52" s="6">
+        <v>9.2196132077280904E-2</v>
+      </c>
+      <c r="K52" s="6">
+        <v>8.0151241981169644E-2</v>
+      </c>
+      <c r="L52" s="6">
+        <v>-7.9892366696140818E-2</v>
+      </c>
+      <c r="M52" s="6">
+        <v>7.8590422944946767E-2</v>
+      </c>
+      <c r="N52" s="6">
+        <v>9.9270147945333911E-2</v>
+      </c>
+      <c r="O52" s="6">
+        <v>0.12381424533467689</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194C18F4-D112-4262-9C21-95F84C67EC8C}">
   <dimension ref="A1:O52"/>
@@ -11130,8 +13594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B4B218-505A-48A2-A15E-6E45481AB456}">
   <dimension ref="A1:O214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H91" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103:O103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13715,7 +16179,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B55" s="5">
-        <f t="shared" ref="B55:G118" si="2">B5-B4</f>
+        <f t="shared" ref="B55:G102" si="2">B5-B4</f>
         <v>0</v>
       </c>
       <c r="C55" s="5">
@@ -16897,8 +19361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC46C09-18C7-4688-886C-61BA6F3C5B28}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19371,6 +21835,3183 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F58830-85F4-4575-BF1E-D572015D8F2C}">
+  <dimension ref="A1:O52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B2">
+        <f>Eco_Treasury!B2/'Market Cap'!B2</f>
+        <v>0.37951686757531927</v>
+      </c>
+      <c r="C2">
+        <f>Eco_Treasury!C2/'Market Cap'!C2</f>
+        <v>0.50016209613801543</v>
+      </c>
+      <c r="D2">
+        <f>Eco_Treasury!D2/'Market Cap'!D2</f>
+        <v>0.64609837987513663</v>
+      </c>
+      <c r="E2">
+        <f>Eco_Treasury!E2/'Market Cap'!E2</f>
+        <v>0.46101012896928822</v>
+      </c>
+      <c r="F2">
+        <f>Eco_Treasury!F2/'Market Cap'!F2</f>
+        <v>0.45130442329286924</v>
+      </c>
+      <c r="G2">
+        <f>Eco_Treasury!G2/'Market Cap'!G2</f>
+        <v>0.10914005731044533</v>
+      </c>
+      <c r="H2">
+        <f>Eco_Treasury!H2/'Market Cap'!H2</f>
+        <v>0.13891762950816225</v>
+      </c>
+      <c r="I2">
+        <f>Eco_Treasury!I2/'Market Cap'!I2</f>
+        <v>2.6118030854414481E-2</v>
+      </c>
+      <c r="J2">
+        <f>Eco_Treasury!J2/'Market Cap'!J2</f>
+        <v>8.9470313716978778E-2</v>
+      </c>
+      <c r="K2">
+        <f>Eco_Treasury!K2/'Market Cap'!K2</f>
+        <v>0.19013931363691397</v>
+      </c>
+      <c r="L2">
+        <f>Eco_Treasury!L2/'Market Cap'!L2</f>
+        <v>0.1092256010418839</v>
+      </c>
+      <c r="M2">
+        <f>Eco_Treasury!M2/'Market Cap'!M2</f>
+        <v>0.20354948576972889</v>
+      </c>
+      <c r="N2">
+        <f>Eco_Treasury!N2/'Market Cap'!N2</f>
+        <v>0.25470562465840768</v>
+      </c>
+      <c r="O2">
+        <f>Eco_Treasury!O2/'Market Cap'!O2</f>
+        <v>4.5106286224535427E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B3">
+        <f>Eco_Treasury!B3/'Market Cap'!B3</f>
+        <v>0.43876257357185433</v>
+      </c>
+      <c r="C3">
+        <f>Eco_Treasury!C3/'Market Cap'!C3</f>
+        <v>0.50569241677464505</v>
+      </c>
+      <c r="D3">
+        <f>Eco_Treasury!D3/'Market Cap'!D3</f>
+        <v>0.64685902990933608</v>
+      </c>
+      <c r="E3">
+        <f>Eco_Treasury!E3/'Market Cap'!E3</f>
+        <v>0.53452519399708853</v>
+      </c>
+      <c r="F3">
+        <f>Eco_Treasury!F3/'Market Cap'!F3</f>
+        <v>0.44572388638001492</v>
+      </c>
+      <c r="G3">
+        <f>Eco_Treasury!G3/'Market Cap'!G3</f>
+        <v>0.11009038974601712</v>
+      </c>
+      <c r="H3">
+        <f>Eco_Treasury!H3/'Market Cap'!H3</f>
+        <v>0.13923655313977445</v>
+      </c>
+      <c r="I3">
+        <f>Eco_Treasury!I3/'Market Cap'!I3</f>
+        <v>3.0114838971271478E-2</v>
+      </c>
+      <c r="J3">
+        <f>Eco_Treasury!J3/'Market Cap'!J3</f>
+        <v>8.3477471407482295E-2</v>
+      </c>
+      <c r="K3">
+        <f>Eco_Treasury!K3/'Market Cap'!K3</f>
+        <v>0.19407847792080579</v>
+      </c>
+      <c r="L3">
+        <f>Eco_Treasury!L3/'Market Cap'!L3</f>
+        <v>0.12770605470120303</v>
+      </c>
+      <c r="M3">
+        <f>Eco_Treasury!M3/'Market Cap'!M3</f>
+        <v>0.20489241997289384</v>
+      </c>
+      <c r="N3">
+        <f>Eco_Treasury!N3/'Market Cap'!N3</f>
+        <v>0.28419777056436207</v>
+      </c>
+      <c r="O3">
+        <f>Eco_Treasury!O3/'Market Cap'!O3</f>
+        <v>5.0428407851866482E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B4">
+        <f>Eco_Treasury!B4/'Market Cap'!B4</f>
+        <v>0.41297642674432622</v>
+      </c>
+      <c r="C4">
+        <f>Eco_Treasury!C4/'Market Cap'!C4</f>
+        <v>0.50388834446170849</v>
+      </c>
+      <c r="D4">
+        <f>Eco_Treasury!D4/'Market Cap'!D4</f>
+        <v>0.64719814592347047</v>
+      </c>
+      <c r="E4">
+        <f>Eco_Treasury!E4/'Market Cap'!E4</f>
+        <v>0.51303082572717096</v>
+      </c>
+      <c r="F4">
+        <f>Eco_Treasury!F4/'Market Cap'!F4</f>
+        <v>0.44842424984331491</v>
+      </c>
+      <c r="G4">
+        <f>Eco_Treasury!G4/'Market Cap'!G4</f>
+        <v>0.10365008440000754</v>
+      </c>
+      <c r="H4">
+        <f>Eco_Treasury!H4/'Market Cap'!H4</f>
+        <v>0.13901074376260758</v>
+      </c>
+      <c r="I4">
+        <f>Eco_Treasury!I4/'Market Cap'!I4</f>
+        <v>3.6093271381310049E-2</v>
+      </c>
+      <c r="J4">
+        <f>Eco_Treasury!J4/'Market Cap'!J4</f>
+        <v>8.5209477982665732E-2</v>
+      </c>
+      <c r="K4">
+        <f>Eco_Treasury!K4/'Market Cap'!K4</f>
+        <v>0.20695464968855354</v>
+      </c>
+      <c r="L4">
+        <f>Eco_Treasury!L4/'Market Cap'!L4</f>
+        <v>6.9481149000854614E-2</v>
+      </c>
+      <c r="M4">
+        <f>Eco_Treasury!M4/'Market Cap'!M4</f>
+        <v>0.17977423805039075</v>
+      </c>
+      <c r="N4">
+        <f>Eco_Treasury!N4/'Market Cap'!N4</f>
+        <v>0.26372090861817954</v>
+      </c>
+      <c r="O4">
+        <f>Eco_Treasury!O4/'Market Cap'!O4</f>
+        <v>6.7937333813314085E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B5">
+        <f>Eco_Treasury!B5/'Market Cap'!B5</f>
+        <v>0.39722452635217559</v>
+      </c>
+      <c r="C5">
+        <f>Eco_Treasury!C5/'Market Cap'!C5</f>
+        <v>0.50247737902319423</v>
+      </c>
+      <c r="D5">
+        <f>Eco_Treasury!D5/'Market Cap'!D5</f>
+        <v>0.64781410566384823</v>
+      </c>
+      <c r="E5">
+        <f>Eco_Treasury!E5/'Market Cap'!E5</f>
+        <v>0.50917379538328811</v>
+      </c>
+      <c r="F5">
+        <f>Eco_Treasury!F5/'Market Cap'!F5</f>
+        <v>0.45450369876873453</v>
+      </c>
+      <c r="G5">
+        <f>Eco_Treasury!G5/'Market Cap'!G5</f>
+        <v>0.10123241827794055</v>
+      </c>
+      <c r="H5">
+        <f>Eco_Treasury!H5/'Market Cap'!H5</f>
+        <v>0.1390568614263982</v>
+      </c>
+      <c r="I5">
+        <f>Eco_Treasury!I5/'Market Cap'!I5</f>
+        <v>3.7904821761019315E-2</v>
+      </c>
+      <c r="J5">
+        <f>Eco_Treasury!J5/'Market Cap'!J5</f>
+        <v>8.1434902675329296E-2</v>
+      </c>
+      <c r="K5">
+        <f>Eco_Treasury!K5/'Market Cap'!K5</f>
+        <v>0.21418534227408256</v>
+      </c>
+      <c r="L5">
+        <f>Eco_Treasury!L5/'Market Cap'!L5</f>
+        <v>5.7839556407477101E-2</v>
+      </c>
+      <c r="M5">
+        <f>Eco_Treasury!M5/'Market Cap'!M5</f>
+        <v>0.17686549328041859</v>
+      </c>
+      <c r="N5">
+        <f>Eco_Treasury!N5/'Market Cap'!N5</f>
+        <v>0.24350734462322474</v>
+      </c>
+      <c r="O5">
+        <f>Eco_Treasury!O5/'Market Cap'!O5</f>
+        <v>6.8592049115516571E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B6">
+        <f>Eco_Treasury!B6/'Market Cap'!B6</f>
+        <v>0.38388792332399418</v>
+      </c>
+      <c r="C6">
+        <f>Eco_Treasury!C6/'Market Cap'!C6</f>
+        <v>0.49971975897395388</v>
+      </c>
+      <c r="D6">
+        <f>Eco_Treasury!D6/'Market Cap'!D6</f>
+        <v>0.64612760009442172</v>
+      </c>
+      <c r="E6">
+        <f>Eco_Treasury!E6/'Market Cap'!E6</f>
+        <v>0.45264012338666115</v>
+      </c>
+      <c r="F6">
+        <f>Eco_Treasury!F6/'Market Cap'!F6</f>
+        <v>0.44784661652347513</v>
+      </c>
+      <c r="G6">
+        <f>Eco_Treasury!G6/'Market Cap'!G6</f>
+        <v>0.10412307793494113</v>
+      </c>
+      <c r="H6">
+        <f>Eco_Treasury!H6/'Market Cap'!H6</f>
+        <v>0.13914085395456588</v>
+      </c>
+      <c r="I6">
+        <f>Eco_Treasury!I6/'Market Cap'!I6</f>
+        <v>3.5470262341626063E-2</v>
+      </c>
+      <c r="J6">
+        <f>Eco_Treasury!J6/'Market Cap'!J6</f>
+        <v>7.2891887608210595E-2</v>
+      </c>
+      <c r="K6">
+        <f>Eco_Treasury!K6/'Market Cap'!K6</f>
+        <v>0.20229746964110437</v>
+      </c>
+      <c r="L6">
+        <f>Eco_Treasury!L6/'Market Cap'!L6</f>
+        <v>5.6897021195198003E-2</v>
+      </c>
+      <c r="M6">
+        <f>Eco_Treasury!M6/'Market Cap'!M6</f>
+        <v>0.17935781379897348</v>
+      </c>
+      <c r="N6">
+        <f>Eco_Treasury!N6/'Market Cap'!N6</f>
+        <v>0.23061101807316736</v>
+      </c>
+      <c r="O6">
+        <f>Eco_Treasury!O6/'Market Cap'!O6</f>
+        <v>6.3546743224441912E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B7">
+        <f>Eco_Treasury!B7/'Market Cap'!B7</f>
+        <v>0.42194333430534064</v>
+      </c>
+      <c r="C7">
+        <f>Eco_Treasury!C7/'Market Cap'!C7</f>
+        <v>0.49805881522872858</v>
+      </c>
+      <c r="D7">
+        <f>Eco_Treasury!D7/'Market Cap'!D7</f>
+        <v>0.64686477100240425</v>
+      </c>
+      <c r="E7">
+        <f>Eco_Treasury!E7/'Market Cap'!E7</f>
+        <v>0.47463041445939746</v>
+      </c>
+      <c r="F7">
+        <f>Eco_Treasury!F7/'Market Cap'!F7</f>
+        <v>0.44222229194505946</v>
+      </c>
+      <c r="G7">
+        <f>Eco_Treasury!G7/'Market Cap'!G7</f>
+        <v>0.10686181973127278</v>
+      </c>
+      <c r="H7">
+        <f>Eco_Treasury!H7/'Market Cap'!H7</f>
+        <v>0.13910365923577789</v>
+      </c>
+      <c r="I7">
+        <f>Eco_Treasury!I7/'Market Cap'!I7</f>
+        <v>3.9255603172974475E-2</v>
+      </c>
+      <c r="J7">
+        <f>Eco_Treasury!J7/'Market Cap'!J7</f>
+        <v>7.4585792314967758E-2</v>
+      </c>
+      <c r="K7">
+        <f>Eco_Treasury!K7/'Market Cap'!K7</f>
+        <v>0.20579227691626756</v>
+      </c>
+      <c r="L7">
+        <f>Eco_Treasury!L7/'Market Cap'!L7</f>
+        <v>5.8608143492279607E-2</v>
+      </c>
+      <c r="M7">
+        <f>Eco_Treasury!M7/'Market Cap'!M7</f>
+        <v>0.17952606571288535</v>
+      </c>
+      <c r="N7">
+        <f>Eco_Treasury!N7/'Market Cap'!N7</f>
+        <v>0.27355486009590269</v>
+      </c>
+      <c r="O7">
+        <f>Eco_Treasury!O7/'Market Cap'!O7</f>
+        <v>6.09343798782584E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B8">
+        <f>Eco_Treasury!B8/'Market Cap'!B8</f>
+        <v>0.42061358359920742</v>
+      </c>
+      <c r="C8">
+        <f>Eco_Treasury!C8/'Market Cap'!C8</f>
+        <v>0.49856122801348085</v>
+      </c>
+      <c r="D8">
+        <f>Eco_Treasury!D8/'Market Cap'!D8</f>
+        <v>0.64467866248523731</v>
+      </c>
+      <c r="E8">
+        <f>Eco_Treasury!E8/'Market Cap'!E8</f>
+        <v>0.54158258738550502</v>
+      </c>
+      <c r="F8">
+        <f>Eco_Treasury!F8/'Market Cap'!F8</f>
+        <v>0.44071285059826681</v>
+      </c>
+      <c r="G8">
+        <f>Eco_Treasury!G8/'Market Cap'!G8</f>
+        <v>0.11040558086515244</v>
+      </c>
+      <c r="H8">
+        <f>Eco_Treasury!H8/'Market Cap'!H8</f>
+        <v>0.11604009555039978</v>
+      </c>
+      <c r="I8">
+        <f>Eco_Treasury!I8/'Market Cap'!I8</f>
+        <v>3.8451593842103102E-2</v>
+      </c>
+      <c r="J8">
+        <f>Eco_Treasury!J8/'Market Cap'!J8</f>
+        <v>7.3485221403923023E-2</v>
+      </c>
+      <c r="K8">
+        <f>Eco_Treasury!K8/'Market Cap'!K8</f>
+        <v>0.20952422990824318</v>
+      </c>
+      <c r="L8">
+        <f>Eco_Treasury!L8/'Market Cap'!L8</f>
+        <v>6.268578850792686E-2</v>
+      </c>
+      <c r="M8">
+        <f>Eco_Treasury!M8/'Market Cap'!M8</f>
+        <v>0.17714244913409899</v>
+      </c>
+      <c r="N8">
+        <f>Eco_Treasury!N8/'Market Cap'!N8</f>
+        <v>0.2575741180593919</v>
+      </c>
+      <c r="O8">
+        <f>Eco_Treasury!O8/'Market Cap'!O8</f>
+        <v>5.2782482675309071E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B9">
+        <f>Eco_Treasury!B9/'Market Cap'!B9</f>
+        <v>0.39949671436785167</v>
+      </c>
+      <c r="C9">
+        <f>Eco_Treasury!C9/'Market Cap'!C9</f>
+        <v>0.49844801905667291</v>
+      </c>
+      <c r="D9">
+        <f>Eco_Treasury!D9/'Market Cap'!D9</f>
+        <v>0.64392199673075257</v>
+      </c>
+      <c r="E9">
+        <f>Eco_Treasury!E9/'Market Cap'!E9</f>
+        <v>0.48164931888322754</v>
+      </c>
+      <c r="F9">
+        <f>Eco_Treasury!F9/'Market Cap'!F9</f>
+        <v>0.4450231110903638</v>
+      </c>
+      <c r="G9">
+        <f>Eco_Treasury!G9/'Market Cap'!G9</f>
+        <v>0.10853224572043445</v>
+      </c>
+      <c r="H9">
+        <f>Eco_Treasury!H9/'Market Cap'!H9</f>
+        <v>9.7491733888961471E-2</v>
+      </c>
+      <c r="I9">
+        <f>Eco_Treasury!I9/'Market Cap'!I9</f>
+        <v>3.7256801701078777E-2</v>
+      </c>
+      <c r="J9">
+        <f>Eco_Treasury!J9/'Market Cap'!J9</f>
+        <v>7.0759654099881247E-2</v>
+      </c>
+      <c r="K9">
+        <f>Eco_Treasury!K9/'Market Cap'!K9</f>
+        <v>0.20391688603546551</v>
+      </c>
+      <c r="L9">
+        <f>Eco_Treasury!L9/'Market Cap'!L9</f>
+        <v>6.2847998987362624E-2</v>
+      </c>
+      <c r="M9">
+        <f>Eco_Treasury!M9/'Market Cap'!M9</f>
+        <v>0.17643574985780755</v>
+      </c>
+      <c r="N9">
+        <f>Eco_Treasury!N9/'Market Cap'!N9</f>
+        <v>0.2471523929437705</v>
+      </c>
+      <c r="O9">
+        <f>Eco_Treasury!O9/'Market Cap'!O9</f>
+        <v>5.6777852115732663E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B10">
+        <f>Eco_Treasury!B10/'Market Cap'!B10</f>
+        <v>0.37627513552635034</v>
+      </c>
+      <c r="C10">
+        <f>Eco_Treasury!C10/'Market Cap'!C10</f>
+        <v>0.49805791226199558</v>
+      </c>
+      <c r="D10">
+        <f>Eco_Treasury!D10/'Market Cap'!D10</f>
+        <v>0.64343636050485831</v>
+      </c>
+      <c r="E10">
+        <f>Eco_Treasury!E10/'Market Cap'!E10</f>
+        <v>0.46807883832995323</v>
+      </c>
+      <c r="F10">
+        <f>Eco_Treasury!F10/'Market Cap'!F10</f>
+        <v>0.43894303284027963</v>
+      </c>
+      <c r="G10">
+        <f>Eco_Treasury!G10/'Market Cap'!G10</f>
+        <v>0.11003990842469981</v>
+      </c>
+      <c r="H10">
+        <f>Eco_Treasury!H10/'Market Cap'!H10</f>
+        <v>9.7511321937888792E-2</v>
+      </c>
+      <c r="I10">
+        <f>Eco_Treasury!I10/'Market Cap'!I10</f>
+        <v>3.6506296097839473E-2</v>
+      </c>
+      <c r="J10">
+        <f>Eco_Treasury!J10/'Market Cap'!J10</f>
+        <v>7.0692253572691197E-2</v>
+      </c>
+      <c r="K10">
+        <f>Eco_Treasury!K10/'Market Cap'!K10</f>
+        <v>0.20412442326906996</v>
+      </c>
+      <c r="L10">
+        <f>Eco_Treasury!L10/'Market Cap'!L10</f>
+        <v>6.2202521300645089E-2</v>
+      </c>
+      <c r="M10">
+        <f>Eco_Treasury!M10/'Market Cap'!M10</f>
+        <v>0.18048677983564071</v>
+      </c>
+      <c r="N10">
+        <f>Eco_Treasury!N10/'Market Cap'!N10</f>
+        <v>0.2453642528707517</v>
+      </c>
+      <c r="O10">
+        <f>Eco_Treasury!O10/'Market Cap'!O10</f>
+        <v>5.9138144265033034E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B11">
+        <f>Eco_Treasury!B11/'Market Cap'!B11</f>
+        <v>0.33447897255148851</v>
+      </c>
+      <c r="C11">
+        <f>Eco_Treasury!C11/'Market Cap'!C11</f>
+        <v>0.4977183147025504</v>
+      </c>
+      <c r="D11">
+        <f>Eco_Treasury!D11/'Market Cap'!D11</f>
+        <v>0.64282139486280832</v>
+      </c>
+      <c r="E11">
+        <f>Eco_Treasury!E11/'Market Cap'!E11</f>
+        <v>0.41579706519990728</v>
+      </c>
+      <c r="F11">
+        <f>Eco_Treasury!F11/'Market Cap'!F11</f>
+        <v>0.44010733040705957</v>
+      </c>
+      <c r="G11">
+        <f>Eco_Treasury!G11/'Market Cap'!G11</f>
+        <v>0.10582091519861174</v>
+      </c>
+      <c r="H11">
+        <f>Eco_Treasury!H11/'Market Cap'!H11</f>
+        <v>9.7751504843370043E-2</v>
+      </c>
+      <c r="I11">
+        <f>Eco_Treasury!I11/'Market Cap'!I11</f>
+        <v>3.224849915285119E-2</v>
+      </c>
+      <c r="J11">
+        <f>Eco_Treasury!J11/'Market Cap'!J11</f>
+        <v>6.7944124513052734E-2</v>
+      </c>
+      <c r="K11">
+        <f>Eco_Treasury!K11/'Market Cap'!K11</f>
+        <v>0.19250777242442033</v>
+      </c>
+      <c r="L11">
+        <f>Eco_Treasury!L11/'Market Cap'!L11</f>
+        <v>5.8326464076114533E-2</v>
+      </c>
+      <c r="M11">
+        <f>Eco_Treasury!M11/'Market Cap'!M11</f>
+        <v>0.18177174288706313</v>
+      </c>
+      <c r="N11">
+        <f>Eco_Treasury!N11/'Market Cap'!N11</f>
+        <v>0.21715397262920691</v>
+      </c>
+      <c r="O11">
+        <f>Eco_Treasury!O11/'Market Cap'!O11</f>
+        <v>5.4967680366221648E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B12">
+        <f>Eco_Treasury!B12/'Market Cap'!B12</f>
+        <v>0.37754815224792115</v>
+      </c>
+      <c r="C12">
+        <f>Eco_Treasury!C12/'Market Cap'!C12</f>
+        <v>0.49707715671048708</v>
+      </c>
+      <c r="D12">
+        <f>Eco_Treasury!D12/'Market Cap'!D12</f>
+        <v>0.64084825759671449</v>
+      </c>
+      <c r="E12">
+        <f>Eco_Treasury!E12/'Market Cap'!E12</f>
+        <v>0.45760772776326986</v>
+      </c>
+      <c r="F12">
+        <f>Eco_Treasury!F12/'Market Cap'!F12</f>
+        <v>0.4414681512100711</v>
+      </c>
+      <c r="G12">
+        <f>Eco_Treasury!G12/'Market Cap'!G12</f>
+        <v>9.8802284561885986E-2</v>
+      </c>
+      <c r="H12">
+        <f>Eco_Treasury!H12/'Market Cap'!H12</f>
+        <v>9.7733647784836314E-2</v>
+      </c>
+      <c r="I12">
+        <f>Eco_Treasury!I12/'Market Cap'!I12</f>
+        <v>3.7127560686293783E-2</v>
+      </c>
+      <c r="J12">
+        <f>Eco_Treasury!J12/'Market Cap'!J12</f>
+        <v>6.9510264641837544E-2</v>
+      </c>
+      <c r="K12">
+        <f>Eco_Treasury!K12/'Market Cap'!K12</f>
+        <v>0.19941292341492145</v>
+      </c>
+      <c r="L12">
+        <f>Eco_Treasury!L12/'Market Cap'!L12</f>
+        <v>6.8663613739578674E-2</v>
+      </c>
+      <c r="M12">
+        <f>Eco_Treasury!M12/'Market Cap'!M12</f>
+        <v>0.18406767973989199</v>
+      </c>
+      <c r="N12">
+        <f>Eco_Treasury!N12/'Market Cap'!N12</f>
+        <v>0.27049050051116802</v>
+      </c>
+      <c r="O12">
+        <f>Eco_Treasury!O12/'Market Cap'!O12</f>
+        <v>6.380759113902873E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45572</v>
+      </c>
+      <c r="B13">
+        <f>Eco_Treasury!B13/'Market Cap'!B13</f>
+        <v>0.3747683307771445</v>
+      </c>
+      <c r="C13">
+        <f>Eco_Treasury!C13/'Market Cap'!C13</f>
+        <v>0.49726099576204141</v>
+      </c>
+      <c r="D13">
+        <f>Eco_Treasury!D13/'Market Cap'!D13</f>
+        <v>0.64093046846856627</v>
+      </c>
+      <c r="E13">
+        <f>Eco_Treasury!E13/'Market Cap'!E13</f>
+        <v>0.49666198319932853</v>
+      </c>
+      <c r="F13">
+        <f>Eco_Treasury!F13/'Market Cap'!F13</f>
+        <v>0.44076663022989582</v>
+      </c>
+      <c r="G13">
+        <f>Eco_Treasury!G13/'Market Cap'!G13</f>
+        <v>9.6664177193001896E-2</v>
+      </c>
+      <c r="H13">
+        <f>Eco_Treasury!H13/'Market Cap'!H13</f>
+        <v>9.7800973906871008E-2</v>
+      </c>
+      <c r="I13">
+        <f>Eco_Treasury!I13/'Market Cap'!I13</f>
+        <v>3.7938433264331994E-2</v>
+      </c>
+      <c r="J13">
+        <f>Eco_Treasury!J13/'Market Cap'!J13</f>
+        <v>7.0098144181081234E-2</v>
+      </c>
+      <c r="K13">
+        <f>Eco_Treasury!K13/'Market Cap'!K13</f>
+        <v>0.20406790654580376</v>
+      </c>
+      <c r="L13">
+        <f>Eco_Treasury!L13/'Market Cap'!L13</f>
+        <v>6.7750832538618938E-2</v>
+      </c>
+      <c r="M13">
+        <f>Eco_Treasury!M13/'Market Cap'!M13</f>
+        <v>0.1838019090977151</v>
+      </c>
+      <c r="N13">
+        <f>Eco_Treasury!N13/'Market Cap'!N13</f>
+        <v>0.3270198391156664</v>
+      </c>
+      <c r="O13">
+        <f>Eco_Treasury!O13/'Market Cap'!O13</f>
+        <v>6.4945590678393492E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B14">
+        <f>Eco_Treasury!B14/'Market Cap'!B14</f>
+        <v>0.35204467672859102</v>
+      </c>
+      <c r="C14">
+        <f>Eco_Treasury!C14/'Market Cap'!C14</f>
+        <v>0.47781906152494619</v>
+      </c>
+      <c r="D14">
+        <f>Eco_Treasury!D14/'Market Cap'!D14</f>
+        <v>0.64038989194130869</v>
+      </c>
+      <c r="E14">
+        <f>Eco_Treasury!E14/'Market Cap'!E14</f>
+        <v>0.46986562764029427</v>
+      </c>
+      <c r="F14">
+        <f>Eco_Treasury!F14/'Market Cap'!F14</f>
+        <v>0.44121623832194962</v>
+      </c>
+      <c r="G14">
+        <f>Eco_Treasury!G14/'Market Cap'!G14</f>
+        <v>9.7259712998258169E-2</v>
+      </c>
+      <c r="H14">
+        <f>Eco_Treasury!H14/'Market Cap'!H14</f>
+        <v>9.79268354594163E-2</v>
+      </c>
+      <c r="I14">
+        <f>Eco_Treasury!I14/'Market Cap'!I14</f>
+        <v>3.5356816176530269E-2</v>
+      </c>
+      <c r="J14">
+        <f>Eco_Treasury!J14/'Market Cap'!J14</f>
+        <v>6.8052738898573467E-2</v>
+      </c>
+      <c r="K14">
+        <f>Eco_Treasury!K14/'Market Cap'!K14</f>
+        <v>0.19870333575750712</v>
+      </c>
+      <c r="L14">
+        <f>Eco_Treasury!L14/'Market Cap'!L14</f>
+        <v>6.1356948655731935E-2</v>
+      </c>
+      <c r="M14">
+        <f>Eco_Treasury!M14/'Market Cap'!M14</f>
+        <v>0.1930611963048493</v>
+      </c>
+      <c r="N14">
+        <f>Eco_Treasury!N14/'Market Cap'!N14</f>
+        <v>0.28908270755776716</v>
+      </c>
+      <c r="O14">
+        <f>Eco_Treasury!O14/'Market Cap'!O14</f>
+        <v>6.8322485442394082E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B15">
+        <f>Eco_Treasury!B15/'Market Cap'!B15</f>
+        <v>0.36587127500335498</v>
+      </c>
+      <c r="C15">
+        <f>Eco_Treasury!C15/'Market Cap'!C15</f>
+        <v>0.4619446247038978</v>
+      </c>
+      <c r="D15">
+        <f>Eco_Treasury!D15/'Market Cap'!D15</f>
+        <v>0.64164801721141929</v>
+      </c>
+      <c r="E15">
+        <f>Eco_Treasury!E15/'Market Cap'!E15</f>
+        <v>0.49356061485550978</v>
+      </c>
+      <c r="F15">
+        <f>Eco_Treasury!F15/'Market Cap'!F15</f>
+        <v>0.44121333502196325</v>
+      </c>
+      <c r="G15">
+        <f>Eco_Treasury!G15/'Market Cap'!G15</f>
+        <v>8.8742509204913833E-2</v>
+      </c>
+      <c r="H15">
+        <f>Eco_Treasury!H15/'Market Cap'!H15</f>
+        <v>9.8278124769146491E-2</v>
+      </c>
+      <c r="I15">
+        <f>Eco_Treasury!I15/'Market Cap'!I15</f>
+        <v>3.6628694569515806E-2</v>
+      </c>
+      <c r="J15">
+        <f>Eco_Treasury!J15/'Market Cap'!J15</f>
+        <v>6.981089261921368E-2</v>
+      </c>
+      <c r="K15">
+        <f>Eco_Treasury!K15/'Market Cap'!K15</f>
+        <v>0.20250995284863227</v>
+      </c>
+      <c r="L15">
+        <f>Eco_Treasury!L15/'Market Cap'!L15</f>
+        <v>6.4835843960048822E-2</v>
+      </c>
+      <c r="M15">
+        <f>Eco_Treasury!M15/'Market Cap'!M15</f>
+        <v>0.191012268804789</v>
+      </c>
+      <c r="N15">
+        <f>Eco_Treasury!N15/'Market Cap'!N15</f>
+        <v>0.27605126884075354</v>
+      </c>
+      <c r="O15">
+        <f>Eco_Treasury!O15/'Market Cap'!O15</f>
+        <v>8.0943011635551981E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B16">
+        <f>Eco_Treasury!B16/'Market Cap'!B16</f>
+        <v>0.38257215018551838</v>
+      </c>
+      <c r="C16">
+        <f>Eco_Treasury!C16/'Market Cap'!C16</f>
+        <v>0.46135638848112792</v>
+      </c>
+      <c r="D16">
+        <f>Eco_Treasury!D16/'Market Cap'!D16</f>
+        <v>0.6407171165994493</v>
+      </c>
+      <c r="E16">
+        <f>Eco_Treasury!E16/'Market Cap'!E16</f>
+        <v>0.51582283243692162</v>
+      </c>
+      <c r="F16">
+        <f>Eco_Treasury!F16/'Market Cap'!F16</f>
+        <v>0.44190048970233209</v>
+      </c>
+      <c r="G16">
+        <f>Eco_Treasury!G16/'Market Cap'!G16</f>
+        <v>0.1002834770021635</v>
+      </c>
+      <c r="H16">
+        <f>Eco_Treasury!H16/'Market Cap'!H16</f>
+        <v>9.9444529894852321E-2</v>
+      </c>
+      <c r="I16">
+        <f>Eco_Treasury!I16/'Market Cap'!I16</f>
+        <v>3.8813922348015346E-2</v>
+      </c>
+      <c r="J16">
+        <f>Eco_Treasury!J16/'Market Cap'!J16</f>
+        <v>6.9653389531935991E-2</v>
+      </c>
+      <c r="K16">
+        <f>Eco_Treasury!K16/'Market Cap'!K16</f>
+        <v>0.20276688396884829</v>
+      </c>
+      <c r="L16">
+        <f>Eco_Treasury!L16/'Market Cap'!L16</f>
+        <v>6.2950336958068218E-2</v>
+      </c>
+      <c r="M16">
+        <f>Eco_Treasury!M16/'Market Cap'!M16</f>
+        <v>0.19119549457009549</v>
+      </c>
+      <c r="N16">
+        <f>Eco_Treasury!N16/'Market Cap'!N16</f>
+        <v>0.29364073824329218</v>
+      </c>
+      <c r="O16">
+        <f>Eco_Treasury!O16/'Market Cap'!O16</f>
+        <v>9.5074419874754831E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B17">
+        <f>Eco_Treasury!B17/'Market Cap'!B17</f>
+        <v>0.42709696099925942</v>
+      </c>
+      <c r="C17">
+        <f>Eco_Treasury!C17/'Market Cap'!C17</f>
+        <v>0.46077350184875382</v>
+      </c>
+      <c r="D17">
+        <f>Eco_Treasury!D17/'Market Cap'!D17</f>
+        <v>0.63687603808555204</v>
+      </c>
+      <c r="E17">
+        <f>Eco_Treasury!E17/'Market Cap'!E17</f>
+        <v>0.55677460970502657</v>
+      </c>
+      <c r="F17">
+        <f>Eco_Treasury!F17/'Market Cap'!F17</f>
+        <v>0.43922310099970852</v>
+      </c>
+      <c r="G17">
+        <f>Eco_Treasury!G17/'Market Cap'!G17</f>
+        <v>0.10394128764048981</v>
+      </c>
+      <c r="H17">
+        <f>Eco_Treasury!H17/'Market Cap'!H17</f>
+        <v>9.7917871442425336E-2</v>
+      </c>
+      <c r="I17">
+        <f>Eco_Treasury!I17/'Market Cap'!I17</f>
+        <v>3.8738358263564136E-2</v>
+      </c>
+      <c r="J17">
+        <f>Eco_Treasury!J17/'Market Cap'!J17</f>
+        <v>6.6326460321490796E-2</v>
+      </c>
+      <c r="K17">
+        <f>Eco_Treasury!K17/'Market Cap'!K17</f>
+        <v>0.19903731507232936</v>
+      </c>
+      <c r="L17">
+        <f>Eco_Treasury!L17/'Market Cap'!L17</f>
+        <v>6.8616452297800418E-2</v>
+      </c>
+      <c r="M17">
+        <f>Eco_Treasury!M17/'Market Cap'!M17</f>
+        <v>0.18925807412659212</v>
+      </c>
+      <c r="N17">
+        <f>Eco_Treasury!N17/'Market Cap'!N17</f>
+        <v>0.27581919901798885</v>
+      </c>
+      <c r="O17">
+        <f>Eco_Treasury!O17/'Market Cap'!O17</f>
+        <v>8.212615841319526E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B18">
+        <f>Eco_Treasury!B18/'Market Cap'!B18</f>
+        <v>0.373218293821862</v>
+      </c>
+      <c r="C18">
+        <f>Eco_Treasury!C18/'Market Cap'!C18</f>
+        <v>0.46190814988850692</v>
+      </c>
+      <c r="D18">
+        <f>Eco_Treasury!D18/'Market Cap'!D18</f>
+        <v>0.63809979112894188</v>
+      </c>
+      <c r="E18">
+        <f>Eco_Treasury!E18/'Market Cap'!E18</f>
+        <v>0.51790225337334128</v>
+      </c>
+      <c r="F18">
+        <f>Eco_Treasury!F18/'Market Cap'!F18</f>
+        <v>0.44086670048656423</v>
+      </c>
+      <c r="G18">
+        <f>Eco_Treasury!G18/'Market Cap'!G18</f>
+        <v>0.10100535914475986</v>
+      </c>
+      <c r="H18">
+        <f>Eco_Treasury!H18/'Market Cap'!H18</f>
+        <v>9.7883660846253079E-2</v>
+      </c>
+      <c r="I18">
+        <f>Eco_Treasury!I18/'Market Cap'!I18</f>
+        <v>3.3834502535988478E-2</v>
+      </c>
+      <c r="J18">
+        <f>Eco_Treasury!J18/'Market Cap'!J18</f>
+        <v>6.7931971009612999E-2</v>
+      </c>
+      <c r="K18">
+        <f>Eco_Treasury!K18/'Market Cap'!K18</f>
+        <v>0.21200838443814268</v>
+      </c>
+      <c r="L18">
+        <f>Eco_Treasury!L18/'Market Cap'!L18</f>
+        <v>5.9983352034128835E-2</v>
+      </c>
+      <c r="M18">
+        <f>Eco_Treasury!M18/'Market Cap'!M18</f>
+        <v>0.1875841362286296</v>
+      </c>
+      <c r="N18">
+        <f>Eco_Treasury!N18/'Market Cap'!N18</f>
+        <v>0.22328827621073472</v>
+      </c>
+      <c r="O18">
+        <f>Eco_Treasury!O18/'Market Cap'!O18</f>
+        <v>7.6491550540089687E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B19">
+        <f>Eco_Treasury!B19/'Market Cap'!B19</f>
+        <v>0.31007500646176261</v>
+      </c>
+      <c r="C19">
+        <f>Eco_Treasury!C19/'Market Cap'!C19</f>
+        <v>0.46051431991419411</v>
+      </c>
+      <c r="D19">
+        <f>Eco_Treasury!D19/'Market Cap'!D19</f>
+        <v>0.63825158264458781</v>
+      </c>
+      <c r="E19">
+        <f>Eco_Treasury!E19/'Market Cap'!E19</f>
+        <v>0.43224604286093066</v>
+      </c>
+      <c r="F19">
+        <f>Eco_Treasury!F19/'Market Cap'!F19</f>
+        <v>0.43973747137910807</v>
+      </c>
+      <c r="G19">
+        <f>Eco_Treasury!G19/'Market Cap'!G19</f>
+        <v>9.44890394813062E-2</v>
+      </c>
+      <c r="H19">
+        <f>Eco_Treasury!H19/'Market Cap'!H19</f>
+        <v>9.7876366989643429E-2</v>
+      </c>
+      <c r="I19">
+        <f>Eco_Treasury!I19/'Market Cap'!I19</f>
+        <v>2.8733971512540774E-2</v>
+      </c>
+      <c r="J19">
+        <f>Eco_Treasury!J19/'Market Cap'!J19</f>
+        <v>6.9580642714747967E-2</v>
+      </c>
+      <c r="K19">
+        <f>Eco_Treasury!K19/'Market Cap'!K19</f>
+        <v>0.20915211217681673</v>
+      </c>
+      <c r="L19">
+        <f>Eco_Treasury!L19/'Market Cap'!L19</f>
+        <v>5.5352339563590494E-2</v>
+      </c>
+      <c r="M19">
+        <f>Eco_Treasury!M19/'Market Cap'!M19</f>
+        <v>0.18489455762811169</v>
+      </c>
+      <c r="N19">
+        <f>Eco_Treasury!N19/'Market Cap'!N19</f>
+        <v>0.20511543678536973</v>
+      </c>
+      <c r="O19">
+        <f>Eco_Treasury!O19/'Market Cap'!O19</f>
+        <v>7.1442253528875926E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B20">
+        <f>Eco_Treasury!B20/'Market Cap'!B20</f>
+        <v>0.25702282854485975</v>
+      </c>
+      <c r="C20">
+        <f>Eco_Treasury!C20/'Market Cap'!C20</f>
+        <v>0.46075565442966998</v>
+      </c>
+      <c r="D20">
+        <f>Eco_Treasury!D20/'Market Cap'!D20</f>
+        <v>0.63169135245459607</v>
+      </c>
+      <c r="E20">
+        <f>Eco_Treasury!E20/'Market Cap'!E20</f>
+        <v>0.36188380338913773</v>
+      </c>
+      <c r="F20">
+        <f>Eco_Treasury!F20/'Market Cap'!F20</f>
+        <v>0.44001507689243158</v>
+      </c>
+      <c r="G20">
+        <f>Eco_Treasury!G20/'Market Cap'!G20</f>
+        <v>9.2846190132859052E-2</v>
+      </c>
+      <c r="H20">
+        <f>Eco_Treasury!H20/'Market Cap'!H20</f>
+        <v>9.8172215201607724E-2</v>
+      </c>
+      <c r="I20">
+        <f>Eco_Treasury!I20/'Market Cap'!I20</f>
+        <v>2.3988993729329521E-2</v>
+      </c>
+      <c r="J20">
+        <f>Eco_Treasury!J20/'Market Cap'!J20</f>
+        <v>6.6439215001581411E-2</v>
+      </c>
+      <c r="K20">
+        <f>Eco_Treasury!K20/'Market Cap'!K20</f>
+        <v>0.18675102186986131</v>
+      </c>
+      <c r="L20">
+        <f>Eco_Treasury!L20/'Market Cap'!L20</f>
+        <v>5.3408585855871139E-2</v>
+      </c>
+      <c r="M20">
+        <f>Eco_Treasury!M20/'Market Cap'!M20</f>
+        <v>0.22730856014431425</v>
+      </c>
+      <c r="N20">
+        <f>Eco_Treasury!N20/'Market Cap'!N20</f>
+        <v>0.17114077127869387</v>
+      </c>
+      <c r="O20">
+        <f>Eco_Treasury!O20/'Market Cap'!O20</f>
+        <v>5.6783982648815436E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B21">
+        <f>Eco_Treasury!B21/'Market Cap'!B21</f>
+        <v>0.23270024597672959</v>
+      </c>
+      <c r="C21">
+        <f>Eco_Treasury!C21/'Market Cap'!C21</f>
+        <v>0.45931923777157108</v>
+      </c>
+      <c r="D21">
+        <f>Eco_Treasury!D21/'Market Cap'!D21</f>
+        <v>0.62327517735077409</v>
+      </c>
+      <c r="E21">
+        <f>Eco_Treasury!E21/'Market Cap'!E21</f>
+        <v>0.40309028748913928</v>
+      </c>
+      <c r="F21">
+        <f>Eco_Treasury!F21/'Market Cap'!F21</f>
+        <v>0.43861305096498665</v>
+      </c>
+      <c r="G21">
+        <f>Eco_Treasury!G21/'Market Cap'!G21</f>
+        <v>8.6138990632490448E-2</v>
+      </c>
+      <c r="H21">
+        <f>Eco_Treasury!H21/'Market Cap'!H21</f>
+        <v>0.10313250841210889</v>
+      </c>
+      <c r="I21">
+        <f>Eco_Treasury!I21/'Market Cap'!I21</f>
+        <v>2.0214108086483364E-2</v>
+      </c>
+      <c r="J21">
+        <f>Eco_Treasury!J21/'Market Cap'!J21</f>
+        <v>6.0765717850750488E-2</v>
+      </c>
+      <c r="K21">
+        <f>Eco_Treasury!K21/'Market Cap'!K21</f>
+        <v>0.17672309850109549</v>
+      </c>
+      <c r="L21">
+        <f>Eco_Treasury!L21/'Market Cap'!L21</f>
+        <v>5.2293115262408714E-2</v>
+      </c>
+      <c r="M21">
+        <f>Eco_Treasury!M21/'Market Cap'!M21</f>
+        <v>0.31746733114080744</v>
+      </c>
+      <c r="N21">
+        <f>Eco_Treasury!N21/'Market Cap'!N21</f>
+        <v>0.19090450952146126</v>
+      </c>
+      <c r="O21">
+        <f>Eco_Treasury!O21/'Market Cap'!O21</f>
+        <v>4.4733247416822094E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B22">
+        <f>Eco_Treasury!B22/'Market Cap'!B22</f>
+        <v>0.26162283624639399</v>
+      </c>
+      <c r="C22">
+        <f>Eco_Treasury!C22/'Market Cap'!C22</f>
+        <v>0.45802093079849771</v>
+      </c>
+      <c r="D22">
+        <f>Eco_Treasury!D22/'Market Cap'!D22</f>
+        <v>0.6248303226942834</v>
+      </c>
+      <c r="E22">
+        <f>Eco_Treasury!E22/'Market Cap'!E22</f>
+        <v>0.43493467531312946</v>
+      </c>
+      <c r="F22">
+        <f>Eco_Treasury!F22/'Market Cap'!F22</f>
+        <v>0.43852226118388277</v>
+      </c>
+      <c r="G22">
+        <f>Eco_Treasury!G22/'Market Cap'!G22</f>
+        <v>9.3267095103635386E-2</v>
+      </c>
+      <c r="H22">
+        <f>Eco_Treasury!H22/'Market Cap'!H22</f>
+        <v>0.10766483573658001</v>
+      </c>
+      <c r="I22">
+        <f>Eco_Treasury!I22/'Market Cap'!I22</f>
+        <v>2.2247203892480034E-2</v>
+      </c>
+      <c r="J22">
+        <f>Eco_Treasury!J22/'Market Cap'!J22</f>
+        <v>5.794088148430894E-2</v>
+      </c>
+      <c r="K22">
+        <f>Eco_Treasury!K22/'Market Cap'!K22</f>
+        <v>0.1737702825171196</v>
+      </c>
+      <c r="L22">
+        <f>Eco_Treasury!L22/'Market Cap'!L22</f>
+        <v>5.1556223825762436E-2</v>
+      </c>
+      <c r="M22">
+        <f>Eco_Treasury!M22/'Market Cap'!M22</f>
+        <v>0.34474607094819593</v>
+      </c>
+      <c r="N22">
+        <f>Eco_Treasury!N22/'Market Cap'!N22</f>
+        <v>0.18830911402153666</v>
+      </c>
+      <c r="O22">
+        <f>Eco_Treasury!O22/'Market Cap'!O22</f>
+        <v>5.6591273501404284E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B23">
+        <f>Eco_Treasury!B23/'Market Cap'!B23</f>
+        <v>0.30939950673296451</v>
+      </c>
+      <c r="C23">
+        <f>Eco_Treasury!C23/'Market Cap'!C23</f>
+        <v>0.45801449254623189</v>
+      </c>
+      <c r="D23">
+        <f>Eco_Treasury!D23/'Market Cap'!D23</f>
+        <v>0.62377364241448563</v>
+      </c>
+      <c r="E23">
+        <f>Eco_Treasury!E23/'Market Cap'!E23</f>
+        <v>0.51313113729554405</v>
+      </c>
+      <c r="F23">
+        <f>Eco_Treasury!F23/'Market Cap'!F23</f>
+        <v>0.44091782265315416</v>
+      </c>
+      <c r="G23">
+        <f>Eco_Treasury!G23/'Market Cap'!G23</f>
+        <v>0.10613462654875998</v>
+      </c>
+      <c r="H23">
+        <f>Eco_Treasury!H23/'Market Cap'!H23</f>
+        <v>0.11022270700687979</v>
+      </c>
+      <c r="I23">
+        <f>Eco_Treasury!I23/'Market Cap'!I23</f>
+        <v>2.5882418924589468E-2</v>
+      </c>
+      <c r="J23">
+        <f>Eco_Treasury!J23/'Market Cap'!J23</f>
+        <v>5.7104435039219859E-2</v>
+      </c>
+      <c r="K23">
+        <f>Eco_Treasury!K23/'Market Cap'!K23</f>
+        <v>0.17880549252231989</v>
+      </c>
+      <c r="L23">
+        <f>Eco_Treasury!L23/'Market Cap'!L23</f>
+        <v>6.4208212265546044E-2</v>
+      </c>
+      <c r="M23">
+        <f>Eco_Treasury!M23/'Market Cap'!M23</f>
+        <v>0.3272006351403775</v>
+      </c>
+      <c r="N23">
+        <f>Eco_Treasury!N23/'Market Cap'!N23</f>
+        <v>0.23972013520421359</v>
+      </c>
+      <c r="O23">
+        <f>Eco_Treasury!O23/'Market Cap'!O23</f>
+        <v>7.0978283925191968E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B24">
+        <f>Eco_Treasury!B24/'Market Cap'!B24</f>
+        <v>0.33404240419753978</v>
+      </c>
+      <c r="C24">
+        <f>Eco_Treasury!C24/'Market Cap'!C24</f>
+        <v>0.4570122577698375</v>
+      </c>
+      <c r="D24">
+        <f>Eco_Treasury!D24/'Market Cap'!D24</f>
+        <v>0.62500407718752116</v>
+      </c>
+      <c r="E24">
+        <f>Eco_Treasury!E24/'Market Cap'!E24</f>
+        <v>0.5593387751626131</v>
+      </c>
+      <c r="F24">
+        <f>Eco_Treasury!F24/'Market Cap'!F24</f>
+        <v>0.44048600412570038</v>
+      </c>
+      <c r="G24">
+        <f>Eco_Treasury!G24/'Market Cap'!G24</f>
+        <v>0.11561872674354247</v>
+      </c>
+      <c r="H24">
+        <f>Eco_Treasury!H24/'Market Cap'!H24</f>
+        <v>0.11078786697981624</v>
+      </c>
+      <c r="I24">
+        <f>Eco_Treasury!I24/'Market Cap'!I24</f>
+        <v>2.6797025073317087E-2</v>
+      </c>
+      <c r="J24">
+        <f>Eco_Treasury!J24/'Market Cap'!J24</f>
+        <v>5.5616547979298693E-2</v>
+      </c>
+      <c r="K24">
+        <f>Eco_Treasury!K24/'Market Cap'!K24</f>
+        <v>0.17412693028108586</v>
+      </c>
+      <c r="L24">
+        <f>Eco_Treasury!L24/'Market Cap'!L24</f>
+        <v>6.8630432344253214E-2</v>
+      </c>
+      <c r="M24">
+        <f>Eco_Treasury!M24/'Market Cap'!M24</f>
+        <v>0.32412816435974751</v>
+      </c>
+      <c r="N24">
+        <f>Eco_Treasury!N24/'Market Cap'!N24</f>
+        <v>0.25810380645077069</v>
+      </c>
+      <c r="O24">
+        <f>Eco_Treasury!O24/'Market Cap'!O24</f>
+        <v>7.4558825509758175E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B25">
+        <f>Eco_Treasury!B25/'Market Cap'!B25</f>
+        <v>0.32405703544851788</v>
+      </c>
+      <c r="C25">
+        <f>Eco_Treasury!C25/'Market Cap'!C25</f>
+        <v>0.45683439447243596</v>
+      </c>
+      <c r="D25">
+        <f>Eco_Treasury!D25/'Market Cap'!D25</f>
+        <v>0.62483136022526864</v>
+      </c>
+      <c r="E25">
+        <f>Eco_Treasury!E25/'Market Cap'!E25</f>
+        <v>0.54581086777526078</v>
+      </c>
+      <c r="F25">
+        <f>Eco_Treasury!F25/'Market Cap'!F25</f>
+        <v>0.44045997916705815</v>
+      </c>
+      <c r="G25">
+        <f>Eco_Treasury!G25/'Market Cap'!G25</f>
+        <v>0.11118683944643945</v>
+      </c>
+      <c r="H25">
+        <f>Eco_Treasury!H25/'Market Cap'!H25</f>
+        <v>0.11278671928148994</v>
+      </c>
+      <c r="I25">
+        <f>Eco_Treasury!I25/'Market Cap'!I25</f>
+        <v>2.6542140142517896E-2</v>
+      </c>
+      <c r="J25">
+        <f>Eco_Treasury!J25/'Market Cap'!J25</f>
+        <v>5.592781121649771E-2</v>
+      </c>
+      <c r="K25">
+        <f>Eco_Treasury!K25/'Market Cap'!K25</f>
+        <v>0.17486243141674948</v>
+      </c>
+      <c r="L25">
+        <f>Eco_Treasury!L25/'Market Cap'!L25</f>
+        <v>6.9391354820921597E-2</v>
+      </c>
+      <c r="M25">
+        <f>Eco_Treasury!M25/'Market Cap'!M25</f>
+        <v>0.32367733535080606</v>
+      </c>
+      <c r="N25">
+        <f>Eco_Treasury!N25/'Market Cap'!N25</f>
+        <v>0.25623588590998153</v>
+      </c>
+      <c r="O25">
+        <f>Eco_Treasury!O25/'Market Cap'!O25</f>
+        <v>7.2691839278368878E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B26">
+        <f>Eco_Treasury!B26/'Market Cap'!B26</f>
+        <v>0.25464144398759214</v>
+      </c>
+      <c r="C26">
+        <f>Eco_Treasury!C26/'Market Cap'!C26</f>
+        <v>0.45720853776828907</v>
+      </c>
+      <c r="D26">
+        <f>Eco_Treasury!D26/'Market Cap'!D26</f>
+        <v>0.62417857622637662</v>
+      </c>
+      <c r="E26">
+        <f>Eco_Treasury!E26/'Market Cap'!E26</f>
+        <v>0.44147997561589092</v>
+      </c>
+      <c r="F26">
+        <f>Eco_Treasury!F26/'Market Cap'!F26</f>
+        <v>0.44055502861912438</v>
+      </c>
+      <c r="G26">
+        <f>Eco_Treasury!G26/'Market Cap'!G26</f>
+        <v>0.11194594826598718</v>
+      </c>
+      <c r="H26">
+        <f>Eco_Treasury!H26/'Market Cap'!H26</f>
+        <v>0.11280890930730701</v>
+      </c>
+      <c r="I26">
+        <f>Eco_Treasury!I26/'Market Cap'!I26</f>
+        <v>2.6277700436640898E-2</v>
+      </c>
+      <c r="J26">
+        <f>Eco_Treasury!J26/'Market Cap'!J26</f>
+        <v>5.7912270267400638E-2</v>
+      </c>
+      <c r="K26">
+        <f>Eco_Treasury!K26/'Market Cap'!K26</f>
+        <v>0.18318272703304123</v>
+      </c>
+      <c r="L26">
+        <f>Eco_Treasury!L26/'Market Cap'!L26</f>
+        <v>6.3045490575142735E-2</v>
+      </c>
+      <c r="M26">
+        <f>Eco_Treasury!M26/'Market Cap'!M26</f>
+        <v>0.32485693664373483</v>
+      </c>
+      <c r="N26">
+        <f>Eco_Treasury!N26/'Market Cap'!N26</f>
+        <v>0.18607867957751259</v>
+      </c>
+      <c r="O26">
+        <f>Eco_Treasury!O26/'Market Cap'!O26</f>
+        <v>8.011943873396897E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B27">
+        <f>Eco_Treasury!B27/'Market Cap'!B27</f>
+        <v>0.26520286452109165</v>
+      </c>
+      <c r="C27">
+        <f>Eco_Treasury!C27/'Market Cap'!C27</f>
+        <v>0.4581862940845513</v>
+      </c>
+      <c r="D27">
+        <f>Eco_Treasury!D27/'Market Cap'!D27</f>
+        <v>0.62275467519387662</v>
+      </c>
+      <c r="E27">
+        <f>Eco_Treasury!E27/'Market Cap'!E27</f>
+        <v>0.44698615486611665</v>
+      </c>
+      <c r="F27">
+        <f>Eco_Treasury!F27/'Market Cap'!F27</f>
+        <v>0.44069223388210799</v>
+      </c>
+      <c r="G27">
+        <f>Eco_Treasury!G27/'Market Cap'!G27</f>
+        <v>0.11017544672105793</v>
+      </c>
+      <c r="H27">
+        <f>Eco_Treasury!H27/'Market Cap'!H27</f>
+        <v>0.11527216158432686</v>
+      </c>
+      <c r="I27">
+        <f>Eco_Treasury!I27/'Market Cap'!I27</f>
+        <v>2.7633663649446416E-2</v>
+      </c>
+      <c r="J27">
+        <f>Eco_Treasury!J27/'Market Cap'!J27</f>
+        <v>5.7466973782445578E-2</v>
+      </c>
+      <c r="K27">
+        <f>Eco_Treasury!K27/'Market Cap'!K27</f>
+        <v>0.1759318426799624</v>
+      </c>
+      <c r="L27">
+        <f>Eco_Treasury!L27/'Market Cap'!L27</f>
+        <v>6.5146634965937353E-2</v>
+      </c>
+      <c r="M27">
+        <f>Eco_Treasury!M27/'Market Cap'!M27</f>
+        <v>0.32513769189254166</v>
+      </c>
+      <c r="N27">
+        <f>Eco_Treasury!N27/'Market Cap'!N27</f>
+        <v>0.19676854713387013</v>
+      </c>
+      <c r="O27">
+        <f>Eco_Treasury!O27/'Market Cap'!O27</f>
+        <v>8.2315098018870755E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B28">
+        <f>Eco_Treasury!B28/'Market Cap'!B28</f>
+        <v>0.28488485113367396</v>
+      </c>
+      <c r="C28">
+        <f>Eco_Treasury!C28/'Market Cap'!C28</f>
+        <v>0.45773892047109854</v>
+      </c>
+      <c r="D28">
+        <f>Eco_Treasury!D28/'Market Cap'!D28</f>
+        <v>0.6249873605141173</v>
+      </c>
+      <c r="E28">
+        <f>Eco_Treasury!E28/'Market Cap'!E28</f>
+        <v>0.48345776506775512</v>
+      </c>
+      <c r="F28">
+        <f>Eco_Treasury!F28/'Market Cap'!F28</f>
+        <v>0.44273033828142977</v>
+      </c>
+      <c r="G28">
+        <f>Eco_Treasury!G28/'Market Cap'!G28</f>
+        <v>0.10936822131365841</v>
+      </c>
+      <c r="H28">
+        <f>Eco_Treasury!H28/'Market Cap'!H28</f>
+        <v>0.11744766688557566</v>
+      </c>
+      <c r="I28">
+        <f>Eco_Treasury!I28/'Market Cap'!I28</f>
+        <v>3.1991541000152272E-2</v>
+      </c>
+      <c r="J28">
+        <f>Eco_Treasury!J28/'Market Cap'!J28</f>
+        <v>5.6538558798216038E-2</v>
+      </c>
+      <c r="K28">
+        <f>Eco_Treasury!K28/'Market Cap'!K28</f>
+        <v>0.17324002536917343</v>
+      </c>
+      <c r="L28">
+        <f>Eco_Treasury!L28/'Market Cap'!L28</f>
+        <v>7.0808775306804059E-2</v>
+      </c>
+      <c r="M28">
+        <f>Eco_Treasury!M28/'Market Cap'!M28</f>
+        <v>0.32853296064705984</v>
+      </c>
+      <c r="N28">
+        <f>Eco_Treasury!N28/'Market Cap'!N28</f>
+        <v>0.22160675112986625</v>
+      </c>
+      <c r="O28">
+        <f>Eco_Treasury!O28/'Market Cap'!O28</f>
+        <v>9.1337624867641895E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B29">
+        <f>Eco_Treasury!B29/'Market Cap'!B29</f>
+        <v>0.33471979238574817</v>
+      </c>
+      <c r="C29">
+        <f>Eco_Treasury!C29/'Market Cap'!C29</f>
+        <v>0.45768257600161227</v>
+      </c>
+      <c r="D29">
+        <f>Eco_Treasury!D29/'Market Cap'!D29</f>
+        <v>0.62396429993634672</v>
+      </c>
+      <c r="E29">
+        <f>Eco_Treasury!E29/'Market Cap'!E29</f>
+        <v>0.59485261632865127</v>
+      </c>
+      <c r="F29">
+        <f>Eco_Treasury!F29/'Market Cap'!F29</f>
+        <v>0.44097607964100832</v>
+      </c>
+      <c r="G29">
+        <f>Eco_Treasury!G29/'Market Cap'!G29</f>
+        <v>0.11077712103484255</v>
+      </c>
+      <c r="H29">
+        <f>Eco_Treasury!H29/'Market Cap'!H29</f>
+        <v>0.11654876560271304</v>
+      </c>
+      <c r="I29">
+        <f>Eco_Treasury!I29/'Market Cap'!I29</f>
+        <v>3.4646461553980636E-2</v>
+      </c>
+      <c r="J29">
+        <f>Eco_Treasury!J29/'Market Cap'!J29</f>
+        <v>5.8797145223401064E-2</v>
+      </c>
+      <c r="K29">
+        <f>Eco_Treasury!K29/'Market Cap'!K29</f>
+        <v>0.16591268344293952</v>
+      </c>
+      <c r="L29">
+        <f>Eco_Treasury!L29/'Market Cap'!L29</f>
+        <v>7.9064016422318889E-2</v>
+      </c>
+      <c r="M29">
+        <f>Eco_Treasury!M29/'Market Cap'!M29</f>
+        <v>0.32492532905992816</v>
+      </c>
+      <c r="N29">
+        <f>Eco_Treasury!N29/'Market Cap'!N29</f>
+        <v>0.25398490423295106</v>
+      </c>
+      <c r="O29">
+        <f>Eco_Treasury!O29/'Market Cap'!O29</f>
+        <v>0.1043423184210822</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45691</v>
+      </c>
+      <c r="B30">
+        <f>Eco_Treasury!B30/'Market Cap'!B30</f>
+        <v>0.32431059395549988</v>
+      </c>
+      <c r="C30">
+        <f>Eco_Treasury!C30/'Market Cap'!C30</f>
+        <v>0.45635386746097306</v>
+      </c>
+      <c r="D30">
+        <f>Eco_Treasury!D30/'Market Cap'!D30</f>
+        <v>0.61583073790495035</v>
+      </c>
+      <c r="E30">
+        <f>Eco_Treasury!E30/'Market Cap'!E30</f>
+        <v>0.45070509619364779</v>
+      </c>
+      <c r="F30">
+        <f>Eco_Treasury!F30/'Market Cap'!F30</f>
+        <v>0.41918170432232982</v>
+      </c>
+      <c r="G30">
+        <f>Eco_Treasury!G30/'Market Cap'!G30</f>
+        <v>0.11748134711334694</v>
+      </c>
+      <c r="H30">
+        <f>Eco_Treasury!H30/'Market Cap'!H30</f>
+        <v>0.11253782930476673</v>
+      </c>
+      <c r="I30">
+        <f>Eco_Treasury!I30/'Market Cap'!I30</f>
+        <v>3.722379302422673E-2</v>
+      </c>
+      <c r="J30">
+        <f>Eco_Treasury!J30/'Market Cap'!J30</f>
+        <v>6.1645835612018016E-2</v>
+      </c>
+      <c r="K30">
+        <f>Eco_Treasury!K30/'Market Cap'!K30</f>
+        <v>0.17070265820194486</v>
+      </c>
+      <c r="L30">
+        <f>Eco_Treasury!L30/'Market Cap'!L30</f>
+        <v>6.7631743771630753E-2</v>
+      </c>
+      <c r="M30">
+        <f>Eco_Treasury!M30/'Market Cap'!M30</f>
+        <v>0.31516386120260981</v>
+      </c>
+      <c r="N30">
+        <f>Eco_Treasury!N30/'Market Cap'!N30</f>
+        <v>0.20165264466249727</v>
+      </c>
+      <c r="O30">
+        <f>Eco_Treasury!O30/'Market Cap'!O30</f>
+        <v>0.14276358836950886</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B31">
+        <f>Eco_Treasury!B31/'Market Cap'!B31</f>
+        <v>0.31216960758482137</v>
+      </c>
+      <c r="C31">
+        <f>Eco_Treasury!C31/'Market Cap'!C31</f>
+        <v>0.47164436797781678</v>
+      </c>
+      <c r="D31">
+        <f>Eco_Treasury!D31/'Market Cap'!D31</f>
+        <v>0.60723369751323564</v>
+      </c>
+      <c r="E31">
+        <f>Eco_Treasury!E31/'Market Cap'!E31</f>
+        <v>0.4382371077297465</v>
+      </c>
+      <c r="F31">
+        <f>Eco_Treasury!F31/'Market Cap'!F31</f>
+        <v>0.3604265956065722</v>
+      </c>
+      <c r="G31">
+        <f>Eco_Treasury!G31/'Market Cap'!G31</f>
+        <v>0.11072223866361557</v>
+      </c>
+      <c r="H31">
+        <f>Eco_Treasury!H31/'Market Cap'!H31</f>
+        <v>0.11165939335843784</v>
+      </c>
+      <c r="I31">
+        <f>Eco_Treasury!I31/'Market Cap'!I31</f>
+        <v>3.5878581608550633E-2</v>
+      </c>
+      <c r="J31">
+        <f>Eco_Treasury!J31/'Market Cap'!J31</f>
+        <v>6.1552356226720048E-2</v>
+      </c>
+      <c r="K31">
+        <f>Eco_Treasury!K31/'Market Cap'!K31</f>
+        <v>0.16784676113019964</v>
+      </c>
+      <c r="L31">
+        <f>Eco_Treasury!L31/'Market Cap'!L31</f>
+        <v>5.8830002312037687E-2</v>
+      </c>
+      <c r="M31">
+        <f>Eco_Treasury!M31/'Market Cap'!M31</f>
+        <v>0.30851478235207103</v>
+      </c>
+      <c r="N31">
+        <f>Eco_Treasury!N31/'Market Cap'!N31</f>
+        <v>0.19249627493970425</v>
+      </c>
+      <c r="O31">
+        <f>Eco_Treasury!O31/'Market Cap'!O31</f>
+        <v>0.13766260068151523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B32">
+        <f>Eco_Treasury!B32/'Market Cap'!B32</f>
+        <v>0.31429967874827053</v>
+      </c>
+      <c r="C32">
+        <f>Eco_Treasury!C32/'Market Cap'!C32</f>
+        <v>0.47424016158068633</v>
+      </c>
+      <c r="D32">
+        <f>Eco_Treasury!D32/'Market Cap'!D32</f>
+        <v>0.60850068928716994</v>
+      </c>
+      <c r="E32">
+        <f>Eco_Treasury!E32/'Market Cap'!E32</f>
+        <v>0.42835685854407307</v>
+      </c>
+      <c r="F32">
+        <f>Eco_Treasury!F32/'Market Cap'!F32</f>
+        <v>0.36005521338825253</v>
+      </c>
+      <c r="G32">
+        <f>Eco_Treasury!G32/'Market Cap'!G32</f>
+        <v>0.10579344027040631</v>
+      </c>
+      <c r="H32">
+        <f>Eco_Treasury!H32/'Market Cap'!H32</f>
+        <v>0.11250576977987289</v>
+      </c>
+      <c r="I32">
+        <f>Eco_Treasury!I32/'Market Cap'!I32</f>
+        <v>3.6177819868952021E-2</v>
+      </c>
+      <c r="J32">
+        <f>Eco_Treasury!J32/'Market Cap'!J32</f>
+        <v>6.2187691162630211E-2</v>
+      </c>
+      <c r="K32">
+        <f>Eco_Treasury!K32/'Market Cap'!K32</f>
+        <v>0.16932461963834264</v>
+      </c>
+      <c r="L32">
+        <f>Eco_Treasury!L32/'Market Cap'!L32</f>
+        <v>6.3103561537261627E-2</v>
+      </c>
+      <c r="M32">
+        <f>Eco_Treasury!M32/'Market Cap'!M32</f>
+        <v>0.3087530122269278</v>
+      </c>
+      <c r="N32">
+        <f>Eco_Treasury!N32/'Market Cap'!N32</f>
+        <v>0.19192042758728722</v>
+      </c>
+      <c r="O32">
+        <f>Eco_Treasury!O32/'Market Cap'!O32</f>
+        <v>0.14003038509786811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B33">
+        <f>Eco_Treasury!B33/'Market Cap'!B33</f>
+        <v>0.35262268625519017</v>
+      </c>
+      <c r="C33">
+        <f>Eco_Treasury!C33/'Market Cap'!C33</f>
+        <v>0.4767183105841557</v>
+      </c>
+      <c r="D33">
+        <f>Eco_Treasury!D33/'Market Cap'!D33</f>
+        <v>0.60928098534852693</v>
+      </c>
+      <c r="E33">
+        <f>Eco_Treasury!E33/'Market Cap'!E33</f>
+        <v>0.4491625889579563</v>
+      </c>
+      <c r="F33">
+        <f>Eco_Treasury!F33/'Market Cap'!F33</f>
+        <v>0.36176413172635719</v>
+      </c>
+      <c r="G33">
+        <f>Eco_Treasury!G33/'Market Cap'!G33</f>
+        <v>0.10822811355668141</v>
+      </c>
+      <c r="H33">
+        <f>Eco_Treasury!H33/'Market Cap'!H33</f>
+        <v>0.11405217323460515</v>
+      </c>
+      <c r="I33">
+        <f>Eco_Treasury!I33/'Market Cap'!I33</f>
+        <v>3.9167720445662545E-2</v>
+      </c>
+      <c r="J33">
+        <f>Eco_Treasury!J33/'Market Cap'!J33</f>
+        <v>6.7079623363816898E-2</v>
+      </c>
+      <c r="K33">
+        <f>Eco_Treasury!K33/'Market Cap'!K33</f>
+        <v>0.18161105676618386</v>
+      </c>
+      <c r="L33">
+        <f>Eco_Treasury!L33/'Market Cap'!L33</f>
+        <v>6.7935435357483379E-2</v>
+      </c>
+      <c r="M33">
+        <f>Eco_Treasury!M33/'Market Cap'!M33</f>
+        <v>0.30816546540810591</v>
+      </c>
+      <c r="N33">
+        <f>Eco_Treasury!N33/'Market Cap'!N33</f>
+        <v>0.21226613556144286</v>
+      </c>
+      <c r="O33">
+        <f>Eco_Treasury!O33/'Market Cap'!O33</f>
+        <v>0.1507395663518839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B34">
+        <f>Eco_Treasury!B34/'Market Cap'!B34</f>
+        <v>0.30728644102265257</v>
+      </c>
+      <c r="C34">
+        <f>Eco_Treasury!C34/'Market Cap'!C34</f>
+        <v>0.4753100104197589</v>
+      </c>
+      <c r="D34">
+        <f>Eco_Treasury!D34/'Market Cap'!D34</f>
+        <v>0.61011769086926004</v>
+      </c>
+      <c r="E34">
+        <f>Eco_Treasury!E34/'Market Cap'!E34</f>
+        <v>0.41920096114133693</v>
+      </c>
+      <c r="F34">
+        <f>Eco_Treasury!F34/'Market Cap'!F34</f>
+        <v>0.36076143523240944</v>
+      </c>
+      <c r="G34">
+        <f>Eco_Treasury!G34/'Market Cap'!G34</f>
+        <v>0.11371438113684665</v>
+      </c>
+      <c r="H34">
+        <f>Eco_Treasury!H34/'Market Cap'!H34</f>
+        <v>0.11121259196505004</v>
+      </c>
+      <c r="I34">
+        <f>Eco_Treasury!I34/'Market Cap'!I34</f>
+        <v>4.0854480425201255E-2</v>
+      </c>
+      <c r="J34">
+        <f>Eco_Treasury!J34/'Market Cap'!J34</f>
+        <v>6.6444923963548994E-2</v>
+      </c>
+      <c r="K34">
+        <f>Eco_Treasury!K34/'Market Cap'!K34</f>
+        <v>0.19352104276689688</v>
+      </c>
+      <c r="L34">
+        <f>Eco_Treasury!L34/'Market Cap'!L34</f>
+        <v>6.1082854157763267E-2</v>
+      </c>
+      <c r="M34">
+        <f>Eco_Treasury!M34/'Market Cap'!M34</f>
+        <v>0.30103956134067339</v>
+      </c>
+      <c r="N34">
+        <f>Eco_Treasury!N34/'Market Cap'!N34</f>
+        <v>0.1906252364094827</v>
+      </c>
+      <c r="O34">
+        <f>Eco_Treasury!O34/'Market Cap'!O34</f>
+        <v>0.16569172080369696</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B35">
+        <f>Eco_Treasury!B35/'Market Cap'!B35</f>
+        <v>0.34646052164922264</v>
+      </c>
+      <c r="C35">
+        <f>Eco_Treasury!C35/'Market Cap'!C35</f>
+        <v>0.47286180929653826</v>
+      </c>
+      <c r="D35">
+        <f>Eco_Treasury!D35/'Market Cap'!D35</f>
+        <v>0.60973609275577767</v>
+      </c>
+      <c r="E35">
+        <f>Eco_Treasury!E35/'Market Cap'!E35</f>
+        <v>0.4646573402273958</v>
+      </c>
+      <c r="F35">
+        <f>Eco_Treasury!F35/'Market Cap'!F35</f>
+        <v>0.35997211271350132</v>
+      </c>
+      <c r="G35">
+        <f>Eco_Treasury!G35/'Market Cap'!G35</f>
+        <v>0.11718204630484919</v>
+      </c>
+      <c r="H35">
+        <f>Eco_Treasury!H35/'Market Cap'!H35</f>
+        <v>0.10821975187450088</v>
+      </c>
+      <c r="I35">
+        <f>Eco_Treasury!I35/'Market Cap'!I35</f>
+        <v>4.6861444974804427E-2</v>
+      </c>
+      <c r="J35">
+        <f>Eco_Treasury!J35/'Market Cap'!J35</f>
+        <v>6.9445924535996878E-2</v>
+      </c>
+      <c r="K35">
+        <f>Eco_Treasury!K35/'Market Cap'!K35</f>
+        <v>0.19997865979261367</v>
+      </c>
+      <c r="L35">
+        <f>Eco_Treasury!L35/'Market Cap'!L35</f>
+        <v>6.4725697368229529E-2</v>
+      </c>
+      <c r="M35">
+        <f>Eco_Treasury!M35/'Market Cap'!M35</f>
+        <v>0.30577603884595023</v>
+      </c>
+      <c r="N35">
+        <f>Eco_Treasury!N35/'Market Cap'!N35</f>
+        <v>0.19845887692521574</v>
+      </c>
+      <c r="O35">
+        <f>Eco_Treasury!O35/'Market Cap'!O35</f>
+        <v>0.18620028900243155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B36">
+        <f>Eco_Treasury!B36/'Market Cap'!B36</f>
+        <v>0.32390068290574209</v>
+      </c>
+      <c r="C36">
+        <f>Eco_Treasury!C36/'Market Cap'!C36</f>
+        <v>0.47342621916140643</v>
+      </c>
+      <c r="D36">
+        <f>Eco_Treasury!D36/'Market Cap'!D36</f>
+        <v>0.60974738816119922</v>
+      </c>
+      <c r="E36">
+        <f>Eco_Treasury!E36/'Market Cap'!E36</f>
+        <v>0.4525445678857124</v>
+      </c>
+      <c r="F36">
+        <f>Eco_Treasury!F36/'Market Cap'!F36</f>
+        <v>0.35955810684576994</v>
+      </c>
+      <c r="G36">
+        <f>Eco_Treasury!G36/'Market Cap'!G36</f>
+        <v>0.11528296700065281</v>
+      </c>
+      <c r="H36">
+        <f>Eco_Treasury!H36/'Market Cap'!H36</f>
+        <v>0.10882977603437557</v>
+      </c>
+      <c r="I36">
+        <f>Eco_Treasury!I36/'Market Cap'!I36</f>
+        <v>4.4542426398026802E-2</v>
+      </c>
+      <c r="J36">
+        <f>Eco_Treasury!J36/'Market Cap'!J36</f>
+        <v>6.909530739202005E-2</v>
+      </c>
+      <c r="K36">
+        <f>Eco_Treasury!K36/'Market Cap'!K36</f>
+        <v>0.19419020124984243</v>
+      </c>
+      <c r="L36">
+        <f>Eco_Treasury!L36/'Market Cap'!L36</f>
+        <v>6.5228293490240702E-2</v>
+      </c>
+      <c r="M36">
+        <f>Eco_Treasury!M36/'Market Cap'!M36</f>
+        <v>0.31258742251082339</v>
+      </c>
+      <c r="N36">
+        <f>Eco_Treasury!N36/'Market Cap'!N36</f>
+        <v>0.17898978713072461</v>
+      </c>
+      <c r="O36">
+        <f>Eco_Treasury!O36/'Market Cap'!O36</f>
+        <v>0.16762666092160156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B37">
+        <f>Eco_Treasury!B37/'Market Cap'!B37</f>
+        <v>0.32829143698048135</v>
+      </c>
+      <c r="C37">
+        <f>Eco_Treasury!C37/'Market Cap'!C37</f>
+        <v>0.47221469417265127</v>
+      </c>
+      <c r="D37">
+        <f>Eco_Treasury!D37/'Market Cap'!D37</f>
+        <v>0.60970338174759375</v>
+      </c>
+      <c r="E37">
+        <f>Eco_Treasury!E37/'Market Cap'!E37</f>
+        <v>0.46637574560429279</v>
+      </c>
+      <c r="F37">
+        <f>Eco_Treasury!F37/'Market Cap'!F37</f>
+        <v>0.36003455907262494</v>
+      </c>
+      <c r="G37">
+        <f>Eco_Treasury!G37/'Market Cap'!G37</f>
+        <v>0.11637097258630824</v>
+      </c>
+      <c r="H37">
+        <f>Eco_Treasury!H37/'Market Cap'!H37</f>
+        <v>0.10906947830273168</v>
+      </c>
+      <c r="I37">
+        <f>Eco_Treasury!I37/'Market Cap'!I37</f>
+        <v>4.5158844640619096E-2</v>
+      </c>
+      <c r="J37">
+        <f>Eco_Treasury!J37/'Market Cap'!J37</f>
+        <v>6.9079002536329648E-2</v>
+      </c>
+      <c r="K37">
+        <f>Eco_Treasury!K37/'Market Cap'!K37</f>
+        <v>0.19124957233663886</v>
+      </c>
+      <c r="L37">
+        <f>Eco_Treasury!L37/'Market Cap'!L37</f>
+        <v>6.9922650087384228E-2</v>
+      </c>
+      <c r="M37">
+        <f>Eco_Treasury!M37/'Market Cap'!M37</f>
+        <v>0.31467761584804399</v>
+      </c>
+      <c r="N37">
+        <f>Eco_Treasury!N37/'Market Cap'!N37</f>
+        <v>0.17041498171702366</v>
+      </c>
+      <c r="O37">
+        <f>Eco_Treasury!O37/'Market Cap'!O37</f>
+        <v>0.17941353185834277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B38">
+        <f>Eco_Treasury!B38/'Market Cap'!B38</f>
+        <v>0.38738420032639359</v>
+      </c>
+      <c r="C38">
+        <f>Eco_Treasury!C38/'Market Cap'!C38</f>
+        <v>0.47231674325972106</v>
+      </c>
+      <c r="D38">
+        <f>Eco_Treasury!D38/'Market Cap'!D38</f>
+        <v>0.60646259993799645</v>
+      </c>
+      <c r="E38">
+        <f>Eco_Treasury!E38/'Market Cap'!E38</f>
+        <v>0.56560135219305119</v>
+      </c>
+      <c r="F38">
+        <f>Eco_Treasury!F38/'Market Cap'!F38</f>
+        <v>0.36042009602764113</v>
+      </c>
+      <c r="G38">
+        <f>Eco_Treasury!G38/'Market Cap'!G38</f>
+        <v>0.12176268884931357</v>
+      </c>
+      <c r="H38">
+        <f>Eco_Treasury!H38/'Market Cap'!H38</f>
+        <v>0.10829974550660683</v>
+      </c>
+      <c r="I38">
+        <f>Eco_Treasury!I38/'Market Cap'!I38</f>
+        <v>5.0309525535111609E-2</v>
+      </c>
+      <c r="J38">
+        <f>Eco_Treasury!J38/'Market Cap'!J38</f>
+        <v>7.3739132690063852E-2</v>
+      </c>
+      <c r="K38">
+        <f>Eco_Treasury!K38/'Market Cap'!K38</f>
+        <v>0.20181636400577921</v>
+      </c>
+      <c r="L38">
+        <f>Eco_Treasury!L38/'Market Cap'!L38</f>
+        <v>8.3618011014895258E-2</v>
+      </c>
+      <c r="M38">
+        <f>Eco_Treasury!M38/'Market Cap'!M38</f>
+        <v>0.33170413220460959</v>
+      </c>
+      <c r="N38">
+        <f>Eco_Treasury!N38/'Market Cap'!N38</f>
+        <v>0.19131978024437482</v>
+      </c>
+      <c r="O38">
+        <f>Eco_Treasury!O38/'Market Cap'!O38</f>
+        <v>0.21960193717962068</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B39">
+        <f>Eco_Treasury!B39/'Market Cap'!B39</f>
+        <v>0.27183654780870481</v>
+      </c>
+      <c r="C39">
+        <f>Eco_Treasury!C39/'Market Cap'!C39</f>
+        <v>0.47334876062511227</v>
+      </c>
+      <c r="D39">
+        <f>Eco_Treasury!D39/'Market Cap'!D39</f>
+        <v>0.60377248511271731</v>
+      </c>
+      <c r="E39">
+        <f>Eco_Treasury!E39/'Market Cap'!E39</f>
+        <v>0.50381714296649915</v>
+      </c>
+      <c r="F39">
+        <f>Eco_Treasury!F39/'Market Cap'!F39</f>
+        <v>0.36084373603100728</v>
+      </c>
+      <c r="G39">
+        <f>Eco_Treasury!G39/'Market Cap'!G39</f>
+        <v>0.13922036238950478</v>
+      </c>
+      <c r="H39">
+        <f>Eco_Treasury!H39/'Market Cap'!H39</f>
+        <v>0.10896567014977072</v>
+      </c>
+      <c r="I39">
+        <f>Eco_Treasury!I39/'Market Cap'!I39</f>
+        <v>5.3198779429194147E-2</v>
+      </c>
+      <c r="J39">
+        <f>Eco_Treasury!J39/'Market Cap'!J39</f>
+        <v>7.7752924179485081E-2</v>
+      </c>
+      <c r="K39">
+        <f>Eco_Treasury!K39/'Market Cap'!K39</f>
+        <v>0.20296473508151547</v>
+      </c>
+      <c r="L39">
+        <f>Eco_Treasury!L39/'Market Cap'!L39</f>
+        <v>5.1622339106279128E-2</v>
+      </c>
+      <c r="M39">
+        <f>Eco_Treasury!M39/'Market Cap'!M39</f>
+        <v>0.34157208542601397</v>
+      </c>
+      <c r="N39">
+        <f>Eco_Treasury!N39/'Market Cap'!N39</f>
+        <v>0.15773425802511915</v>
+      </c>
+      <c r="O39">
+        <f>Eco_Treasury!O39/'Market Cap'!O39</f>
+        <v>0.24673997999121339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B40">
+        <f>Eco_Treasury!B40/'Market Cap'!B40</f>
+        <v>0.27056504109380186</v>
+      </c>
+      <c r="C40">
+        <f>Eco_Treasury!C40/'Market Cap'!C40</f>
+        <v>0.47351193736417169</v>
+      </c>
+      <c r="D40">
+        <f>Eco_Treasury!D40/'Market Cap'!D40</f>
+        <v>0.60461002914843887</v>
+      </c>
+      <c r="E40">
+        <f>Eco_Treasury!E40/'Market Cap'!E40</f>
+        <v>0.49015181366206345</v>
+      </c>
+      <c r="F40">
+        <f>Eco_Treasury!F40/'Market Cap'!F40</f>
+        <v>0.36067226177896966</v>
+      </c>
+      <c r="G40">
+        <f>Eco_Treasury!G40/'Market Cap'!G40</f>
+        <v>0.13653346969964009</v>
+      </c>
+      <c r="H40">
+        <f>Eco_Treasury!H40/'Market Cap'!H40</f>
+        <v>0.10819334045402788</v>
+      </c>
+      <c r="I40">
+        <f>Eco_Treasury!I40/'Market Cap'!I40</f>
+        <v>5.2756234798823853E-2</v>
+      </c>
+      <c r="J40">
+        <f>Eco_Treasury!J40/'Market Cap'!J40</f>
+        <v>7.4096942224696566E-2</v>
+      </c>
+      <c r="K40">
+        <f>Eco_Treasury!K40/'Market Cap'!K40</f>
+        <v>0.2037561520169863</v>
+      </c>
+      <c r="L40">
+        <f>Eco_Treasury!L40/'Market Cap'!L40</f>
+        <v>4.5914991376730531E-2</v>
+      </c>
+      <c r="M40">
+        <f>Eco_Treasury!M40/'Market Cap'!M40</f>
+        <v>0.34167381467272395</v>
+      </c>
+      <c r="N40">
+        <f>Eco_Treasury!N40/'Market Cap'!N40</f>
+        <v>0.15380431280800666</v>
+      </c>
+      <c r="O40">
+        <f>Eco_Treasury!O40/'Market Cap'!O40</f>
+        <v>0.23737323926415815</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B41">
+        <f>Eco_Treasury!B41/'Market Cap'!B41</f>
+        <v>0.23522072094119215</v>
+      </c>
+      <c r="C41">
+        <f>Eco_Treasury!C41/'Market Cap'!C41</f>
+        <v>0.47309455510331438</v>
+      </c>
+      <c r="D41">
+        <f>Eco_Treasury!D41/'Market Cap'!D41</f>
+        <v>0.60227586009675493</v>
+      </c>
+      <c r="E41">
+        <f>Eco_Treasury!E41/'Market Cap'!E41</f>
+        <v>0.4200661547589592</v>
+      </c>
+      <c r="F41">
+        <f>Eco_Treasury!F41/'Market Cap'!F41</f>
+        <v>0.36042703903056611</v>
+      </c>
+      <c r="G41">
+        <f>Eco_Treasury!G41/'Market Cap'!G41</f>
+        <v>0.14153650859411154</v>
+      </c>
+      <c r="H41">
+        <f>Eco_Treasury!H41/'Market Cap'!H41</f>
+        <v>0.10964840899950645</v>
+      </c>
+      <c r="I41">
+        <f>Eco_Treasury!I41/'Market Cap'!I41</f>
+        <v>4.6693823202490131E-2</v>
+      </c>
+      <c r="J41">
+        <f>Eco_Treasury!J41/'Market Cap'!J41</f>
+        <v>6.8233157607549111E-2</v>
+      </c>
+      <c r="K41">
+        <f>Eco_Treasury!K41/'Market Cap'!K41</f>
+        <v>0.19371140133894341</v>
+      </c>
+      <c r="L41">
+        <f>Eco_Treasury!L41/'Market Cap'!L41</f>
+        <v>4.6633572204151805E-2</v>
+      </c>
+      <c r="M41">
+        <f>Eco_Treasury!M41/'Market Cap'!M41</f>
+        <v>0.35621039846432478</v>
+      </c>
+      <c r="N41">
+        <f>Eco_Treasury!N41/'Market Cap'!N41</f>
+        <v>0.13588778580482341</v>
+      </c>
+      <c r="O41">
+        <f>Eco_Treasury!O41/'Market Cap'!O41</f>
+        <v>0.18086284902145994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B42">
+        <f>Eco_Treasury!B42/'Market Cap'!B42</f>
+        <v>0.23934683510687116</v>
+      </c>
+      <c r="C42">
+        <f>Eco_Treasury!C42/'Market Cap'!C42</f>
+        <v>0.4730500068745494</v>
+      </c>
+      <c r="D42">
+        <f>Eco_Treasury!D42/'Market Cap'!D42</f>
+        <v>0.60153923315525015</v>
+      </c>
+      <c r="E42">
+        <f>Eco_Treasury!E42/'Market Cap'!E42</f>
+        <v>0.45143047861601088</v>
+      </c>
+      <c r="F42">
+        <f>Eco_Treasury!F42/'Market Cap'!F42</f>
+        <v>0.36071862229133511</v>
+      </c>
+      <c r="G42">
+        <f>Eco_Treasury!G42/'Market Cap'!G42</f>
+        <v>0.13502309237539695</v>
+      </c>
+      <c r="H42">
+        <f>Eco_Treasury!H42/'Market Cap'!H42</f>
+        <v>0.11062671241817768</v>
+      </c>
+      <c r="I42">
+        <f>Eco_Treasury!I42/'Market Cap'!I42</f>
+        <v>4.3820692372291137E-2</v>
+      </c>
+      <c r="J42">
+        <f>Eco_Treasury!J42/'Market Cap'!J42</f>
+        <v>6.7859400074897602E-2</v>
+      </c>
+      <c r="K42">
+        <f>Eco_Treasury!K42/'Market Cap'!K42</f>
+        <v>0.19503231348763458</v>
+      </c>
+      <c r="L42">
+        <f>Eco_Treasury!L42/'Market Cap'!L42</f>
+        <v>4.9131729619244668E-2</v>
+      </c>
+      <c r="M42">
+        <f>Eco_Treasury!M42/'Market Cap'!M42</f>
+        <v>0.36292747778666223</v>
+      </c>
+      <c r="N42">
+        <f>Eco_Treasury!N42/'Market Cap'!N42</f>
+        <v>0.13731943457907719</v>
+      </c>
+      <c r="O42">
+        <f>Eco_Treasury!O42/'Market Cap'!O42</f>
+        <v>0.17947564505868061</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45782</v>
+      </c>
+      <c r="B43">
+        <f>Eco_Treasury!B43/'Market Cap'!B43</f>
+        <v>0.26766874280237424</v>
+      </c>
+      <c r="C43">
+        <f>Eco_Treasury!C43/'Market Cap'!C43</f>
+        <v>0.47455623975886507</v>
+      </c>
+      <c r="D43">
+        <f>Eco_Treasury!D43/'Market Cap'!D43</f>
+        <v>0.60244002569106192</v>
+      </c>
+      <c r="E43">
+        <f>Eco_Treasury!E43/'Market Cap'!E43</f>
+        <v>0.48175296403364365</v>
+      </c>
+      <c r="F43">
+        <f>Eco_Treasury!F43/'Market Cap'!F43</f>
+        <v>0.36109921572798176</v>
+      </c>
+      <c r="G43">
+        <f>Eco_Treasury!G43/'Market Cap'!G43</f>
+        <v>0.1452777454549419</v>
+      </c>
+      <c r="H43">
+        <f>Eco_Treasury!H43/'Market Cap'!H43</f>
+        <v>0.11257550749265133</v>
+      </c>
+      <c r="I43">
+        <f>Eco_Treasury!I43/'Market Cap'!I43</f>
+        <v>4.3587652373299743E-2</v>
+      </c>
+      <c r="J43">
+        <f>Eco_Treasury!J43/'Market Cap'!J43</f>
+        <v>6.1759349942742306E-2</v>
+      </c>
+      <c r="K43">
+        <f>Eco_Treasury!K43/'Market Cap'!K43</f>
+        <v>0.19411453477428839</v>
+      </c>
+      <c r="L43">
+        <f>Eco_Treasury!L43/'Market Cap'!L43</f>
+        <v>4.791324001894768E-2</v>
+      </c>
+      <c r="M43">
+        <f>Eco_Treasury!M43/'Market Cap'!M43</f>
+        <v>0.36650457265798858</v>
+      </c>
+      <c r="N43">
+        <f>Eco_Treasury!N43/'Market Cap'!N43</f>
+        <v>0.14271079525492136</v>
+      </c>
+      <c r="O43">
+        <f>Eco_Treasury!O43/'Market Cap'!O43</f>
+        <v>0.19377698510479166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B44">
+        <f>Eco_Treasury!B44/'Market Cap'!B44</f>
+        <v>0.24349285115712685</v>
+      </c>
+      <c r="C44">
+        <f>Eco_Treasury!C44/'Market Cap'!C44</f>
+        <v>0.47371031629478083</v>
+      </c>
+      <c r="D44">
+        <f>Eco_Treasury!D44/'Market Cap'!D44</f>
+        <v>0.60214616900224782</v>
+      </c>
+      <c r="E44">
+        <f>Eco_Treasury!E44/'Market Cap'!E44</f>
+        <v>0.45224231563142331</v>
+      </c>
+      <c r="F44">
+        <f>Eco_Treasury!F44/'Market Cap'!F44</f>
+        <v>0.3616161739538914</v>
+      </c>
+      <c r="G44">
+        <f>Eco_Treasury!G44/'Market Cap'!G44</f>
+        <v>0.1457481254939352</v>
+      </c>
+      <c r="H44">
+        <f>Eco_Treasury!H44/'Market Cap'!H44</f>
+        <v>0.11223138265112934</v>
+      </c>
+      <c r="I44">
+        <f>Eco_Treasury!I44/'Market Cap'!I44</f>
+        <v>4.056020103132868E-2</v>
+      </c>
+      <c r="J44">
+        <f>Eco_Treasury!J44/'Market Cap'!J44</f>
+        <v>5.8969940526069485E-2</v>
+      </c>
+      <c r="K44">
+        <f>Eco_Treasury!K44/'Market Cap'!K44</f>
+        <v>0.20305308582170009</v>
+      </c>
+      <c r="L44">
+        <f>Eco_Treasury!L44/'Market Cap'!L44</f>
+        <v>4.4984359338562582E-2</v>
+      </c>
+      <c r="M44">
+        <f>Eco_Treasury!M44/'Market Cap'!M44</f>
+        <v>0.36693116430934752</v>
+      </c>
+      <c r="N44">
+        <f>Eco_Treasury!N44/'Market Cap'!N44</f>
+        <v>0.13475730873040961</v>
+      </c>
+      <c r="O44">
+        <f>Eco_Treasury!O44/'Market Cap'!O44</f>
+        <v>0.15246291386296798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45796</v>
+      </c>
+      <c r="B45">
+        <f>Eco_Treasury!B45/'Market Cap'!B45</f>
+        <v>0.24868254802411405</v>
+      </c>
+      <c r="C45">
+        <f>Eco_Treasury!C45/'Market Cap'!C45</f>
+        <v>0.46813380656859527</v>
+      </c>
+      <c r="D45">
+        <f>Eco_Treasury!D45/'Market Cap'!D45</f>
+        <v>0.60016453564950012</v>
+      </c>
+      <c r="E45">
+        <f>Eco_Treasury!E45/'Market Cap'!E45</f>
+        <v>0.46834506338386361</v>
+      </c>
+      <c r="F45">
+        <f>Eco_Treasury!F45/'Market Cap'!F45</f>
+        <v>0.36049159038704642</v>
+      </c>
+      <c r="G45">
+        <f>Eco_Treasury!G45/'Market Cap'!G45</f>
+        <v>0.15602718451715639</v>
+      </c>
+      <c r="H45">
+        <f>Eco_Treasury!H45/'Market Cap'!H45</f>
+        <v>0.11186344194748307</v>
+      </c>
+      <c r="I45">
+        <f>Eco_Treasury!I45/'Market Cap'!I45</f>
+        <v>4.0742723928837321E-2</v>
+      </c>
+      <c r="J45">
+        <f>Eco_Treasury!J45/'Market Cap'!J45</f>
+        <v>5.5455106247131493E-2</v>
+      </c>
+      <c r="K45">
+        <f>Eco_Treasury!K45/'Market Cap'!K45</f>
+        <v>0.21699166443877949</v>
+      </c>
+      <c r="L45">
+        <f>Eco_Treasury!L45/'Market Cap'!L45</f>
+        <v>4.5454675160870643E-2</v>
+      </c>
+      <c r="M45">
+        <f>Eco_Treasury!M45/'Market Cap'!M45</f>
+        <v>0.37803546136591104</v>
+      </c>
+      <c r="N45">
+        <f>Eco_Treasury!N45/'Market Cap'!N45</f>
+        <v>0.13982128891826967</v>
+      </c>
+      <c r="O45">
+        <f>Eco_Treasury!O45/'Market Cap'!O45</f>
+        <v>0.16730201696673835</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B46">
+        <f>Eco_Treasury!B46/'Market Cap'!B46</f>
+        <v>0.26669326324380721</v>
+      </c>
+      <c r="C46">
+        <f>Eco_Treasury!C46/'Market Cap'!C46</f>
+        <v>0.46770366980975286</v>
+      </c>
+      <c r="D46">
+        <f>Eco_Treasury!D46/'Market Cap'!D46</f>
+        <v>0.59996198448399951</v>
+      </c>
+      <c r="E46">
+        <f>Eco_Treasury!E46/'Market Cap'!E46</f>
+        <v>0.49400424141566107</v>
+      </c>
+      <c r="F46">
+        <f>Eco_Treasury!F46/'Market Cap'!F46</f>
+        <v>0.36045007313140581</v>
+      </c>
+      <c r="G46">
+        <f>Eco_Treasury!G46/'Market Cap'!G46</f>
+        <v>0.15781936767605995</v>
+      </c>
+      <c r="H46">
+        <f>Eco_Treasury!H46/'Market Cap'!H46</f>
+        <v>0.11193704329979037</v>
+      </c>
+      <c r="I46">
+        <f>Eco_Treasury!I46/'Market Cap'!I46</f>
+        <v>4.1812370561399796E-2</v>
+      </c>
+      <c r="J46">
+        <f>Eco_Treasury!J46/'Market Cap'!J46</f>
+        <v>5.394346635218672E-2</v>
+      </c>
+      <c r="K46">
+        <f>Eco_Treasury!K46/'Market Cap'!K46</f>
+        <v>0.22069842187019501</v>
+      </c>
+      <c r="L46">
+        <f>Eco_Treasury!L46/'Market Cap'!L46</f>
+        <v>4.5407891230247119E-2</v>
+      </c>
+      <c r="M46">
+        <f>Eco_Treasury!M46/'Market Cap'!M46</f>
+        <v>0.39235431154903022</v>
+      </c>
+      <c r="N46">
+        <f>Eco_Treasury!N46/'Market Cap'!N46</f>
+        <v>0.15477347489251836</v>
+      </c>
+      <c r="O46">
+        <f>Eco_Treasury!O46/'Market Cap'!O46</f>
+        <v>0.17640230836750306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B47">
+        <f>Eco_Treasury!B47/'Market Cap'!B47</f>
+        <v>0.31742110912524873</v>
+      </c>
+      <c r="C47">
+        <f>Eco_Treasury!C47/'Market Cap'!C47</f>
+        <v>0.4676719743987105</v>
+      </c>
+      <c r="D47">
+        <f>Eco_Treasury!D47/'Market Cap'!D47</f>
+        <v>0.60014656564265423</v>
+      </c>
+      <c r="E47">
+        <f>Eco_Treasury!E47/'Market Cap'!E47</f>
+        <v>0.40857463757305612</v>
+      </c>
+      <c r="F47">
+        <f>Eco_Treasury!F47/'Market Cap'!F47</f>
+        <v>0.36153410043859641</v>
+      </c>
+      <c r="G47">
+        <f>Eco_Treasury!G47/'Market Cap'!G47</f>
+        <v>0.16351419481991517</v>
+      </c>
+      <c r="H47">
+        <f>Eco_Treasury!H47/'Market Cap'!H47</f>
+        <v>0.11329151068994998</v>
+      </c>
+      <c r="I47">
+        <f>Eco_Treasury!I47/'Market Cap'!I47</f>
+        <v>4.482427812052929E-2</v>
+      </c>
+      <c r="J47">
+        <f>Eco_Treasury!J47/'Market Cap'!J47</f>
+        <v>5.2744742544892913E-2</v>
+      </c>
+      <c r="K47">
+        <f>Eco_Treasury!K47/'Market Cap'!K47</f>
+        <v>0.2254334590084783</v>
+      </c>
+      <c r="L47">
+        <f>Eco_Treasury!L47/'Market Cap'!L47</f>
+        <v>4.4467276975578812E-2</v>
+      </c>
+      <c r="M47">
+        <f>Eco_Treasury!M47/'Market Cap'!M47</f>
+        <v>0.40384692786799647</v>
+      </c>
+      <c r="N47">
+        <f>Eco_Treasury!N47/'Market Cap'!N47</f>
+        <v>0.13295952344531148</v>
+      </c>
+      <c r="O47">
+        <f>Eco_Treasury!O47/'Market Cap'!O47</f>
+        <v>0.19096041575328065</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B48">
+        <f>Eco_Treasury!B48/'Market Cap'!B48</f>
+        <v>0.30120436420154711</v>
+      </c>
+      <c r="C48">
+        <f>Eco_Treasury!C48/'Market Cap'!C48</f>
+        <v>0.46826125079379022</v>
+      </c>
+      <c r="D48">
+        <f>Eco_Treasury!D48/'Market Cap'!D48</f>
+        <v>0.60091107428037482</v>
+      </c>
+      <c r="E48">
+        <f>Eco_Treasury!E48/'Market Cap'!E48</f>
+        <v>0.39973516496491446</v>
+      </c>
+      <c r="F48">
+        <f>Eco_Treasury!F48/'Market Cap'!F48</f>
+        <v>0.36003519725111349</v>
+      </c>
+      <c r="G48">
+        <f>Eco_Treasury!G48/'Market Cap'!G48</f>
+        <v>0.16760847975101617</v>
+      </c>
+      <c r="H48">
+        <f>Eco_Treasury!H48/'Market Cap'!H48</f>
+        <v>0.11500247292474854</v>
+      </c>
+      <c r="I48">
+        <f>Eco_Treasury!I48/'Market Cap'!I48</f>
+        <v>4.4682895623215868E-2</v>
+      </c>
+      <c r="J48">
+        <f>Eco_Treasury!J48/'Market Cap'!J48</f>
+        <v>5.0047514882866337E-2</v>
+      </c>
+      <c r="K48">
+        <f>Eco_Treasury!K48/'Market Cap'!K48</f>
+        <v>0.22289666771558744</v>
+      </c>
+      <c r="L48">
+        <f>Eco_Treasury!L48/'Market Cap'!L48</f>
+        <v>4.3221536244505657E-2</v>
+      </c>
+      <c r="M48">
+        <f>Eco_Treasury!M48/'Market Cap'!M48</f>
+        <v>0.40887787810258286</v>
+      </c>
+      <c r="N48">
+        <f>Eco_Treasury!N48/'Market Cap'!N48</f>
+        <v>0.13284843885564696</v>
+      </c>
+      <c r="O48">
+        <f>Eco_Treasury!O48/'Market Cap'!O48</f>
+        <v>0.19216737134498429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B49">
+        <f>Eco_Treasury!B49/'Market Cap'!B49</f>
+        <v>0.37380191015449526</v>
+      </c>
+      <c r="C49">
+        <f>Eco_Treasury!C49/'Market Cap'!C49</f>
+        <v>0.4685322118634469</v>
+      </c>
+      <c r="D49">
+        <f>Eco_Treasury!D49/'Market Cap'!D49</f>
+        <v>0.60439605428417631</v>
+      </c>
+      <c r="E49">
+        <f>Eco_Treasury!E49/'Market Cap'!E49</f>
+        <v>0.47070351226100188</v>
+      </c>
+      <c r="F49">
+        <f>Eco_Treasury!F49/'Market Cap'!F49</f>
+        <v>0.36113267116499814</v>
+      </c>
+      <c r="G49">
+        <f>Eco_Treasury!G49/'Market Cap'!G49</f>
+        <v>0.16407118836946064</v>
+      </c>
+      <c r="H49">
+        <f>Eco_Treasury!H49/'Market Cap'!H49</f>
+        <v>0.10672336526921757</v>
+      </c>
+      <c r="I49">
+        <f>Eco_Treasury!I49/'Market Cap'!I49</f>
+        <v>5.0571356196046892E-2</v>
+      </c>
+      <c r="J49">
+        <f>Eco_Treasury!J49/'Market Cap'!J49</f>
+        <v>5.1603560836787278E-2</v>
+      </c>
+      <c r="K49">
+        <f>Eco_Treasury!K49/'Market Cap'!K49</f>
+        <v>0.2364726791103248</v>
+      </c>
+      <c r="L49">
+        <f>Eco_Treasury!L49/'Market Cap'!L49</f>
+        <v>4.8869845073112025E-2</v>
+      </c>
+      <c r="M49">
+        <f>Eco_Treasury!M49/'Market Cap'!M49</f>
+        <v>0.41335210993821925</v>
+      </c>
+      <c r="N49">
+        <f>Eco_Treasury!N49/'Market Cap'!N49</f>
+        <v>0.1498949160374578</v>
+      </c>
+      <c r="O49">
+        <f>Eco_Treasury!O49/'Market Cap'!O49</f>
+        <v>0.21756376549309472</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B50">
+        <f>Eco_Treasury!B50/'Market Cap'!B50</f>
+        <v>0.3476859429167255</v>
+      </c>
+      <c r="C50">
+        <f>Eco_Treasury!C50/'Market Cap'!C50</f>
+        <v>0.46824734479119445</v>
+      </c>
+      <c r="D50">
+        <f>Eco_Treasury!D50/'Market Cap'!D50</f>
+        <v>0.60486839475028265</v>
+      </c>
+      <c r="E50">
+        <f>Eco_Treasury!E50/'Market Cap'!E50</f>
+        <v>0.46350473591143265</v>
+      </c>
+      <c r="F50">
+        <f>Eco_Treasury!F50/'Market Cap'!F50</f>
+        <v>0.36001307743897137</v>
+      </c>
+      <c r="G50">
+        <f>Eco_Treasury!G50/'Market Cap'!G50</f>
+        <v>0.17390265527093313</v>
+      </c>
+      <c r="H50">
+        <f>Eco_Treasury!H50/'Market Cap'!H50</f>
+        <v>9.6932806645848524E-2</v>
+      </c>
+      <c r="I50">
+        <f>Eco_Treasury!I50/'Market Cap'!I50</f>
+        <v>5.1462885560555567E-2</v>
+      </c>
+      <c r="J50">
+        <f>Eco_Treasury!J50/'Market Cap'!J50</f>
+        <v>4.9459376664297484E-2</v>
+      </c>
+      <c r="K50">
+        <f>Eco_Treasury!K50/'Market Cap'!K50</f>
+        <v>0.24122060651520941</v>
+      </c>
+      <c r="L50">
+        <f>Eco_Treasury!L50/'Market Cap'!L50</f>
+        <v>4.9825135123056169E-2</v>
+      </c>
+      <c r="M50">
+        <f>Eco_Treasury!M50/'Market Cap'!M50</f>
+        <v>0.41364438896093259</v>
+      </c>
+      <c r="N50">
+        <f>Eco_Treasury!N50/'Market Cap'!N50</f>
+        <v>0.14034432539778116</v>
+      </c>
+      <c r="O50">
+        <f>Eco_Treasury!O50/'Market Cap'!O50</f>
+        <v>0.21902273980793124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B51">
+        <f>Eco_Treasury!B51/'Market Cap'!B51</f>
+        <v>0.32762882544074018</v>
+      </c>
+      <c r="C51">
+        <f>Eco_Treasury!C51/'Market Cap'!C51</f>
+        <v>0.46892298117582393</v>
+      </c>
+      <c r="D51">
+        <f>Eco_Treasury!D51/'Market Cap'!D51</f>
+        <v>0.59849312905354402</v>
+      </c>
+      <c r="E51">
+        <f>Eco_Treasury!E51/'Market Cap'!E51</f>
+        <v>0.46733913620506784</v>
+      </c>
+      <c r="F51">
+        <f>Eco_Treasury!F51/'Market Cap'!F51</f>
+        <v>0.36112634752139794</v>
+      </c>
+      <c r="G51">
+        <f>Eco_Treasury!G51/'Market Cap'!G51</f>
+        <v>0.17893324264540367</v>
+      </c>
+      <c r="H51">
+        <f>Eco_Treasury!H51/'Market Cap'!H51</f>
+        <v>9.7955553997975328E-2</v>
+      </c>
+      <c r="I51">
+        <f>Eco_Treasury!I51/'Market Cap'!I51</f>
+        <v>5.1869794841184175E-2</v>
+      </c>
+      <c r="J51">
+        <f>Eco_Treasury!J51/'Market Cap'!J51</f>
+        <v>4.7329559326818225E-2</v>
+      </c>
+      <c r="K51">
+        <f>Eco_Treasury!K51/'Market Cap'!K51</f>
+        <v>0.24140690044562971</v>
+      </c>
+      <c r="L51">
+        <f>Eco_Treasury!L51/'Market Cap'!L51</f>
+        <v>4.9639303914552423E-2</v>
+      </c>
+      <c r="M51">
+        <f>Eco_Treasury!M51/'Market Cap'!M51</f>
+        <v>0.41782200308016165</v>
+      </c>
+      <c r="N51">
+        <f>Eco_Treasury!N51/'Market Cap'!N51</f>
+        <v>0.12976891295138684</v>
+      </c>
+      <c r="O51">
+        <f>Eco_Treasury!O51/'Market Cap'!O51</f>
+        <v>0.23250588799392294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B52">
+        <f>Eco_Treasury!B52/'Market Cap'!B52</f>
+        <v>0.34527576971745794</v>
+      </c>
+      <c r="C52">
+        <f>Eco_Treasury!C52/'Market Cap'!C52</f>
+        <v>0.46741022129357201</v>
+      </c>
+      <c r="D52">
+        <f>Eco_Treasury!D52/'Market Cap'!D52</f>
+        <v>0.59624317197395016</v>
+      </c>
+      <c r="E52">
+        <f>Eco_Treasury!E52/'Market Cap'!E52</f>
+        <v>0.49282892605356388</v>
+      </c>
+      <c r="F52">
+        <f>Eco_Treasury!F52/'Market Cap'!F52</f>
+        <v>0.36009717745726394</v>
+      </c>
+      <c r="G52">
+        <f>Eco_Treasury!G52/'Market Cap'!G52</f>
+        <v>0.17698013974121213</v>
+      </c>
+      <c r="H52">
+        <f>Eco_Treasury!H52/'Market Cap'!H52</f>
+        <v>9.8000490195665618E-2</v>
+      </c>
+      <c r="I52">
+        <f>Eco_Treasury!I52/'Market Cap'!I52</f>
+        <v>3.6908772900225921E-2</v>
+      </c>
+      <c r="J52">
+        <f>Eco_Treasury!J52/'Market Cap'!J52</f>
+        <v>4.652605426133942E-2</v>
+      </c>
+      <c r="K52">
+        <f>Eco_Treasury!K52/'Market Cap'!K52</f>
+        <v>0.24204833589615246</v>
+      </c>
+      <c r="L52">
+        <f>Eco_Treasury!L52/'Market Cap'!L52</f>
+        <v>5.391033167082758E-2</v>
+      </c>
+      <c r="M52">
+        <f>Eco_Treasury!M52/'Market Cap'!M52</f>
+        <v>0.41858866953801416</v>
+      </c>
+      <c r="N52">
+        <f>Eco_Treasury!N52/'Market Cap'!N52</f>
+        <v>0.13014387748557621</v>
+      </c>
+      <c r="O52">
+        <f>Eco_Treasury!O52/'Market Cap'!O52</f>
+        <v>0.15977755747722758</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD09A5B-C425-482A-AB4D-9F471FFE2289}">
   <dimension ref="A1:O52"/>
   <sheetViews>
@@ -21847,7 +27488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A295558D-2F34-46DE-9488-6060C8789830}">
   <dimension ref="A1:C53"/>
   <sheetViews>
@@ -22450,2475 +28091,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D13D70-4922-493A-AC82-42773CD43B81}">
-  <dimension ref="A1:O52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>45495</v>
-      </c>
-      <c r="B2" s="6">
-        <v>-3.9949867707482697E-2</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1.2092777000793984E-2</v>
-      </c>
-      <c r="D2" s="6">
-        <v>7.3601326835732372E-3</v>
-      </c>
-      <c r="E2" s="6">
-        <v>-5.7698430788072547E-2</v>
-      </c>
-      <c r="F2" s="6">
-        <v>3.9188895622059702E-3</v>
-      </c>
-      <c r="G2" s="6">
-        <v>-3.1727614153625384E-2</v>
-      </c>
-      <c r="H2" s="6">
-        <v>-1.1802086762369705E-2</v>
-      </c>
-      <c r="I2" s="6">
-        <v>-0.10462684222970124</v>
-      </c>
-      <c r="J2" s="6">
-        <v>-4.2374046186100842E-2</v>
-      </c>
-      <c r="K2" s="6">
-        <v>-0.136908854866753</v>
-      </c>
-      <c r="L2" s="6">
-        <v>1.7006490275945637E-2</v>
-      </c>
-      <c r="M2" s="6">
-        <v>-9.7666823510363251E-2</v>
-      </c>
-      <c r="N2" s="6">
-        <v>-8.2763138115467913E-2</v>
-      </c>
-      <c r="O2" s="6">
-        <v>-4.619608004216974E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45502</v>
-      </c>
-      <c r="B3" s="6">
-        <v>-0.13502916663923553</v>
-      </c>
-      <c r="C3" s="6">
-        <v>-0.17407731219968933</v>
-      </c>
-      <c r="D3" s="6">
-        <v>-0.13052774789473959</v>
-      </c>
-      <c r="E3" s="6">
-        <v>-0.13753317651006769</v>
-      </c>
-      <c r="F3" s="6">
-        <v>-9.104736415016379E-2</v>
-      </c>
-      <c r="G3" s="6">
-        <v>-0.12242620841459365</v>
-      </c>
-      <c r="H3" s="6">
-        <v>-0.10400409012171911</v>
-      </c>
-      <c r="I3" s="6">
-        <v>-0.13271854539335426</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.11732562329070741</v>
-      </c>
-      <c r="K3" s="6">
-        <v>-0.10245863150579805</v>
-      </c>
-      <c r="L3" s="6">
-        <v>-0.1462024503550578</v>
-      </c>
-      <c r="M3" s="6">
-        <v>-8.4341450410504365E-2</v>
-      </c>
-      <c r="N3" s="6">
-        <v>-0.10377325100700761</v>
-      </c>
-      <c r="O3" s="6">
-        <v>-0.1055359770321193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45509</v>
-      </c>
-      <c r="B4" s="6">
-        <v>-0.16522587651208032</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-0.12748896652936564</v>
-      </c>
-      <c r="D4" s="6">
-        <v>-0.22915011081976644</v>
-      </c>
-      <c r="E4" s="6">
-        <v>-0.13671401571054917</v>
-      </c>
-      <c r="F4" s="6">
-        <v>-0.19235692013915895</v>
-      </c>
-      <c r="G4" s="6">
-        <v>-0.17438789136363597</v>
-      </c>
-      <c r="H4" s="6">
-        <v>-0.17188972495898239</v>
-      </c>
-      <c r="I4" s="6">
-        <v>-0.19923731235978484</v>
-      </c>
-      <c r="J4" s="6">
-        <v>-8.9054399601688483E-2</v>
-      </c>
-      <c r="K4" s="6">
-        <v>-0.26800688176143195</v>
-      </c>
-      <c r="L4" s="6">
-        <v>-0.1376319616096684</v>
-      </c>
-      <c r="M4" s="6">
-        <v>-0.19448377739443157</v>
-      </c>
-      <c r="N4" s="6">
-        <v>-0.15322225372813253</v>
-      </c>
-      <c r="O4" s="6">
-        <v>-0.25772180014315343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45516</v>
-      </c>
-      <c r="B5" s="6">
-        <v>3.9654848302253062E-2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>-1.0998707925155542E-2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3.7285561358962424E-2</v>
-      </c>
-      <c r="E5" s="6">
-        <v>7.5750931527586371E-3</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.10303525343423961</v>
-      </c>
-      <c r="G5" s="6">
-        <v>2.8328089461078482E-2</v>
-      </c>
-      <c r="H5" s="6">
-        <v>3.4962072856033283E-2</v>
-      </c>
-      <c r="I5" s="6">
-        <v>-4.7792405591824086E-2</v>
-      </c>
-      <c r="J5" s="6">
-        <v>8.9267560347757471E-2</v>
-      </c>
-      <c r="K5" s="6">
-        <v>-2.4710180135740285E-2</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0.20009742817514325</v>
-      </c>
-      <c r="M5" s="6">
-        <v>5.9932198675500988E-2</v>
-      </c>
-      <c r="N5" s="6">
-        <v>8.2517567190985172E-2</v>
-      </c>
-      <c r="O5" s="6">
-        <v>-9.5455744425082499E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B6" s="6">
-        <v>3.4740634336548552E-2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2.6989326160028516E-2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>7.7285327860431269E-2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.12489738879531188</v>
-      </c>
-      <c r="F6" s="6">
-        <v>6.1656325445030406E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>7.1507877162313813E-2</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.12907740155297204</v>
-      </c>
-      <c r="I6" s="6">
-        <v>6.8637112627934899E-2</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.26719687160621086</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.11362083125926468</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1.5431909697379384E-2</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0.13217387654045459</v>
-      </c>
-      <c r="N6" s="6">
-        <v>5.592234921819713E-2</v>
-      </c>
-      <c r="O6" s="6">
-        <v>7.9396991506276868E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B7" s="6">
-        <v>-9.0190989251884693E-2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-3.1998421815900104E-2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>-0.10220043827750305</v>
-      </c>
-      <c r="E7" s="6">
-        <v>-4.6331416265064998E-2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>-5.1745666057033027E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>-8.762281185918068E-2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>2.8636241391003327E-2</v>
-      </c>
-      <c r="I7" s="6">
-        <v>-9.6428806817095244E-2</v>
-      </c>
-      <c r="J7" s="6">
-        <v>-6.6140985900330268E-2</v>
-      </c>
-      <c r="K7" s="6">
-        <v>-8.7897930518794132E-2</v>
-      </c>
-      <c r="L7" s="6">
-        <v>-3.0965652614740193E-2</v>
-      </c>
-      <c r="M7" s="6">
-        <v>-0.10604278140626471</v>
-      </c>
-      <c r="N7" s="6">
-        <v>-0.15698425984845837</v>
-      </c>
-      <c r="O7" s="6">
-        <v>4.2871732645734399E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B8" s="6">
-        <v>-4.2436553675319968E-2</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-6.0142407691294281E-2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>-9.2204016230529873E-2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>-3.296340681854968E-2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>-9.1977492691415808E-2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>-5.5981065094484965E-2</v>
-      </c>
-      <c r="H8" s="6">
-        <v>-5.8329950145340551E-2</v>
-      </c>
-      <c r="I8" s="6">
-        <v>2.8050528009939603E-2</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1.9668261097925365E-2</v>
-      </c>
-      <c r="K8" s="6">
-        <v>-9.0464099821422519E-2</v>
-      </c>
-      <c r="L8" s="6">
-        <v>-7.2456797699734385E-2</v>
-      </c>
-      <c r="M8" s="6">
-        <v>-5.7546484377934075E-2</v>
-      </c>
-      <c r="N8" s="6">
-        <v>-8.24189376441333E-2</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0.15444253540027295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>45544</v>
-      </c>
-      <c r="B9" s="6">
-        <v>5.2858541632449643E-2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>6.8237036803824314E-3</v>
-      </c>
-      <c r="D9" s="6">
-        <v>4.9586475855391735E-2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.12443330372428842</v>
-      </c>
-      <c r="F9" s="6">
-        <v>9.8822494010926201E-2</v>
-      </c>
-      <c r="G9" s="6">
-        <v>5.7531837078776231E-2</v>
-      </c>
-      <c r="H9" s="6">
-        <v>2.5997161437629836E-2</v>
-      </c>
-      <c r="I9" s="6">
-        <v>3.2068723024534077E-2</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.13231928444054908</v>
-      </c>
-      <c r="K9" s="6">
-        <v>5.2418706254024512E-2</v>
-      </c>
-      <c r="L9" s="6">
-        <v>-3.4607599185810657E-3</v>
-      </c>
-      <c r="M9" s="6">
-        <v>8.1174731451209264E-2</v>
-      </c>
-      <c r="N9" s="6">
-        <v>4.1709147067804021E-2</v>
-      </c>
-      <c r="O9" s="6">
-        <v>-7.0367670279314204E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>45551</v>
-      </c>
-      <c r="B10" s="6">
-        <v>6.1714102155408825E-2</v>
-      </c>
-      <c r="C10" s="6">
-        <v>4.7377635075018902E-2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1.6251925194268046E-2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2.8991829961387001E-2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.30402948354782733</v>
-      </c>
-      <c r="G10" s="6">
-        <v>9.5768702069545311E-3</v>
-      </c>
-      <c r="H10" s="6">
-        <v>5.7048875023950667E-2</v>
-      </c>
-      <c r="I10" s="6">
-        <v>2.0557765213467624E-2</v>
-      </c>
-      <c r="J10" s="6">
-        <v>2.6011431174684727E-2</v>
-      </c>
-      <c r="K10" s="6">
-        <v>3.4886441070200315E-2</v>
-      </c>
-      <c r="L10" s="6">
-        <v>9.4387845539259056E-3</v>
-      </c>
-      <c r="M10" s="6">
-        <v>6.3935819647341768E-2</v>
-      </c>
-      <c r="N10" s="6">
-        <v>7.2877933000291845E-3</v>
-      </c>
-      <c r="O10" s="6">
-        <v>-3.9915074309977802E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>45558</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.12496000475079473</v>
-      </c>
-      <c r="C11" s="6">
-        <v>7.795588050816564E-2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.10704460358718261</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.12573871495033528</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.10399640497504911</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.10717644978465127</v>
-      </c>
-      <c r="H11" s="6">
-        <v>4.8541311873199385E-2</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.13203113031555183</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0.11968650979201222</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0.21074536271698924</v>
-      </c>
-      <c r="L11" s="6">
-        <v>6.4499687439393147E-2</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0.12646374008047817</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0.12990912691368259</v>
-      </c>
-      <c r="O11" s="6">
-        <v>7.5873036784701878E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>45565</v>
-      </c>
-      <c r="B12" s="6">
-        <v>-0.11407639359921312</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-7.586549799429966E-2</v>
-      </c>
-      <c r="D12" s="6">
-        <v>-0.12945855636377143</v>
-      </c>
-      <c r="E12" s="6">
-        <v>-9.1367935956775032E-2</v>
-      </c>
-      <c r="F12" s="6">
-        <v>-0.10192751455909224</v>
-      </c>
-      <c r="G12" s="6">
-        <v>-3.4409608648258837E-2</v>
-      </c>
-      <c r="H12" s="6">
-        <v>-0.12997145950798808</v>
-      </c>
-      <c r="I12" s="6">
-        <v>-0.13141310805454295</v>
-      </c>
-      <c r="J12" s="6">
-        <v>-0.11278392981824729</v>
-      </c>
-      <c r="K12" s="6">
-        <v>-0.14649351100721592</v>
-      </c>
-      <c r="L12" s="6">
-        <v>-0.15223414376843106</v>
-      </c>
-      <c r="M12" s="6">
-        <v>-0.15693395433044338</v>
-      </c>
-      <c r="N12" s="6">
-        <v>-0.13695137492690596</v>
-      </c>
-      <c r="O12" s="6">
-        <v>-0.13854130769055792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>45572</v>
-      </c>
-      <c r="B13" s="6">
-        <v>-4.0554836558886295E-2</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1.0038817211057318E-2</v>
-      </c>
-      <c r="D13" s="6">
-        <v>-1.8870813066668064E-2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>7.7445942221682478E-3</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1.823322235964242E-2</v>
-      </c>
-      <c r="G13" s="6">
-        <v>-4.9205872365156021E-2</v>
-      </c>
-      <c r="H13" s="6">
-        <v>5.666635872890638E-3</v>
-      </c>
-      <c r="I13" s="6">
-        <v>-1.4577533305669245E-2</v>
-      </c>
-      <c r="J13" s="6">
-        <v>-1.0682890819935838E-2</v>
-      </c>
-      <c r="K13" s="6">
-        <v>-3.4502655541325686E-2</v>
-      </c>
-      <c r="L13" s="6">
-        <v>-2.9322269612681664E-2</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1.4761024587096301E-2</v>
-      </c>
-      <c r="N13" s="6">
-        <v>1.4419042465826088E-2</v>
-      </c>
-      <c r="O13" s="6">
-        <v>-1.7524550616101503E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>45579</v>
-      </c>
-      <c r="B14" s="6">
-        <v>6.454742305269616E-2</v>
-      </c>
-      <c r="C14" s="6">
-        <v>4.4173861188444671E-2</v>
-      </c>
-      <c r="D14" s="6">
-        <v>6.868655285579997E-2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>5.7029908552415937E-2</v>
-      </c>
-      <c r="F14" s="6">
-        <v>8.3887351058709925E-2</v>
-      </c>
-      <c r="G14" s="6">
-        <v>6.8859846059071445E-2</v>
-      </c>
-      <c r="H14" s="6">
-        <v>7.5088394342762099E-2</v>
-      </c>
-      <c r="I14" s="6">
-        <v>7.3015577553608227E-2</v>
-      </c>
-      <c r="J14" s="6">
-        <v>7.9261665115490057E-2</v>
-      </c>
-      <c r="K14" s="6">
-        <v>8.2088697780500069E-2</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0.10288832152609155</v>
-      </c>
-      <c r="M14" s="6">
-        <v>4.4398591851488173E-2</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0.13101861035506779</v>
-      </c>
-      <c r="O14" s="6">
-        <v>-4.9421068078755605E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>45586</v>
-      </c>
-      <c r="B15" s="6">
-        <v>-3.7790748112726216E-2</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-4.9915079073516999E-2</v>
-      </c>
-      <c r="D15" s="6">
-        <v>-4.8172760492360661E-2</v>
-      </c>
-      <c r="E15" s="6">
-        <v>-4.8008107155069188E-2</v>
-      </c>
-      <c r="F15" s="6">
-        <v>-2.4946359170064842E-2</v>
-      </c>
-      <c r="G15" s="6">
-        <v>-6.1648689808438725E-2</v>
-      </c>
-      <c r="H15" s="6">
-        <v>-5.2764625179151842E-2</v>
-      </c>
-      <c r="I15" s="6">
-        <v>-3.4723709937495302E-2</v>
-      </c>
-      <c r="J15" s="6">
-        <v>-6.6952984015632697E-2</v>
-      </c>
-      <c r="K15" s="6">
-        <v>-5.7038262782769772E-2</v>
-      </c>
-      <c r="L15" s="6">
-        <v>-5.5238408991482107E-2</v>
-      </c>
-      <c r="M15" s="6">
-        <v>-2.4062996186897119E-2</v>
-      </c>
-      <c r="N15" s="6">
-        <v>4.7004927604011988E-2</v>
-      </c>
-      <c r="O15" s="6">
-        <v>-0.15592147176301485</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>45593</v>
-      </c>
-      <c r="B16" s="6">
-        <v>-4.3653935912935371E-2</v>
-      </c>
-      <c r="C16" s="6">
-        <v>-1.0880031879059728E-2</v>
-      </c>
-      <c r="D16" s="6">
-        <v>-9.5440765844370962E-3</v>
-      </c>
-      <c r="E16" s="6">
-        <v>-4.3158714433423312E-2</v>
-      </c>
-      <c r="F16" s="6">
-        <v>-2.9346081268084488E-2</v>
-      </c>
-      <c r="G16" s="6">
-        <v>-2.7279080060625939E-2</v>
-      </c>
-      <c r="H16" s="6">
-        <v>2.7895308346118958E-3</v>
-      </c>
-      <c r="I16" s="6">
-        <v>-5.6300128777877517E-2</v>
-      </c>
-      <c r="J16" s="6">
-        <v>-1.4148401091044645E-2</v>
-      </c>
-      <c r="K16" s="6">
-        <v>-3.51635126788723E-2</v>
-      </c>
-      <c r="L16" s="6">
-        <v>2.6720146748083835E-2</v>
-      </c>
-      <c r="M16" s="6">
-        <v>-4.3705920737673092E-2</v>
-      </c>
-      <c r="N16" s="6">
-        <v>-6.5974755642265667E-2</v>
-      </c>
-      <c r="O16" s="6">
-        <v>-0.14863691747316471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B17" s="6">
-        <v>7.4900237495290123E-2</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.13253838558266332</v>
-      </c>
-      <c r="D17" s="6">
-        <v>5.0340139472620504E-2</v>
-      </c>
-      <c r="E17" s="6">
-        <v>-2.0612020843966752E-2</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.50226913131204298</v>
-      </c>
-      <c r="G17" s="6">
-        <v>4.1000876434804032E-2</v>
-      </c>
-      <c r="H17" s="6">
-        <v>9.4707506708328046E-2</v>
-      </c>
-      <c r="I17" s="6">
-        <v>4.3410999449341611E-2</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0.17048430959087441</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0.15321840500905412</v>
-      </c>
-      <c r="L17" s="6">
-        <v>5.9846550985005756E-2</v>
-      </c>
-      <c r="M17" s="6">
-        <v>6.0636022789392341E-2</v>
-      </c>
-      <c r="N17" s="6">
-        <v>7.7878349900622437E-2</v>
-      </c>
-      <c r="O17" s="6">
-        <v>0.15767019667170917</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>45607</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0.14436204186871138</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.10734973498318758</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1.0440142854495396E-2</v>
-      </c>
-      <c r="E18" s="6">
-        <v>7.505735034482261E-2</v>
-      </c>
-      <c r="F18" s="6">
-        <v>-6.8826944811105489E-2</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.11397406013181283</v>
-      </c>
-      <c r="H18" s="6">
-        <v>6.4541685659092463E-2</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0.14493735985060194</v>
-      </c>
-      <c r="J18" s="6">
-        <v>9.8654736701716782E-3</v>
-      </c>
-      <c r="K18" s="6">
-        <v>-9.236950803692516E-3</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0.14216196004336448</v>
-      </c>
-      <c r="M18" s="6">
-        <v>8.1333258204687411E-2</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0.15529272605661815</v>
-      </c>
-      <c r="O18" s="6">
-        <v>7.3657248895742475E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>45614</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0.20363878955530829</v>
-      </c>
-      <c r="C19" s="6">
-        <v>8.5144194103272772E-2</v>
-      </c>
-      <c r="D19" s="6">
-        <v>7.4474233282565638E-2</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0.19816538155431476</v>
-      </c>
-      <c r="F19" s="6">
-        <v>-4.0668487545999936E-2</v>
-      </c>
-      <c r="G19" s="6">
-        <v>9.2128188587540766E-2</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0.12464773245288467</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0.17750858505930667</v>
-      </c>
-      <c r="J19" s="6">
-        <v>-1.9196331703362744E-2</v>
-      </c>
-      <c r="K19" s="6">
-        <v>6.4801195902314007E-2</v>
-      </c>
-      <c r="L19" s="6">
-        <v>8.2435269574777398E-2</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0.17877516480602182</v>
-      </c>
-      <c r="N19" s="6">
-        <v>8.8031910901723423E-2</v>
-      </c>
-      <c r="O19" s="6">
-        <v>7.0678104734269748E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>45621</v>
-      </c>
-      <c r="B20" s="6">
-        <v>0.20641009929044613</v>
-      </c>
-      <c r="C20" s="6">
-        <v>9.4413292994840581E-2</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0.70554186390055718</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0.19443316099582983</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0.13591051200401033</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0.15876720903931024</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0.1684440352288053</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0.1977974076643019</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0.18308895020839847</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0.37451882256316937</v>
-      </c>
-      <c r="L20" s="6">
-        <v>3.4606392790019952E-2</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0.26941109645837163</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0.19567842718178358</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0.25814299291083315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>45628</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.19656727581598882</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.23750174176490263</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.26715346120377936</v>
-      </c>
-      <c r="E21" s="6">
-        <v>9.1886890236437646E-2</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0.14231858822409169</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0.29079667491786437</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0.23241599365165891</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0.27319709762658645</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0.31452214245107379</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0.20126549382135794</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0.23359431941162775</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0.28289427039819487</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0.28573459266095974</v>
-      </c>
-      <c r="O21" s="6">
-        <v>0.26939410586882051</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>45635</v>
-      </c>
-      <c r="B22" s="6">
-        <v>-0.11055088322514736</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.14952060174061294</v>
-      </c>
-      <c r="D22" s="6">
-        <v>-2.8184327516567451E-2</v>
-      </c>
-      <c r="E22" s="6">
-        <v>-7.3216507203001796E-2</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0.25889930735943523</v>
-      </c>
-      <c r="G22" s="6">
-        <v>-3.4326478952898955E-2</v>
-      </c>
-      <c r="H22" s="6">
-        <v>-0.13216599459706641</v>
-      </c>
-      <c r="I22" s="6">
-        <v>-9.1386732970353254E-2</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0.2643913772800488</v>
-      </c>
-      <c r="K22" s="6">
-        <v>-1.1114311583197338E-3</v>
-      </c>
-      <c r="L22" s="6">
-        <v>1.3351211835871027E-2</v>
-      </c>
-      <c r="M22" s="6">
-        <v>-4.7237334694033309E-2</v>
-      </c>
-      <c r="N22" s="6">
-        <v>1.324761023857365E-2</v>
-      </c>
-      <c r="O22" s="6">
-        <v>-0.20954049971740618</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>45642</v>
-      </c>
-      <c r="B23" s="6">
-        <v>-0.15441713520395531</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-4.9214558804837834E-2</v>
-      </c>
-      <c r="D23" s="6">
-        <v>-4.4165573892348431E-2</v>
-      </c>
-      <c r="E23" s="6">
-        <v>-0.15239076441102378</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0.29576790623999527</v>
-      </c>
-      <c r="G23" s="6">
-        <v>-0.17859550525072482</v>
-      </c>
-      <c r="H23" s="6">
-        <v>-0.16083069694856578</v>
-      </c>
-      <c r="I23" s="6">
-        <v>-0.14045106498184251</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1.2002289642237766E-2</v>
-      </c>
-      <c r="K23" s="6">
-        <v>-0.11424484412591614</v>
-      </c>
-      <c r="L23" s="6">
-        <v>-0.19783908327983007</v>
-      </c>
-      <c r="M23" s="6">
-        <v>-0.20903541536136835</v>
-      </c>
-      <c r="N23" s="6">
-        <v>-0.21487828242641571</v>
-      </c>
-      <c r="O23" s="6">
-        <v>-0.20269681295565173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>45649</v>
-      </c>
-      <c r="B24" s="6">
-        <v>-7.3772211308243421E-2</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2.4882186296908429E-2</v>
-      </c>
-      <c r="D24" s="6">
-        <v>-9.3272387482013719E-2</v>
-      </c>
-      <c r="E24" s="6">
-        <v>-8.2611200685093714E-2</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.26371252339778034</v>
-      </c>
-      <c r="G24" s="6">
-        <v>-7.8606786699808487E-2</v>
-      </c>
-      <c r="H24" s="6">
-        <v>6.0721200865388417E-2</v>
-      </c>
-      <c r="I24" s="6">
-        <v>-3.4130552822380977E-2</v>
-      </c>
-      <c r="J24" s="6">
-        <v>5.6247273214163937E-2</v>
-      </c>
-      <c r="K24" s="6">
-        <v>4.9268364059790043E-3</v>
-      </c>
-      <c r="L24" s="6">
-        <v>-6.5427268525436844E-2</v>
-      </c>
-      <c r="M24" s="6">
-        <v>-9.0388435372384043E-2</v>
-      </c>
-      <c r="N24" s="6">
-        <v>-7.2668687525530712E-2</v>
-      </c>
-      <c r="O24" s="6">
-        <v>-4.8021124867575787E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>45656</v>
-      </c>
-      <c r="B25" s="6">
-        <v>3.0813949540132942E-2</v>
-      </c>
-      <c r="C25" s="6">
-        <v>8.8198888211796111E-2</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1.7212928206820539E-2</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2.4784998039230781E-2</v>
-      </c>
-      <c r="F25" s="6">
-        <v>-6.3399967042518948E-2</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1.7975093629447464E-2</v>
-      </c>
-      <c r="H25" s="6">
-        <v>9.7358639051234319E-3</v>
-      </c>
-      <c r="I25" s="6">
-        <v>9.6022628588442165E-3</v>
-      </c>
-      <c r="J25" s="6">
-        <v>-6.0125165889116906E-2</v>
-      </c>
-      <c r="K25" s="6">
-        <v>3.4249890008125165E-2</v>
-      </c>
-      <c r="L25" s="6">
-        <v>-1.2587215285591636E-2</v>
-      </c>
-      <c r="M25" s="6">
-        <v>-1.2688733992789636E-2</v>
-      </c>
-      <c r="N25" s="6">
-        <v>-1.7619033867795246E-3</v>
-      </c>
-      <c r="O25" s="6">
-        <v>2.5683249415104827E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>45663</v>
-      </c>
-      <c r="B26" s="6">
-        <v>-2.1075990296808893E-2</v>
-      </c>
-      <c r="C26" s="6">
-        <v>-8.0166538995890088E-2</v>
-      </c>
-      <c r="D26" s="6">
-        <v>-7.5466667391311443E-2</v>
-      </c>
-      <c r="E26" s="6">
-        <v>-3.8417252652188864E-2</v>
-      </c>
-      <c r="F26" s="6">
-        <v>-0.17439149235777446</v>
-      </c>
-      <c r="G26" s="6">
-        <v>-4.0729429581016628E-2</v>
-      </c>
-      <c r="H26" s="6">
-        <v>-0.10545430229018599</v>
-      </c>
-      <c r="I26" s="6">
-        <v>-3.3581434539901603E-2</v>
-      </c>
-      <c r="J26" s="6">
-        <v>-0.10322173698984005</v>
-      </c>
-      <c r="K26" s="6">
-        <v>-0.12213752260227134</v>
-      </c>
-      <c r="L26" s="6">
-        <v>-0.11329194329825289</v>
-      </c>
-      <c r="M26" s="6">
-        <v>-9.2968623160081365E-2</v>
-      </c>
-      <c r="N26" s="6">
-        <v>-9.957855485280015E-2</v>
-      </c>
-      <c r="O26" s="6">
-        <v>-9.2706805531779971E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>45670</v>
-      </c>
-      <c r="B27" s="6">
-        <v>-3.9823737201311465E-2</v>
-      </c>
-      <c r="C27" s="6">
-        <v>-0.10098993823787077</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1.5182190882042113E-2</v>
-      </c>
-      <c r="E27" s="6">
-        <v>-1.2318423103153639E-2</v>
-      </c>
-      <c r="F27" s="6">
-        <v>-4.0384427535835619E-2</v>
-      </c>
-      <c r="G27" s="6">
-        <v>4.2945007829326844E-2</v>
-      </c>
-      <c r="H27" s="6">
-        <v>-2.0301951575362992E-2</v>
-      </c>
-      <c r="I27" s="6">
-        <v>-4.906907888761676E-2</v>
-      </c>
-      <c r="J27" s="6">
-        <v>4.4929274071450323E-2</v>
-      </c>
-      <c r="K27" s="6">
-        <v>9.3318776353408892E-2</v>
-      </c>
-      <c r="L27" s="6">
-        <v>-3.2903798642362536E-2</v>
-      </c>
-      <c r="M27" s="6">
-        <v>-4.262295950856039E-2</v>
-      </c>
-      <c r="N27" s="6">
-        <v>-5.4837782600502427E-2</v>
-      </c>
-      <c r="O27" s="6">
-        <v>-2.6673160084855169E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>45677</v>
-      </c>
-      <c r="B28" s="6">
-        <v>-6.9087791408150301E-2</v>
-      </c>
-      <c r="C28" s="6">
-        <v>4.7246598858677456E-2</v>
-      </c>
-      <c r="D28" s="6">
-        <v>2.6320487528558988E-2</v>
-      </c>
-      <c r="E28" s="6">
-        <v>-7.5439087539802843E-2</v>
-      </c>
-      <c r="F28" s="6">
-        <v>-0.12999192863881218</v>
-      </c>
-      <c r="G28" s="6">
-        <v>-1.5005888861702522E-2</v>
-      </c>
-      <c r="H28" s="6">
-        <v>-8.4083858898559363E-2</v>
-      </c>
-      <c r="I28" s="6">
-        <v>-0.13621933236042674</v>
-      </c>
-      <c r="J28" s="6">
-        <v>8.7012276708166136E-2</v>
-      </c>
-      <c r="K28" s="6">
-        <v>4.2158105674842163E-2</v>
-      </c>
-      <c r="L28" s="6">
-        <v>-8.0810889464323826E-2</v>
-      </c>
-      <c r="M28" s="6">
-        <v>-0.10606838668786296</v>
-      </c>
-      <c r="N28" s="6">
-        <v>-0.11247247182039885</v>
-      </c>
-      <c r="O28" s="6">
-        <v>-9.8784222397447344E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>45684</v>
-      </c>
-      <c r="B29" s="6">
-        <v>-0.14888551006396403</v>
-      </c>
-      <c r="C29" s="6">
-        <v>-1.2507472006842274E-2</v>
-      </c>
-      <c r="D29" s="6">
-        <v>-7.839271810530396E-2</v>
-      </c>
-      <c r="E29" s="6">
-        <v>-0.18726463711071731</v>
-      </c>
-      <c r="F29" s="6">
-        <v>-0.16179261396621167</v>
-      </c>
-      <c r="G29" s="6">
-        <v>-0.10885317994989256</v>
-      </c>
-      <c r="H29" s="6">
-        <v>-9.617663407634687E-2</v>
-      </c>
-      <c r="I29" s="6">
-        <v>-7.6628416883565406E-2</v>
-      </c>
-      <c r="J29" s="6">
-        <v>-0.12118133250040802</v>
-      </c>
-      <c r="K29" s="6">
-        <v>3.487595609175094E-2</v>
-      </c>
-      <c r="L29" s="6">
-        <v>-0.10581832719319165</v>
-      </c>
-      <c r="M29" s="6">
-        <v>-8.8735552090769138E-2</v>
-      </c>
-      <c r="N29" s="6">
-        <v>-0.12758901512656259</v>
-      </c>
-      <c r="O29" s="6">
-        <v>-0.12463447105127182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>45691</v>
-      </c>
-      <c r="B30" s="6">
-        <v>-0.22592796877925117</v>
-      </c>
-      <c r="C30" s="6">
-        <v>-1.7616434965556694E-2</v>
-      </c>
-      <c r="D30" s="6">
-        <v>-0.1652545118507783</v>
-      </c>
-      <c r="E30" s="6">
-        <v>-0.20810397268100611</v>
-      </c>
-      <c r="F30" s="6">
-        <v>-0.25512935927146674</v>
-      </c>
-      <c r="G30" s="6">
-        <v>-0.17685316931217263</v>
-      </c>
-      <c r="H30" s="6">
-        <v>-0.17939512982730454</v>
-      </c>
-      <c r="I30" s="6">
-        <v>-0.12928899292398685</v>
-      </c>
-      <c r="J30" s="6">
-        <v>-0.1503221014592101</v>
-      </c>
-      <c r="K30" s="6">
-        <v>-0.17219511130253382</v>
-      </c>
-      <c r="L30" s="6">
-        <v>-8.3270785982120371E-2</v>
-      </c>
-      <c r="M30" s="6">
-        <v>-0.29189547416733314</v>
-      </c>
-      <c r="N30" s="6">
-        <v>-0.25937322226880155</v>
-      </c>
-      <c r="O30" s="6">
-        <v>-0.26912284779757212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>45698</v>
-      </c>
-      <c r="B31" s="6">
-        <v>3.8892883573075521E-2</v>
-      </c>
-      <c r="C31" s="6">
-        <v>-6.7666321641727742E-2</v>
-      </c>
-      <c r="D31" s="6">
-        <v>4.2407061683917575E-3</v>
-      </c>
-      <c r="E31" s="6">
-        <v>2.8450327644468077E-2</v>
-      </c>
-      <c r="F31" s="6">
-        <v>-9.3554710664085841E-2</v>
-      </c>
-      <c r="G31" s="6">
-        <v>2.8230293152106914E-2</v>
-      </c>
-      <c r="H31" s="6">
-        <v>8.4847581109004575E-2</v>
-      </c>
-      <c r="I31" s="6">
-        <v>3.7493543136249627E-2</v>
-      </c>
-      <c r="J31" s="6">
-        <v>2.9739589179451045E-3</v>
-      </c>
-      <c r="K31" s="6">
-        <v>4.431978888167043E-2</v>
-      </c>
-      <c r="L31" s="6">
-        <v>0.14860047752659458</v>
-      </c>
-      <c r="M31" s="6">
-        <v>-3.3398464841530008E-2</v>
-      </c>
-      <c r="N31" s="6">
-        <v>4.2429698063135617E-2</v>
-      </c>
-      <c r="O31" s="6">
-        <v>3.7055883689233557E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>45705</v>
-      </c>
-      <c r="B32" s="6">
-        <v>-6.7773490979926984E-3</v>
-      </c>
-      <c r="C32" s="6">
-        <v>-4.5850436353059458E-2</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1.844547026590811E-2</v>
-      </c>
-      <c r="E32" s="6">
-        <v>2.3065445609073656E-2</v>
-      </c>
-      <c r="F32" s="6">
-        <v>-4.0348408365911546E-2</v>
-      </c>
-      <c r="G32" s="6">
-        <v>-1.9261703110400101E-4</v>
-      </c>
-      <c r="H32" s="6">
-        <v>-2.5657549456787419E-2</v>
-      </c>
-      <c r="I32" s="6">
-        <v>-8.2709876510457664E-3</v>
-      </c>
-      <c r="J32" s="6">
-        <v>-5.2414794318096838E-3</v>
-      </c>
-      <c r="K32" s="6">
-        <v>4.6849954800541726E-3</v>
-      </c>
-      <c r="L32" s="6">
-        <v>-6.9505225124727329E-2</v>
-      </c>
-      <c r="M32" s="6">
-        <v>-1.9226625667260841E-2</v>
-      </c>
-      <c r="N32" s="6">
-        <v>2.5233378122375464E-3</v>
-      </c>
-      <c r="O32" s="6">
-        <v>-1.6910836954998728E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>45712</v>
-      </c>
-      <c r="B33" s="6">
-        <v>-0.10868002829295434</v>
-      </c>
-      <c r="C33" s="6">
-        <v>-0.22012475849610055</v>
-      </c>
-      <c r="D33" s="6">
-        <v>-0.16011338533712066</v>
-      </c>
-      <c r="E33" s="6">
-        <v>-4.6320999347822196E-2</v>
-      </c>
-      <c r="F33" s="6">
-        <v>3.69112215303498E-2</v>
-      </c>
-      <c r="G33" s="6">
-        <v>-9.0896333139907845E-2</v>
-      </c>
-      <c r="H33" s="6">
-        <v>-8.1553572377352737E-2</v>
-      </c>
-      <c r="I33" s="6">
-        <v>-7.6335375865259333E-2</v>
-      </c>
-      <c r="J33" s="6">
-        <v>-0.18922998997481025</v>
-      </c>
-      <c r="K33" s="6">
-        <v>-0.22303321937409723</v>
-      </c>
-      <c r="L33" s="6">
-        <v>-7.1814558591288061E-2</v>
-      </c>
-      <c r="M33" s="6">
-        <v>-8.0506178921004243E-2</v>
-      </c>
-      <c r="N33" s="6">
-        <v>-9.9354494428743792E-2</v>
-      </c>
-      <c r="O33" s="6">
-        <v>-7.1044047130965862E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>45719</v>
-      </c>
-      <c r="B34" s="6">
-        <v>-8.1969663030400403E-2</v>
-      </c>
-      <c r="C34" s="6">
-        <v>-6.6714753734430449E-2</v>
-      </c>
-      <c r="D34" s="6">
-        <v>-0.10921221977746386</v>
-      </c>
-      <c r="E34" s="6">
-        <v>-0.13261711116902333</v>
-      </c>
-      <c r="F34" s="6">
-        <v>-0.20335180928024099</v>
-      </c>
-      <c r="G34" s="6">
-        <v>-0.10065902399776754</v>
-      </c>
-      <c r="H34" s="6">
-        <v>-8.9391581887093799E-2</v>
-      </c>
-      <c r="I34" s="6">
-        <v>-8.095789916034711E-2</v>
-      </c>
-      <c r="J34" s="6">
-        <v>-2.9263313952059666E-2</v>
-      </c>
-      <c r="K34" s="6">
-        <v>-0.18596876058779718</v>
-      </c>
-      <c r="L34" s="6">
-        <v>-0.14872481012798033</v>
-      </c>
-      <c r="M34" s="6">
-        <v>-1.2553972218434181E-2</v>
-      </c>
-      <c r="N34" s="6">
-        <v>-9.6082735008258396E-2</v>
-      </c>
-      <c r="O34" s="6">
-        <v>-9.0240532683469349E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>45726</v>
-      </c>
-      <c r="B35" s="6">
-        <v>-0.11306965485528704</v>
-      </c>
-      <c r="C35" s="6">
-        <v>4.3419479578472003E-2</v>
-      </c>
-      <c r="D35" s="6">
-        <v>-0.17435259783199236</v>
-      </c>
-      <c r="E35" s="6">
-        <v>-9.7827471668561775E-2</v>
-      </c>
-      <c r="F35" s="6">
-        <v>-2.4038806756076996E-2</v>
-      </c>
-      <c r="G35" s="6">
-        <v>-0.12164629427963454</v>
-      </c>
-      <c r="H35" s="6">
-        <v>-6.5475981843992434E-2</v>
-      </c>
-      <c r="I35" s="6">
-        <v>-0.12818642733428029</v>
-      </c>
-      <c r="J35" s="6">
-        <v>-0.12706391759151653</v>
-      </c>
-      <c r="K35" s="6">
-        <v>-0.15298865234857664</v>
-      </c>
-      <c r="L35" s="6">
-        <v>-5.7828676718286703E-2</v>
-      </c>
-      <c r="M35" s="6">
-        <v>-8.9809019163392595E-2</v>
-      </c>
-      <c r="N35" s="6">
-        <v>-5.5344042857812706E-2</v>
-      </c>
-      <c r="O35" s="6">
-        <v>-0.11014906956755764</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>45733</v>
-      </c>
-      <c r="B36" s="6">
-        <v>6.9650516246728092E-2</v>
-      </c>
-      <c r="C36" s="6">
-        <v>7.070869728776738E-2</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1.1719080295520294E-2</v>
-      </c>
-      <c r="E36" s="6">
-        <v>2.6765525317813146E-2</v>
-      </c>
-      <c r="F36" s="6">
-        <v>9.2870178866307107E-2</v>
-      </c>
-      <c r="G36" s="6">
-        <v>3.9095785252468089E-2</v>
-      </c>
-      <c r="H36" s="6">
-        <v>7.4214895018507948E-2</v>
-      </c>
-      <c r="I36" s="6">
-        <v>5.2063180616983701E-2</v>
-      </c>
-      <c r="J36" s="6">
-        <v>2.962917476960587E-2</v>
-      </c>
-      <c r="K36" s="6">
-        <v>8.2347096586400687E-2</v>
-      </c>
-      <c r="L36" s="6">
-        <v>-8.3082049158812957E-3</v>
-      </c>
-      <c r="M36" s="6">
-        <v>6.3110961460414963E-2</v>
-      </c>
-      <c r="N36" s="6">
-        <v>9.8789658956922738E-2</v>
-      </c>
-      <c r="O36" s="6">
-        <v>0.11080626237008108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>45740</v>
-      </c>
-      <c r="B37" s="6">
-        <v>-1.3375167927052168E-2</v>
-      </c>
-      <c r="C37" s="6">
-        <v>3.7171484137214002E-2</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1.1214650116334574E-2</v>
-      </c>
-      <c r="E37" s="6">
-        <v>-2.9656562660474547E-2</v>
-      </c>
-      <c r="F37" s="6">
-        <v>-4.2062045373876073E-3</v>
-      </c>
-      <c r="G37" s="6">
-        <v>-2.3158834188091885E-2</v>
-      </c>
-      <c r="H37" s="6">
-        <v>-1.1814279697726046E-2</v>
-      </c>
-      <c r="I37" s="6">
-        <v>-1.3649763199473508E-2</v>
-      </c>
-      <c r="J37" s="6">
-        <v>-2.2375563168190258E-3</v>
-      </c>
-      <c r="K37" s="6">
-        <v>-2.5899831645384622E-2</v>
-      </c>
-      <c r="L37" s="6">
-        <v>-6.7813786610840268E-2</v>
-      </c>
-      <c r="M37" s="6">
-        <v>-5.7716753480763355E-3</v>
-      </c>
-      <c r="N37" s="6">
-        <v>5.8802518319673112E-2</v>
-      </c>
-      <c r="O37" s="6">
-        <v>-6.5696467914627132E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>45747</v>
-      </c>
-      <c r="B38" s="6">
-        <v>-0.15254263784631275</v>
-      </c>
-      <c r="C38" s="6">
-        <v>-8.5787300936156205E-2</v>
-      </c>
-      <c r="D38" s="6">
-        <v>-0.11301657584905284</v>
-      </c>
-      <c r="E38" s="6">
-        <v>-0.17543379479656684</v>
-      </c>
-      <c r="F38" s="6">
-        <v>-0.1742424598095956</v>
-      </c>
-      <c r="G38" s="6">
-        <v>-0.13504733546198011</v>
-      </c>
-      <c r="H38" s="6">
-        <v>-0.13726330201282935</v>
-      </c>
-      <c r="I38" s="6">
-        <v>-0.10237947217057192</v>
-      </c>
-      <c r="J38" s="6">
-        <v>-0.14757473110909533</v>
-      </c>
-      <c r="K38" s="6">
-        <v>-0.15434310278527497</v>
-      </c>
-      <c r="L38" s="6">
-        <v>-0.16489543422865691</v>
-      </c>
-      <c r="M38" s="6">
-        <v>-0.21769751498649409</v>
-      </c>
-      <c r="N38" s="6">
-        <v>-0.12862161050971035</v>
-      </c>
-      <c r="O38" s="6">
-        <v>-0.18299854971508134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>45754</v>
-      </c>
-      <c r="B39" s="6">
-        <v>-6.6939987732837186E-2</v>
-      </c>
-      <c r="C39" s="6">
-        <v>-8.3830540664819334E-2</v>
-      </c>
-      <c r="D39" s="6">
-        <v>-8.0450809204387741E-2</v>
-      </c>
-      <c r="E39" s="6">
-        <v>-7.5479320539748429E-2</v>
-      </c>
-      <c r="F39" s="6">
-        <v>-6.6963564870720887E-2</v>
-      </c>
-      <c r="G39" s="6">
-        <v>-0.2934691926299739</v>
-      </c>
-      <c r="H39" s="6">
-        <v>-6.8983787491746176E-2</v>
-      </c>
-      <c r="I39" s="6">
-        <v>-8.8327314806193685E-2</v>
-      </c>
-      <c r="J39" s="6">
-        <v>-0.10054564900866292</v>
-      </c>
-      <c r="K39" s="6">
-        <v>-0.13765132289666895</v>
-      </c>
-      <c r="L39" s="6">
-        <v>0.2081642634220934</v>
-      </c>
-      <c r="M39" s="6">
-        <v>-6.3719337842590956E-2</v>
-      </c>
-      <c r="N39" s="6">
-        <v>-9.5204688430950937E-2</v>
-      </c>
-      <c r="O39" s="6">
-        <v>-0.10999524767975119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>45761</v>
-      </c>
-      <c r="B40" s="6">
-        <v>4.6984091836980227E-3</v>
-      </c>
-      <c r="C40" s="6">
-        <v>-2.3152605033032056E-2</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1.8655721930369913E-2</v>
-      </c>
-      <c r="E40" s="6">
-        <v>2.7880022239366434E-2</v>
-      </c>
-      <c r="F40" s="6">
-        <v>0.17939665084977743</v>
-      </c>
-      <c r="G40" s="6">
-        <v>4.4713879674265357E-2</v>
-      </c>
-      <c r="H40" s="6">
-        <v>3.4162233494165681E-2</v>
-      </c>
-      <c r="I40" s="6">
-        <v>8.3864540646354374E-3</v>
-      </c>
-      <c r="J40" s="6">
-        <v>1.0834687483608982E-2</v>
-      </c>
-      <c r="K40" s="6">
-        <v>-1.9488938263148736E-2</v>
-      </c>
-      <c r="L40" s="6">
-        <v>0.12199940741220701</v>
-      </c>
-      <c r="M40" s="6">
-        <v>-9.9259969568768871E-4</v>
-      </c>
-      <c r="N40" s="6">
-        <v>2.555174984927075E-2</v>
-      </c>
-      <c r="O40" s="6">
-        <v>3.9474200818226467E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>45768</v>
-      </c>
-      <c r="B41" s="6">
-        <v>0.15026142003124751</v>
-      </c>
-      <c r="C41" s="6">
-        <v>5.3915831801684196E-2</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0.21597541155310973</v>
-      </c>
-      <c r="E41" s="6">
-        <v>0.16684388890464258</v>
-      </c>
-      <c r="F41" s="6">
-        <v>9.4890869222868365E-2</v>
-      </c>
-      <c r="G41" s="6">
-        <v>4.2385216765330171E-2</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0.11991142090753715</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0.1298344335941635</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0.18385948332062793</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0.16863170345792192</v>
-      </c>
-      <c r="L41" s="6">
-        <v>-1.6138404555172639E-2</v>
-      </c>
-      <c r="M41" s="6">
-        <v>0.16095028540422152</v>
-      </c>
-      <c r="N41" s="6">
-        <v>0.13184790305913824</v>
-      </c>
-      <c r="O41" s="6">
-        <v>0.3124433432042053</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>45775</v>
-      </c>
-      <c r="B42" s="6">
-        <v>-1.7238997565208424E-2</v>
-      </c>
-      <c r="C42" s="6">
-        <v>2.4275940854980787E-2</v>
-      </c>
-      <c r="D42" s="6">
-        <v>7.1670965029000805E-2</v>
-      </c>
-      <c r="E42" s="6">
-        <v>-6.9477503005877184E-2</v>
-      </c>
-      <c r="F42" s="6">
-        <v>-2.5214533288347434E-2</v>
-      </c>
-      <c r="G42" s="6">
-        <v>9.7428800620882869E-2</v>
-      </c>
-      <c r="H42" s="6">
-        <v>-1.0017399891281245E-2</v>
-      </c>
-      <c r="I42" s="6">
-        <v>6.5564981433240119E-2</v>
-      </c>
-      <c r="J42" s="6">
-        <v>4.4997390196502868E-2</v>
-      </c>
-      <c r="K42" s="6">
-        <v>2.2647101844690643E-2</v>
-      </c>
-      <c r="L42" s="6">
-        <v>-5.2508489377576621E-2</v>
-      </c>
-      <c r="M42" s="6">
-        <v>-3.9721742370982478E-2</v>
-      </c>
-      <c r="N42" s="6">
-        <v>-1.0425397280760274E-2</v>
-      </c>
-      <c r="O42" s="6">
-        <v>7.7243634019438564E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>45782</v>
-      </c>
-      <c r="B43" s="6">
-        <v>0.1342115925164046</v>
-      </c>
-      <c r="C43" s="6">
-        <v>2.5169223749722414E-2</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0.1253969400947901</v>
-      </c>
-      <c r="E43" s="6">
-        <v>3.990529565233338E-3</v>
-      </c>
-      <c r="F43" s="6">
-        <v>0.11065197206567239</v>
-      </c>
-      <c r="G43" s="6">
-        <v>5.3496403447997436E-2</v>
-      </c>
-      <c r="H43" s="6">
-        <v>4.9390116701474321E-2</v>
-      </c>
-      <c r="I43" s="6">
-        <v>5.0362046408371504E-2</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0.16637450092548001</v>
-      </c>
-      <c r="K43" s="6">
-        <v>0.12875869737147133</v>
-      </c>
-      <c r="L43" s="6">
-        <v>2.4602370477903243E-2</v>
-      </c>
-      <c r="M43" s="6">
-        <v>6.9661850397911271E-2</v>
-      </c>
-      <c r="N43" s="6">
-        <v>1.0205041659708173E-2</v>
-      </c>
-      <c r="O43" s="6">
-        <v>4.5402620546269722E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>45789</v>
-      </c>
-      <c r="B44" s="6">
-        <v>9.9287835808953978E-2</v>
-      </c>
-      <c r="C44" s="6">
-        <v>1.9597740205837037E-2</v>
-      </c>
-      <c r="D44" s="6">
-        <v>9.9499628536730986E-2</v>
-      </c>
-      <c r="E44" s="6">
-        <v>6.5253928507596703E-2</v>
-      </c>
-      <c r="F44" s="6">
-        <v>0.1674576206175715</v>
-      </c>
-      <c r="G44" s="6">
-        <v>5.2766420307665221E-2</v>
-      </c>
-      <c r="H44" s="6">
-        <v>8.6359949273956432E-2</v>
-      </c>
-      <c r="I44" s="6">
-        <v>7.4641652684143328E-2</v>
-      </c>
-      <c r="J44" s="6">
-        <v>0.14232050248001896</v>
-      </c>
-      <c r="K44" s="6">
-        <v>7.3684823942581315E-2</v>
-      </c>
-      <c r="L44" s="6">
-        <v>6.3702499079915237E-2</v>
-      </c>
-      <c r="M44" s="6">
-        <v>0.11689629104510491</v>
-      </c>
-      <c r="N44" s="6">
-        <v>5.0487919323422809E-2</v>
-      </c>
-      <c r="O44" s="6">
-        <v>0.12604697667557346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>45796</v>
-      </c>
-      <c r="B45" s="6">
-        <v>-2.0869072928143863E-2</v>
-      </c>
-      <c r="C45" s="6">
-        <v>-3.4242079137273305E-2</v>
-      </c>
-      <c r="D45" s="6">
-        <v>-1.1936990141434808E-2</v>
-      </c>
-      <c r="E45" s="6">
-        <v>-3.4381921414813096E-2</v>
-      </c>
-      <c r="F45" s="6">
-        <v>8.9660141797370585E-2</v>
-      </c>
-      <c r="G45" s="6">
-        <v>-7.8443745795902832E-3</v>
-      </c>
-      <c r="H45" s="6">
-        <v>-3.1450866565708072E-2</v>
-      </c>
-      <c r="I45" s="6">
-        <v>-4.4798311371849016E-3</v>
-      </c>
-      <c r="J45" s="6">
-        <v>0.1278250471943298</v>
-      </c>
-      <c r="K45" s="6">
-        <v>-0.1167146098314009</v>
-      </c>
-      <c r="L45" s="6">
-        <v>-1.0972846522308184E-2</v>
-      </c>
-      <c r="M45" s="6">
-        <v>-4.7534651941367863E-2</v>
-      </c>
-      <c r="N45" s="6">
-        <v>-3.6217317052271651E-2</v>
-      </c>
-      <c r="O45" s="6">
-        <v>-8.8696099409499157E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>45803</v>
-      </c>
-      <c r="B46" s="6">
-        <v>-6.7533442509113584E-2</v>
-      </c>
-      <c r="C46" s="6">
-        <v>-4.8489856530383228E-2</v>
-      </c>
-      <c r="D46" s="6">
-        <v>-2.1998572457395824E-2</v>
-      </c>
-      <c r="E46" s="6">
-        <v>-5.1941257292262621E-2</v>
-      </c>
-      <c r="F46" s="6">
-        <v>-9.4517207092956104E-3</v>
-      </c>
-      <c r="G46" s="6">
-        <v>-4.4532715433672335E-2</v>
-      </c>
-      <c r="H46" s="6">
-        <v>-3.5440739912310615E-2</v>
-      </c>
-      <c r="I46" s="6">
-        <v>-2.5582469993310469E-2</v>
-      </c>
-      <c r="J46" s="6">
-        <v>3.294345472225662E-3</v>
-      </c>
-      <c r="K46" s="6">
-        <v>-1.9854757737808173E-2</v>
-      </c>
-      <c r="L46" s="6">
-        <v>-4.6278484375596537E-4</v>
-      </c>
-      <c r="M46" s="6">
-        <v>-9.1712163004842223E-2</v>
-      </c>
-      <c r="N46" s="6">
-        <v>-9.6607567860195365E-2</v>
-      </c>
-      <c r="O46" s="6">
-        <v>-5.1592773817069795E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>45810</v>
-      </c>
-      <c r="B47" s="6">
-        <v>-7.2640513675862689E-2</v>
-      </c>
-      <c r="C47" s="6">
-        <v>-6.7799262944252509E-2</v>
-      </c>
-      <c r="D47" s="6">
-        <v>-5.0595742171043831E-2</v>
-      </c>
-      <c r="E47" s="6">
-        <v>-0.11333241863107139</v>
-      </c>
-      <c r="F47" s="6">
-        <v>-7.5512376878046683E-2</v>
-      </c>
-      <c r="G47" s="6">
-        <v>-4.1953146776492506E-2</v>
-      </c>
-      <c r="H47" s="6">
-        <v>-0.11895075500881476</v>
-      </c>
-      <c r="I47" s="6">
-        <v>-7.3856858337985401E-2</v>
-      </c>
-      <c r="J47" s="6">
-        <v>-2.7763698663579289E-3</v>
-      </c>
-      <c r="K47" s="6">
-        <v>-5.4734821120272274E-2</v>
-      </c>
-      <c r="L47" s="6">
-        <v>2.0051935542817131E-2</v>
-      </c>
-      <c r="M47" s="6">
-        <v>-8.3728566252532513E-2</v>
-      </c>
-      <c r="N47" s="6">
-        <v>-7.0694883330264746E-2</v>
-      </c>
-      <c r="O47" s="6">
-        <v>-7.6220898572366108E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>45817</v>
-      </c>
-      <c r="B48" s="6">
-        <v>5.3839580278497154E-2</v>
-      </c>
-      <c r="C48" s="6">
-        <v>-7.6311474856499764E-3</v>
-      </c>
-      <c r="D48" s="6">
-        <v>2.812237542429296E-2</v>
-      </c>
-      <c r="E48" s="6">
-        <v>2.2112937561205422E-2</v>
-      </c>
-      <c r="F48" s="6">
-        <v>-2.353177110868385E-2</v>
-      </c>
-      <c r="G48" s="6">
-        <v>3.2419840819681425E-2</v>
-      </c>
-      <c r="H48" s="6">
-        <v>-1.4207848558644173E-2</v>
-      </c>
-      <c r="I48" s="6">
-        <v>3.1634985612922209E-3</v>
-      </c>
-      <c r="J48" s="6">
-        <v>0.13194964947262031</v>
-      </c>
-      <c r="K48" s="6">
-        <v>5.9821659729637724E-2</v>
-      </c>
-      <c r="L48" s="6">
-        <v>2.816678156376588E-2</v>
-      </c>
-      <c r="M48" s="6">
-        <v>-1.0545059172225061E-2</v>
-      </c>
-      <c r="N48" s="6">
-        <v>7.6007573495706022E-3</v>
-      </c>
-      <c r="O48" s="6">
-        <v>-6.2959586751746843E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>45824</v>
-      </c>
-      <c r="B49" s="6">
-        <v>-0.19421311898006632</v>
-      </c>
-      <c r="C49" s="6">
-        <v>-6.2628564306181411E-2</v>
-      </c>
-      <c r="D49" s="6">
-        <v>-0.11474958420884948</v>
-      </c>
-      <c r="E49" s="6">
-        <v>-0.15077060905127562</v>
-      </c>
-      <c r="F49" s="6">
-        <v>-0.2020006644103273</v>
-      </c>
-      <c r="G49" s="6">
-        <v>-6.3667430383450907E-2</v>
-      </c>
-      <c r="H49" s="6">
-        <v>-0.11009064916414484</v>
-      </c>
-      <c r="I49" s="6">
-        <v>-0.1164385448884417</v>
-      </c>
-      <c r="J49" s="6">
-        <v>-0.13144266104608382</v>
-      </c>
-      <c r="K49" s="6">
-        <v>-0.1491338357093282</v>
-      </c>
-      <c r="L49" s="6">
-        <v>-0.11610768721160673</v>
-      </c>
-      <c r="M49" s="6">
-        <v>-0.139208713971753</v>
-      </c>
-      <c r="N49" s="6">
-        <v>-0.11372288253610517</v>
-      </c>
-      <c r="O49" s="6">
-        <v>-0.11673618161135896</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>45831</v>
-      </c>
-      <c r="B50" s="6">
-        <v>7.5112771588743313E-2</v>
-      </c>
-      <c r="C50" s="6">
-        <v>-8.7645166183801422E-3</v>
-      </c>
-      <c r="D50" s="6">
-        <v>-1.6965299482475701E-2</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1.553078049832054E-2</v>
-      </c>
-      <c r="F50" s="6">
-        <v>-4.6215749683696163E-2</v>
-      </c>
-      <c r="G50" s="6">
-        <v>-4.7251760555279014E-2</v>
-      </c>
-      <c r="H50" s="6">
-        <v>4.1345400418872247E-2</v>
-      </c>
-      <c r="I50" s="6">
-        <v>-1.7323951897398836E-2</v>
-      </c>
-      <c r="J50" s="6">
-        <v>3.3463111774291808E-2</v>
-      </c>
-      <c r="K50" s="6">
-        <v>-4.0797705344542252E-2</v>
-      </c>
-      <c r="L50" s="6">
-        <v>-1.9703341931854388E-2</v>
-      </c>
-      <c r="M50" s="6">
-        <v>2.5327152026577652E-2</v>
-      </c>
-      <c r="N50" s="6">
-        <v>1.7867217417696219E-2</v>
-      </c>
-      <c r="O50" s="6">
-        <v>-6.6539265783162795E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>45838</v>
-      </c>
-      <c r="B51" s="6">
-        <v>6.1219375411467547E-2</v>
-      </c>
-      <c r="C51" s="6">
-        <v>-5.1552860894941897E-2</v>
-      </c>
-      <c r="D51" s="6">
-        <v>-9.2162519488416507E-5</v>
-      </c>
-      <c r="E51" s="6">
-        <v>-8.2046851117616379E-3</v>
-      </c>
-      <c r="F51" s="6">
-        <v>1.2044941738648155E-2</v>
-      </c>
-      <c r="G51" s="6">
-        <v>-5.2448690750690041E-3</v>
-      </c>
-      <c r="H51" s="6">
-        <v>1.633859864558164E-2</v>
-      </c>
-      <c r="I51" s="6">
-        <v>-7.8447924319365054E-3</v>
-      </c>
-      <c r="J51" s="6">
-        <v>5.042165588930636E-2</v>
-      </c>
-      <c r="K51" s="6">
-        <v>3.1415305089848175E-2</v>
-      </c>
-      <c r="L51" s="6">
-        <v>2.3493114904290274E-3</v>
-      </c>
-      <c r="M51" s="6">
-        <v>-1.5978883635431037E-2</v>
-      </c>
-      <c r="N51" s="6">
-        <v>6.1583032237469651E-2</v>
-      </c>
-      <c r="O51" s="6">
-        <v>-5.7986268427840972E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>45845</v>
-      </c>
-      <c r="B52" s="6">
-        <v>0.12141581578923816</v>
-      </c>
-      <c r="C52" s="6">
-        <v>7.5725404644651662E-2</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.10769146505567442</v>
-      </c>
-      <c r="E52" s="6">
-        <v>0.12069307542378781</v>
-      </c>
-      <c r="F52" s="6">
-        <v>0.19383680210115725</v>
-      </c>
-      <c r="G52" s="6">
-        <v>8.0606968184680744E-2</v>
-      </c>
-      <c r="H52" s="6">
-        <v>6.5823007777881304E-2</v>
-      </c>
-      <c r="I52" s="6">
-        <v>0.42557370022853686</v>
-      </c>
-      <c r="J52" s="6">
-        <v>9.2196132077280904E-2</v>
-      </c>
-      <c r="K52" s="6">
-        <v>8.0151241981169644E-2</v>
-      </c>
-      <c r="L52" s="6">
-        <v>-7.9892366696140818E-2</v>
-      </c>
-      <c r="M52" s="6">
-        <v>7.8590422944946767E-2</v>
-      </c>
-      <c r="N52" s="6">
-        <v>9.9270147945333911E-2</v>
-      </c>
-      <c r="O52" s="6">
-        <v>0.12381424533467689</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="153d8594-0a83-44ab-ac9b-f2396cacfa35" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25102,26 +28281,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="153d8594-0a83-44ab-ac9b-f2396cacfa35" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{778B1B66-4D75-4878-AA9C-9C6A65DA845B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56CF2B96-7985-4D13-A0E6-8E5013531440}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="153d8594-0a83-44ab-ac9b-f2396cacfa35"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25145,9 +28315,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56CF2B96-7985-4D13-A0E6-8E5013531440}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{778B1B66-4D75-4878-AA9C-9C6A65DA845B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="153d8594-0a83-44ab-ac9b-f2396cacfa35"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
